--- a/pattern.xlsx
+++ b/pattern.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://socotecgroup.sharepoint.com/sites/DataHub/Documents partages/General/2. Projects/6231 - BlueAxel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ydefontaine\Documents\delivery\test-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{0333CA7C-439D-4375-8F5D-9199E7AD853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB11F55-7465-4653-9B6F-72E8507ACD86}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D42CF-773A-46AF-B1C5-727118F9A88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="305">
   <si>
     <t>V4</t>
   </si>
@@ -488,10 +488,6 @@
     <t>DCC (demande complète de contrat), y compris modificative le cas échéant</t>
   </si>
   <si>
-    <t>Demande de raccordement n° : 
-+ Mail modificatif</t>
-  </si>
-  <si>
     <t>Accord ou information de l'autorité administrative en cas de modifications vis-à-vis de l'offre (selon les exigences du cahier des charges de l'appel d'offres)</t>
   </si>
   <si>
@@ -515,11 +511,6 @@
 Nombres d'onduleurs : </t>
   </si>
   <si>
-    <t>Modules : 
-Onduleurs:
-Système d'intégration :</t>
-  </si>
-  <si>
     <t>Documentation du/des compteur(s) et transformateur(s), si propriété du client</t>
   </si>
   <si>
@@ -554,9 +545,6 @@
   </si>
   <si>
     <t>Qualification professionnelle ou certification pour la réalisation d'installations photovoltaïques pour l'entreprise réalisant l'installation (si exigée)</t>
-  </si>
-  <si>
-    <t>Qualification profressionnelle : n°</t>
   </si>
   <si>
     <t>Valable du **/**/*** au **/**/***</t>
@@ -1313,6 +1301,215 @@
   </si>
   <si>
     <t>Mail : récupérable sur le DCC (pas point de contrôle)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N° de gestion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIREN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+  </si>
+  <si>
+    <t>SIRET de l'installation (ou de la régie si public) → se différencie avec l'adresse de l'installation / l'adresse du kbis</t>
+  </si>
+  <si>
+    <t>Juste vérifier si le plan est fourni</t>
+  </si>
+  <si>
+    <t>Schéma unifilaire de l'installation : SU</t>
+  </si>
+  <si>
+    <t>Nom du projet : 
+Nombres de modules : 
+Puissance des modules : 
+Puissance crête installée :  vérifier avec le DCC
+Onduleur(s) photovoltaïque : Détail des onduleurs
+Puissance onduleur(s) max totale(s) : 
+Injection de la production : Vente totale</t>
+  </si>
+  <si>
+    <t>Documentations techniques des modules photovoltaïques, des auxiliaires, du/des onduleur(s), et du système d'intégration au bâti le cas échéant → dans plusieurs richiers</t>
+  </si>
+  <si>
+    <t>Conditions générales - Contrat d'achat de l'énergie électrique produite par les installations utilisant l'énergiesolaire photovoltaïque et bénéficiant de l'obligation d'achat d'électricité en vigueur
+Pas d'extraction il faut juste les avoir</t>
+  </si>
+  <si>
+    <t>Conditions particulières - Contrat d'achat de l'énergie électrique produite par les installations utilisant l'énergiesolaire photovoltaïque et bénéficiant de l'obligation d'achat d'électricité en vigueur → pas d'extraction il faut juste les avoir</t>
+  </si>
+  <si>
+    <t>Greffe du tribunal de commerce de : 
+Immatriculation au RCS : 
+Dénomination ou raison sociale : 
+Adresse du siège :</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dénomination (Nom entreprise) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Entreprise active depuis :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Identification SIRET du siège :</t>
+    </r>
+  </si>
+  <si>
+    <t>Référence des modules :
+Nombres des modules :</t>
+  </si>
+  <si>
+    <t>Modules : 
+Onduleurs :
+Système d'intégration :</t>
+  </si>
+  <si>
+    <t>Référence module :
+Puissance module :
+Emission carbone :
+Module fabriqué en : 
+Code ECS (si besoin) :</t>
+  </si>
+  <si>
+    <t>Emis par : 
+Pour l'entreprise : 
+Référence de la qualification :</t>
+  </si>
+  <si>
+    <t>Nom du projet : 
+PRM :
+SIRET de l'établissement :
+Adresse du site :
+Puissance de raccordement pour l'injection :
+Comptage :</t>
+  </si>
+  <si>
+    <t>CARDi n° de contrat :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualification profressionnelle : </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Modules </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Onduleurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Système d'intégration :</t>
+    </r>
+  </si>
+  <si>
+    <t>Facture n° :
+Bon de livraison n :</t>
+  </si>
+  <si>
+    <t>Demande de raccordement n° : 
+Mail modificatif :</t>
   </si>
   <si>
     <r>
@@ -1342,8 +1539,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Nom de l'installation: 
-N°SIRET de l'installation:  doit forcement être le même que le SIREN producteur
+      <t xml:space="preserve">Nom de l'installation : 
+N°SIRET de l'installation :
 Adresse de l'installation </t>
     </r>
     <r>
@@ -1362,7 +1559,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Puissance maximum de production installée : en  kVA → doit correspondre à la mm que la visite sur site
+      <t xml:space="preserve">Puissance maximum de production installée :
 </t>
     </r>
     <r>
@@ -1381,7 +1578,7 @@
         <family val="2"/>
       </rPr>
       <t>njection de la production : 
-Dispositif de bridage : à vérifier avec la visite sur site</t>
+Dispositif de bridage :</t>
     </r>
     <r>
       <rPr>
@@ -1399,7 +1596,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Puissance active maximale soutirée :  kW → pas un point de contrôle (a comparer avec la visite sur site)</t>
+      <t xml:space="preserve">Puissance active maximale soutirée : </t>
     </r>
     <r>
       <rPr>
@@ -1417,7 +1614,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Onduleur(s) photovoltaïque (ou unité de production)  → Détail des onduleurs (puissance ) comparer avec puissance maximum de production)</t>
+      <t>Onduleur(s) photovoltaïque (ou unité de production) :</t>
     </r>
     <r>
       <rPr>
@@ -1435,7 +1632,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Puissance crête installée :  kWc → a comparer avec la visite sur site</t>
+      <t>Puissance crête installée :</t>
     </r>
     <r>
       <rPr>
@@ -1471,10 +1668,10 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Point 1 : coordonnées point 1 
-Point 2:  coordonnées point 2
-Point 3:  coordonnées point 3
-Point 4:</t>
+      <t>Point 1 : 
+Point 2 : 
+Point 3 : 
+Point 4 :</t>
     </r>
     <r>
       <rPr>
@@ -1482,24 +1679,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> coordonnées point 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
@@ -1509,250 +1689,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Prime tuile : Oui / Non
+      <t xml:space="preserve">Prime tuile :
 Puissance Q : </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>N° de gestion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-  </si>
-  <si>
-    <t>Greffe du tribunal de commerce de : 
-Immatriculation au RCS : 
-Dénomination ou raison sociale : 
-Adresse du siège  → a comparer avec adresse producteur</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SIREN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-  </si>
-  <si>
-    <t>Date du document</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dénomination (Nom entreprise) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Entreprise active depuis : vérifier que l'entreprise est toujours active </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Identification SIRET du siège → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>SIRET de l'installation (ou de la régie si public) → se différencie avec l'adresse de l'installation / l'adresse du kbis</t>
-  </si>
-  <si>
-    <t>Juste vérifier si le plan est fourni</t>
-  </si>
-  <si>
-    <t>Schéma unifilaire de l'installation : SU</t>
-  </si>
-  <si>
-    <t>Nom du projet : 
-Nombres de modules : 
-Puissance des modules : 
-Puissance crête installée :  vérifier avec le DCC
-Onduleur(s) photovoltaïque : Détail des onduleurs
-Puissance onduleur(s) max totale(s) : 
-Injection de la production : Vente totale</t>
-  </si>
-  <si>
-    <t>Facture n° 
-Bon de livraison n → Pas obligatoire, si adresse stipule dans la facture</t>
-  </si>
-  <si>
-    <t>Référence des modules → Le nom du module
-Nombres des modules → il doit pas en avoir moiins que le DCC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Modules </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: la marque 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Onduleurs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : la marque
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Système d'intégration :</t>
-    </r>
-  </si>
-  <si>
-    <t>Documentations techniques des modules photovoltaïques, des auxiliaires, du/des onduleur(s), et du système d'intégration au bâti le cas échéant → dans plusieurs richiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emis par : 
-Pour l'entreprise : 
-Référence de la qualification : SPV2 → vérification (QUALIFELEC MENTION RGE)
-Que pour qualifielec il faut la mention RGE </t>
-  </si>
-  <si>
-    <t>CARDi n° de contrat</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Descendre dans la section "site"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Nom du projet : 
-PRM :
-SIRET de l'établissement :
-Adresse du site :
-Puissance de raccordement pour l'injection :
-Comptage :</t>
-    </r>
-  </si>
-  <si>
-    <t>Conditions générales - Contrat d'achat de l'énergie électrique produite par les installations utilisant l'énergiesolaire photovoltaïque et bénéficiant de l'obligation d'achat d'électricité en vigueur
-Pas d'extraction il faut juste les avoir</t>
-  </si>
-  <si>
-    <t>Conditions particulières - Contrat d'achat de l'énergie électrique produite par les installations utilisant l'énergiesolaire photovoltaïque et bénéficiant de l'obligation d'achat d'électricité en vigueur → pas d'extraction il faut juste les avoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Référence module :
-Puissance module :
-Emission carbone :  kg eq CO2/kWc
-Module fabriqué en : 
-Code ECS (si besoin) : 
-Certisolis attestent que… si il n'y a pas ca le certificat carbone n'est pas bon </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1960,13 +1906,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2541,7 +2480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2893,10 +2832,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2951,10 +2886,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2967,10 +2898,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3000,13 +2927,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3025,10 +2945,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3060,10 +2976,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3076,10 +2988,92 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3088,97 +3082,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3208,6 +3116,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3216,70 +3140,54 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3300,15 +3208,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3349,6 +3248,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3371,6 +3279,41 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5158,26 +5101,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="1"/>
       <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
       <c r="H2" s="1"/>
       <c r="J2" t="s">
         <v>3</v>
@@ -5188,8 +5131,8 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5197,8 +5140,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5211,14 +5154,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,76 +5174,76 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5313,72 +5256,72 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="172" t="s">
+      <c r="B20" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
       <c r="H20" s="1"/>
       <c r="J20" s="96" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
       <c r="H21" s="1"/>
       <c r="J21" s="96" t="s">
         <v>17</v>
@@ -5389,10 +5332,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5405,43 +5348,43 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5454,62 +5397,62 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="168" t="s">
+      <c r="B31" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5522,14 +5465,14 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="181"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5542,58 +5485,58 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="176" t="s">
+      <c r="B38" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
+        <v>279</v>
+      </c>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
+        <v>280</v>
+      </c>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="182"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="182"/>
+        <v>281</v>
+      </c>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="175"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="175"/>
+        <v>282</v>
+      </c>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5606,32 +5549,32 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="176"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="177"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="178"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5644,13 +5587,13 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="183" t="s">
+      <c r="B48" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="183"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
+      <c r="C48" s="161"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
       <c r="G48" s="15" t="s">
         <v>26</v>
       </c>
@@ -5660,12 +5603,12 @@
       <c r="B49" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="184" t="s">
+      <c r="C49" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="184"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
       <c r="G49" s="17"/>
       <c r="H49" s="1"/>
     </row>
@@ -5673,10 +5616,10 @@
       <c r="B50" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="185"/>
-      <c r="D50" s="185"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="185"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162"/>
       <c r="G50" s="19"/>
       <c r="H50" s="1"/>
     </row>
@@ -5684,12 +5627,12 @@
       <c r="B51" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="184" t="s">
+      <c r="C51" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="184"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="184"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="17"/>
       <c r="H51" s="1"/>
     </row>
@@ -5697,10 +5640,10 @@
       <c r="B52" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="185"/>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="185"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="162"/>
+      <c r="F52" s="162"/>
       <c r="G52" s="19"/>
       <c r="H52" s="1"/>
     </row>
@@ -5708,12 +5651,12 @@
       <c r="B53" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="184" t="s">
+      <c r="C53" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="184"/>
-      <c r="E53" s="184"/>
-      <c r="F53" s="184"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
       <c r="G53" s="17"/>
       <c r="H53" s="1"/>
     </row>
@@ -5721,10 +5664,10 @@
       <c r="B54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="186"/>
-      <c r="D54" s="186"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="186"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
       <c r="G54" s="20"/>
       <c r="H54" s="1"/>
     </row>
@@ -5732,12 +5675,12 @@
       <c r="B55" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="184" t="s">
+      <c r="C55" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="184"/>
-      <c r="E55" s="184"/>
-      <c r="F55" s="184"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="158"/>
+      <c r="F55" s="158"/>
       <c r="G55" s="17"/>
       <c r="H55" s="1"/>
     </row>
@@ -5745,10 +5688,10 @@
       <c r="B56" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="186"/>
-      <c r="D56" s="186"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="186"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
       <c r="G56" s="21"/>
       <c r="H56" s="1"/>
     </row>
@@ -5756,12 +5699,12 @@
       <c r="B57" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="187" t="s">
+      <c r="C57" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="187"/>
-      <c r="E57" s="187"/>
-      <c r="F57" s="187"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="160"/>
       <c r="G57" s="17"/>
       <c r="H57" s="1"/>
     </row>
@@ -5769,10 +5712,10 @@
       <c r="B58" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="188"/>
-      <c r="D58" s="188"/>
-      <c r="E58" s="188"/>
-      <c r="F58" s="188"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="154"/>
       <c r="G58" s="21"/>
       <c r="H58" s="1"/>
     </row>
@@ -5786,41 +5729,41 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="189" t="s">
+      <c r="B60" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="189"/>
-      <c r="D60" s="189"/>
-      <c r="E60" s="189"/>
-      <c r="F60" s="189"/>
-      <c r="G60" s="189"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
-      <c r="E61" s="190"/>
-      <c r="F61" s="190"/>
-      <c r="G61" s="190"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
     </row>
     <row r="62" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="191" t="s">
+      <c r="B62" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="191"/>
-      <c r="D62" s="191"/>
-      <c r="E62" s="190"/>
-      <c r="F62" s="190"/>
-      <c r="G62" s="190"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
     </row>
     <row r="63" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="190"/>
-      <c r="C63" s="190"/>
-      <c r="D63" s="190"/>
-      <c r="E63" s="190"/>
-      <c r="F63" s="190"/>
-      <c r="G63" s="190"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
     </row>
     <row r="64" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
@@ -5828,9 +5771,9 @@
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="190"/>
-      <c r="F64" s="190"/>
-      <c r="G64" s="190"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
     </row>
     <row r="66" spans="7:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
@@ -5864,62 +5807,62 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="E61:G64"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F1:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="F1:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="E61:G64"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B45:G46" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5947,8 +5890,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="79" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="79" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5962,23 +5905,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="D1" s="198"/>
+      <c r="B1" s="188"/>
+      <c r="D1" s="189"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25"/>
       <c r="B2" s="103"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="198"/>
+      <c r="D2" s="189"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="103"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="198"/>
+      <c r="D3" s="189"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
@@ -5995,12 +5938,12 @@
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
@@ -6017,70 +5960,70 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="133" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" s="144" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="B8" s="130" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" s="135" t="s">
-        <v>291</v>
+      <c r="B9" s="133" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="132" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" s="145" t="s">
+      <c r="A10" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="138" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="107" t="s">
+      <c r="C11" s="242"/>
+      <c r="D11" s="106" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="123" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6089,375 +6032,375 @@
         <v>61</v>
       </c>
       <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107" t="s">
+      <c r="C13" s="244"/>
+      <c r="D13" s="106" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="331.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="126" t="s">
+    <row r="14" spans="1:5" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="125" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="122"/>
+      <c r="B14" s="125" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="245" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="123" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="121"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="107" t="s">
+      <c r="B16" s="150"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="151" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="105"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="106" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="156" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="159" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="108" t="s">
+    <row r="18" spans="1:4" ht="150.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="152" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="153"/>
+      <c r="C18" s="247" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="151" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107" t="s">
+      <c r="B19" s="141" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="248" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="140" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="240" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="140" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="136" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="240" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="140" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="109"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="137"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="123"/>
+    </row>
+    <row r="24" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="245" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="109"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="109"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="106" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="150.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="160" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="109"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="105"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="142" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="143" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="110"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="241" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="159" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="148" t="s">
-        <v>296</v>
-      </c>
-      <c r="C19" s="147" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="146" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="148" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="146" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="142" t="s">
-        <v>299</v>
-      </c>
-      <c r="B21" s="130" t="s">
+      <c r="D31" s="239" t="s">
         <v>298</v>
-      </c>
-      <c r="C21" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="146" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="107" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="125"/>
-    </row>
-    <row r="24" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="130" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="146" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="107" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="121" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="123" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="149" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="150" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="120" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A31" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="138" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="140" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="119"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="120" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="B32" s="118"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="119" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="120" t="s">
-        <v>87</v>
+      <c r="A33" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="118"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="119" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="120" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B34" s="118"/>
+      <c r="C34" s="243"/>
+      <c r="D34" s="119" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="118"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="118"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="120" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="108" t="s">
+      <c r="C37" s="240" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="143" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="120" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="126" t="s">
+      <c r="B38" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="141" t="s">
+      <c r="C38" s="240" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="143" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="139" t="s">
+      <c r="B39" s="110"/>
+      <c r="C39" s="242"/>
+      <c r="D39" s="111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="110"/>
+      <c r="C40" s="242"/>
+      <c r="D40" s="111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="113"/>
+      <c r="C41" s="243"/>
+      <c r="D41" s="111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="147" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="145"/>
+      <c r="C42" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="150" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="141" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="150" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="112" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="108" t="s">
+      <c r="D42" s="146"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="112" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="113" t="s">
+      <c r="B43" s="113"/>
+      <c r="C43" s="242"/>
+      <c r="D43" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="112" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="154" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="151" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="139" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="153"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="115" t="s">
+      <c r="B44" s="113"/>
+      <c r="C44" s="242"/>
+      <c r="D44" s="115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="116" t="s">
+      <c r="B45" s="113"/>
+      <c r="C45" s="243"/>
+      <c r="D45" s="117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="183" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="115" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="116" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="118" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="192" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="193"/>
-      <c r="C46" s="194"/>
-      <c r="D46" s="195"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="186"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="72" t="s">
@@ -6519,7 +6462,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="40" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -6550,22 +6493,22 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="N1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="37" t="s">
         <v>46</v>
       </c>
@@ -6589,275 +6532,275 @@
     </row>
     <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
       <c r="G4" s="3"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="204"/>
+      <c r="C5" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="208" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="210"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="205"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="213" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214" t="s">
+      <c r="D6" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="210" t="s">
+      <c r="E6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="216"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="211"/>
-      <c r="B6" s="212"/>
-      <c r="C6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="217"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="211"/>
       <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="178" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="207"/>
+        <v>116</v>
+      </c>
+      <c r="G7" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="212"/>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
       <c r="F8" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="203" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="204"/>
+        <v>120</v>
+      </c>
+      <c r="G8" s="192" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="193"/>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
       <c r="F9" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="201" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="202"/>
+        <v>124</v>
+      </c>
+      <c r="G9" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="197"/>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="203" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="204"/>
+        <v>128</v>
+      </c>
+      <c r="G10" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="193"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
       <c r="F11" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="201" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="202"/>
+        <v>132</v>
+      </c>
+      <c r="G11" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="197"/>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="201" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="202"/>
+        <v>136</v>
+      </c>
+      <c r="G12" s="196" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="197"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="203" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="204"/>
+        <v>140</v>
+      </c>
+      <c r="G13" s="192" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="193"/>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="201" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="202"/>
+        <v>143</v>
+      </c>
+      <c r="G14" s="196" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="197"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
       <c r="F15" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="203" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="204"/>
+        <v>147</v>
+      </c>
+      <c r="G15" s="192" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="193"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:14" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="205" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="206"/>
+        <v>151</v>
+      </c>
+      <c r="G16" s="194" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="195"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:1011" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:1011" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="208" t="s">
+      <c r="B18" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
       <c r="G18" s="37" t="s">
         <v>46</v>
       </c>
@@ -6873,2342 +6816,2864 @@
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:1011" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="209" t="s">
+      <c r="A20" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="204"/>
+      <c r="C20" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="210"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="200"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="201"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200"/>
+      <c r="U20" s="200"/>
+      <c r="V20" s="201"/>
+      <c r="W20" s="201"/>
+      <c r="X20" s="201"/>
+      <c r="Y20" s="200"/>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="201"/>
+      <c r="AE20" s="201"/>
+      <c r="AF20" s="201"/>
+      <c r="AG20" s="200"/>
+      <c r="AH20" s="200"/>
+      <c r="AI20" s="200"/>
+      <c r="AJ20" s="200"/>
+      <c r="AK20" s="200"/>
+      <c r="AL20" s="201"/>
+      <c r="AM20" s="201"/>
+      <c r="AN20" s="201"/>
+      <c r="AO20" s="200"/>
+      <c r="AP20" s="200"/>
+      <c r="AQ20" s="200"/>
+      <c r="AR20" s="200"/>
+      <c r="AS20" s="200"/>
+      <c r="AT20" s="201"/>
+      <c r="AU20" s="201"/>
+      <c r="AV20" s="201"/>
+      <c r="AW20" s="200"/>
+      <c r="AX20" s="200"/>
+      <c r="AY20" s="200"/>
+      <c r="AZ20" s="200"/>
+      <c r="BA20" s="200"/>
+      <c r="BB20" s="201"/>
+      <c r="BC20" s="201"/>
+      <c r="BD20" s="201"/>
+      <c r="BE20" s="200"/>
+      <c r="BF20" s="200"/>
+      <c r="BG20" s="200"/>
+      <c r="BH20" s="200"/>
+      <c r="BI20" s="200"/>
+      <c r="BJ20" s="201"/>
+      <c r="BK20" s="201"/>
+      <c r="BL20" s="201"/>
+      <c r="BM20" s="200"/>
+      <c r="BN20" s="200"/>
+      <c r="BO20" s="200"/>
+      <c r="BP20" s="200"/>
+      <c r="BQ20" s="200"/>
+      <c r="BR20" s="201"/>
+      <c r="BS20" s="201"/>
+      <c r="BT20" s="201"/>
+      <c r="BU20" s="200"/>
+      <c r="BV20" s="200"/>
+      <c r="BW20" s="200"/>
+      <c r="BX20" s="200"/>
+      <c r="BY20" s="200"/>
+      <c r="BZ20" s="201"/>
+      <c r="CA20" s="201"/>
+      <c r="CB20" s="201"/>
+      <c r="CC20" s="200"/>
+      <c r="CD20" s="200"/>
+      <c r="CE20" s="200"/>
+      <c r="CF20" s="200"/>
+      <c r="CG20" s="200"/>
+      <c r="CH20" s="201"/>
+      <c r="CI20" s="201"/>
+      <c r="CJ20" s="201"/>
+      <c r="CK20" s="200"/>
+      <c r="CL20" s="200"/>
+      <c r="CM20" s="200"/>
+      <c r="CN20" s="200"/>
+      <c r="CO20" s="200"/>
+      <c r="CP20" s="201"/>
+      <c r="CQ20" s="201"/>
+      <c r="CR20" s="201"/>
+      <c r="CS20" s="200"/>
+      <c r="CT20" s="200"/>
+      <c r="CU20" s="200"/>
+      <c r="CV20" s="200"/>
+      <c r="CW20" s="200"/>
+      <c r="CX20" s="201"/>
+      <c r="CY20" s="201"/>
+      <c r="CZ20" s="201"/>
+      <c r="DA20" s="200"/>
+      <c r="DB20" s="200"/>
+      <c r="DC20" s="200"/>
+      <c r="DD20" s="200"/>
+      <c r="DE20" s="200"/>
+      <c r="DF20" s="201"/>
+      <c r="DG20" s="201"/>
+      <c r="DH20" s="201"/>
+      <c r="DI20" s="200"/>
+      <c r="DJ20" s="200"/>
+      <c r="DK20" s="200"/>
+      <c r="DL20" s="200"/>
+      <c r="DM20" s="200"/>
+      <c r="DN20" s="201"/>
+      <c r="DO20" s="201"/>
+      <c r="DP20" s="201"/>
+      <c r="DQ20" s="200"/>
+      <c r="DR20" s="200"/>
+      <c r="DS20" s="200"/>
+      <c r="DT20" s="200"/>
+      <c r="DU20" s="200"/>
+      <c r="DV20" s="201"/>
+      <c r="DW20" s="201"/>
+      <c r="DX20" s="201"/>
+      <c r="DY20" s="200"/>
+      <c r="DZ20" s="200"/>
+      <c r="EA20" s="200"/>
+      <c r="EB20" s="200"/>
+      <c r="EC20" s="200"/>
+      <c r="ED20" s="201"/>
+      <c r="EE20" s="201"/>
+      <c r="EF20" s="201"/>
+      <c r="EG20" s="200"/>
+      <c r="EH20" s="200"/>
+      <c r="EI20" s="200"/>
+      <c r="EJ20" s="200"/>
+      <c r="EK20" s="200"/>
+      <c r="EL20" s="201"/>
+      <c r="EM20" s="201"/>
+      <c r="EN20" s="201"/>
+      <c r="EO20" s="200"/>
+      <c r="EP20" s="200"/>
+      <c r="EQ20" s="200"/>
+      <c r="ER20" s="200"/>
+      <c r="ES20" s="200"/>
+      <c r="ET20" s="201"/>
+      <c r="EU20" s="201"/>
+      <c r="EV20" s="201"/>
+      <c r="EW20" s="200"/>
+      <c r="EX20" s="200"/>
+      <c r="EY20" s="200"/>
+      <c r="EZ20" s="200"/>
+      <c r="FA20" s="200"/>
+      <c r="FB20" s="201"/>
+      <c r="FC20" s="201"/>
+      <c r="FD20" s="201"/>
+      <c r="FE20" s="200"/>
+      <c r="FF20" s="200"/>
+      <c r="FG20" s="200"/>
+      <c r="FH20" s="200"/>
+      <c r="FI20" s="200"/>
+      <c r="FJ20" s="201"/>
+      <c r="FK20" s="201"/>
+      <c r="FL20" s="201"/>
+      <c r="FM20" s="200"/>
+      <c r="FN20" s="200"/>
+      <c r="FO20" s="200"/>
+      <c r="FP20" s="200"/>
+      <c r="FQ20" s="200"/>
+      <c r="FR20" s="201"/>
+      <c r="FS20" s="201"/>
+      <c r="FT20" s="201"/>
+      <c r="FU20" s="200"/>
+      <c r="FV20" s="200"/>
+      <c r="FW20" s="200"/>
+      <c r="FX20" s="200"/>
+      <c r="FY20" s="200"/>
+      <c r="FZ20" s="201"/>
+      <c r="GA20" s="201"/>
+      <c r="GB20" s="201"/>
+      <c r="GC20" s="200"/>
+      <c r="GD20" s="200"/>
+      <c r="GE20" s="200"/>
+      <c r="GF20" s="200"/>
+      <c r="GG20" s="200"/>
+      <c r="GH20" s="201"/>
+      <c r="GI20" s="201"/>
+      <c r="GJ20" s="201"/>
+      <c r="GK20" s="200"/>
+      <c r="GL20" s="200"/>
+      <c r="GM20" s="200"/>
+      <c r="GN20" s="200"/>
+      <c r="GO20" s="200"/>
+      <c r="GP20" s="201"/>
+      <c r="GQ20" s="201"/>
+      <c r="GR20" s="201"/>
+      <c r="GS20" s="200"/>
+      <c r="GT20" s="200"/>
+      <c r="GU20" s="200"/>
+      <c r="GV20" s="200"/>
+      <c r="GW20" s="200"/>
+      <c r="GX20" s="201"/>
+      <c r="GY20" s="201"/>
+      <c r="GZ20" s="201"/>
+      <c r="HA20" s="200"/>
+      <c r="HB20" s="200"/>
+      <c r="HC20" s="200"/>
+      <c r="HD20" s="200"/>
+      <c r="HE20" s="200"/>
+      <c r="HF20" s="201"/>
+      <c r="HG20" s="201"/>
+      <c r="HH20" s="201"/>
+      <c r="HI20" s="200"/>
+      <c r="HJ20" s="200"/>
+      <c r="HK20" s="200"/>
+      <c r="HL20" s="200"/>
+      <c r="HM20" s="200"/>
+      <c r="HN20" s="201"/>
+      <c r="HO20" s="201"/>
+      <c r="HP20" s="201"/>
+      <c r="HQ20" s="200"/>
+      <c r="HR20" s="200"/>
+      <c r="HS20" s="200"/>
+      <c r="HT20" s="200"/>
+      <c r="HU20" s="200"/>
+      <c r="HV20" s="201"/>
+      <c r="HW20" s="201"/>
+      <c r="HX20" s="201"/>
+      <c r="HY20" s="200"/>
+      <c r="HZ20" s="200"/>
+      <c r="IA20" s="200"/>
+      <c r="IB20" s="200"/>
+      <c r="IC20" s="200"/>
+      <c r="ID20" s="201"/>
+      <c r="IE20" s="201"/>
+      <c r="IF20" s="201"/>
+      <c r="IG20" s="200"/>
+      <c r="IH20" s="200"/>
+      <c r="II20" s="200"/>
+      <c r="IJ20" s="200"/>
+      <c r="IK20" s="200"/>
+      <c r="IL20" s="201"/>
+      <c r="IM20" s="201"/>
+      <c r="IN20" s="201"/>
+      <c r="IO20" s="200"/>
+      <c r="IP20" s="200"/>
+      <c r="IQ20" s="200"/>
+      <c r="IR20" s="200"/>
+      <c r="IS20" s="200"/>
+      <c r="IT20" s="201"/>
+      <c r="IU20" s="201"/>
+      <c r="IV20" s="201"/>
+      <c r="IW20" s="200"/>
+      <c r="IX20" s="200"/>
+      <c r="IY20" s="200"/>
+      <c r="IZ20" s="200"/>
+      <c r="JA20" s="200"/>
+      <c r="JB20" s="201"/>
+      <c r="JC20" s="201"/>
+      <c r="JD20" s="201"/>
+      <c r="JE20" s="200"/>
+      <c r="JF20" s="200"/>
+      <c r="JG20" s="200"/>
+      <c r="JH20" s="200"/>
+      <c r="JI20" s="200"/>
+      <c r="JJ20" s="201"/>
+      <c r="JK20" s="201"/>
+      <c r="JL20" s="201"/>
+      <c r="JM20" s="200"/>
+      <c r="JN20" s="200"/>
+      <c r="JO20" s="200"/>
+      <c r="JP20" s="200"/>
+      <c r="JQ20" s="200"/>
+      <c r="JR20" s="201"/>
+      <c r="JS20" s="201"/>
+      <c r="JT20" s="201"/>
+      <c r="JU20" s="200"/>
+      <c r="JV20" s="200"/>
+      <c r="JW20" s="200"/>
+      <c r="JX20" s="200"/>
+      <c r="JY20" s="200"/>
+      <c r="JZ20" s="201"/>
+      <c r="KA20" s="201"/>
+      <c r="KB20" s="201"/>
+      <c r="KC20" s="200"/>
+      <c r="KD20" s="200"/>
+      <c r="KE20" s="200"/>
+      <c r="KF20" s="200"/>
+      <c r="KG20" s="200"/>
+      <c r="KH20" s="201"/>
+      <c r="KI20" s="201"/>
+      <c r="KJ20" s="201"/>
+      <c r="KK20" s="200"/>
+      <c r="KL20" s="200"/>
+      <c r="KM20" s="200"/>
+      <c r="KN20" s="200"/>
+      <c r="KO20" s="200"/>
+      <c r="KP20" s="201"/>
+      <c r="KQ20" s="201"/>
+      <c r="KR20" s="201"/>
+      <c r="KS20" s="200"/>
+      <c r="KT20" s="200"/>
+      <c r="KU20" s="200"/>
+      <c r="KV20" s="200"/>
+      <c r="KW20" s="200"/>
+      <c r="KX20" s="201"/>
+      <c r="KY20" s="201"/>
+      <c r="KZ20" s="201"/>
+      <c r="LA20" s="200"/>
+      <c r="LB20" s="200"/>
+      <c r="LC20" s="200"/>
+      <c r="LD20" s="200"/>
+      <c r="LE20" s="200"/>
+      <c r="LF20" s="201"/>
+      <c r="LG20" s="201"/>
+      <c r="LH20" s="201"/>
+      <c r="LI20" s="200"/>
+      <c r="LJ20" s="200"/>
+      <c r="LK20" s="200"/>
+      <c r="LL20" s="200"/>
+      <c r="LM20" s="200"/>
+      <c r="LN20" s="201"/>
+      <c r="LO20" s="201"/>
+      <c r="LP20" s="201"/>
+      <c r="LQ20" s="200"/>
+      <c r="LR20" s="200"/>
+      <c r="LS20" s="200"/>
+      <c r="LT20" s="200"/>
+      <c r="LU20" s="200"/>
+      <c r="LV20" s="201"/>
+      <c r="LW20" s="201"/>
+      <c r="LX20" s="201"/>
+      <c r="LY20" s="200"/>
+      <c r="LZ20" s="200"/>
+      <c r="MA20" s="200"/>
+      <c r="MB20" s="200"/>
+      <c r="MC20" s="200"/>
+      <c r="MD20" s="201"/>
+      <c r="ME20" s="201"/>
+      <c r="MF20" s="201"/>
+      <c r="MG20" s="200"/>
+      <c r="MH20" s="200"/>
+      <c r="MI20" s="200"/>
+      <c r="MJ20" s="200"/>
+      <c r="MK20" s="200"/>
+      <c r="ML20" s="201"/>
+      <c r="MM20" s="201"/>
+      <c r="MN20" s="201"/>
+      <c r="MO20" s="200"/>
+      <c r="MP20" s="200"/>
+      <c r="MQ20" s="200"/>
+      <c r="MR20" s="200"/>
+      <c r="MS20" s="200"/>
+      <c r="MT20" s="201"/>
+      <c r="MU20" s="201"/>
+      <c r="MV20" s="201"/>
+      <c r="MW20" s="200"/>
+      <c r="MX20" s="200"/>
+      <c r="MY20" s="200"/>
+      <c r="MZ20" s="200"/>
+      <c r="NA20" s="200"/>
+      <c r="NB20" s="201"/>
+      <c r="NC20" s="201"/>
+      <c r="ND20" s="201"/>
+      <c r="NE20" s="200"/>
+      <c r="NF20" s="200"/>
+      <c r="NG20" s="200"/>
+      <c r="NH20" s="200"/>
+      <c r="NI20" s="200"/>
+      <c r="NJ20" s="201"/>
+      <c r="NK20" s="201"/>
+      <c r="NL20" s="201"/>
+      <c r="NM20" s="200"/>
+      <c r="NN20" s="200"/>
+      <c r="NO20" s="200"/>
+      <c r="NP20" s="200"/>
+      <c r="NQ20" s="200"/>
+      <c r="NR20" s="201"/>
+      <c r="NS20" s="201"/>
+      <c r="NT20" s="201"/>
+      <c r="NU20" s="200"/>
+      <c r="NV20" s="200"/>
+      <c r="NW20" s="200"/>
+      <c r="NX20" s="200"/>
+      <c r="NY20" s="200"/>
+      <c r="NZ20" s="201"/>
+      <c r="OA20" s="201"/>
+      <c r="OB20" s="201"/>
+      <c r="OC20" s="200"/>
+      <c r="OD20" s="200"/>
+      <c r="OE20" s="200"/>
+      <c r="OF20" s="200"/>
+      <c r="OG20" s="200"/>
+      <c r="OH20" s="201"/>
+      <c r="OI20" s="201"/>
+      <c r="OJ20" s="201"/>
+      <c r="OK20" s="200"/>
+      <c r="OL20" s="200"/>
+      <c r="OM20" s="200"/>
+      <c r="ON20" s="200"/>
+      <c r="OO20" s="200"/>
+      <c r="OP20" s="201"/>
+      <c r="OQ20" s="201"/>
+      <c r="OR20" s="201"/>
+      <c r="OS20" s="200"/>
+      <c r="OT20" s="200"/>
+      <c r="OU20" s="200"/>
+      <c r="OV20" s="200"/>
+      <c r="OW20" s="200"/>
+      <c r="OX20" s="201"/>
+      <c r="OY20" s="201"/>
+      <c r="OZ20" s="201"/>
+      <c r="PA20" s="200"/>
+      <c r="PB20" s="200"/>
+      <c r="PC20" s="200"/>
+      <c r="PD20" s="200"/>
+      <c r="PE20" s="200"/>
+      <c r="PF20" s="201"/>
+      <c r="PG20" s="201"/>
+      <c r="PH20" s="201"/>
+      <c r="PI20" s="200"/>
+      <c r="PJ20" s="200"/>
+      <c r="PK20" s="200"/>
+      <c r="PL20" s="200"/>
+      <c r="PM20" s="200"/>
+      <c r="PN20" s="201"/>
+      <c r="PO20" s="201"/>
+      <c r="PP20" s="201"/>
+      <c r="PQ20" s="200"/>
+      <c r="PR20" s="200"/>
+      <c r="PS20" s="200"/>
+      <c r="PT20" s="200"/>
+      <c r="PU20" s="200"/>
+      <c r="PV20" s="201"/>
+      <c r="PW20" s="201"/>
+      <c r="PX20" s="201"/>
+      <c r="PY20" s="200"/>
+      <c r="PZ20" s="200"/>
+      <c r="QA20" s="200"/>
+      <c r="QB20" s="200"/>
+      <c r="QC20" s="200"/>
+      <c r="QD20" s="201"/>
+      <c r="QE20" s="201"/>
+      <c r="QF20" s="201"/>
+      <c r="QG20" s="200"/>
+      <c r="QH20" s="200"/>
+      <c r="QI20" s="200"/>
+      <c r="QJ20" s="200"/>
+      <c r="QK20" s="200"/>
+      <c r="QL20" s="201"/>
+      <c r="QM20" s="201"/>
+      <c r="QN20" s="201"/>
+      <c r="QO20" s="200"/>
+      <c r="QP20" s="200"/>
+      <c r="QQ20" s="200"/>
+      <c r="QR20" s="200"/>
+      <c r="QS20" s="200"/>
+      <c r="QT20" s="201"/>
+      <c r="QU20" s="201"/>
+      <c r="QV20" s="201"/>
+      <c r="QW20" s="200"/>
+      <c r="QX20" s="200"/>
+      <c r="QY20" s="200"/>
+      <c r="QZ20" s="200"/>
+      <c r="RA20" s="200"/>
+      <c r="RB20" s="201"/>
+      <c r="RC20" s="201"/>
+      <c r="RD20" s="201"/>
+      <c r="RE20" s="200"/>
+      <c r="RF20" s="200"/>
+      <c r="RG20" s="200"/>
+      <c r="RH20" s="200"/>
+      <c r="RI20" s="200"/>
+      <c r="RJ20" s="201"/>
+      <c r="RK20" s="201"/>
+      <c r="RL20" s="201"/>
+      <c r="RM20" s="200"/>
+      <c r="RN20" s="200"/>
+      <c r="RO20" s="200"/>
+      <c r="RP20" s="200"/>
+      <c r="RQ20" s="200"/>
+      <c r="RR20" s="201"/>
+      <c r="RS20" s="201"/>
+      <c r="RT20" s="201"/>
+      <c r="RU20" s="200"/>
+      <c r="RV20" s="200"/>
+      <c r="RW20" s="200"/>
+      <c r="RX20" s="200"/>
+      <c r="RY20" s="200"/>
+      <c r="RZ20" s="201"/>
+      <c r="SA20" s="201"/>
+      <c r="SB20" s="201"/>
+      <c r="SC20" s="200"/>
+      <c r="SD20" s="200"/>
+      <c r="SE20" s="200"/>
+      <c r="SF20" s="200"/>
+      <c r="SG20" s="200"/>
+      <c r="SH20" s="201"/>
+      <c r="SI20" s="201"/>
+      <c r="SJ20" s="201"/>
+      <c r="SK20" s="200"/>
+      <c r="SL20" s="200"/>
+      <c r="SM20" s="200"/>
+      <c r="SN20" s="200"/>
+      <c r="SO20" s="200"/>
+      <c r="SP20" s="201"/>
+      <c r="SQ20" s="201"/>
+      <c r="SR20" s="201"/>
+      <c r="SS20" s="200"/>
+      <c r="ST20" s="200"/>
+      <c r="SU20" s="200"/>
+      <c r="SV20" s="200"/>
+      <c r="SW20" s="200"/>
+      <c r="SX20" s="201"/>
+      <c r="SY20" s="201"/>
+      <c r="SZ20" s="201"/>
+      <c r="TA20" s="200"/>
+      <c r="TB20" s="200"/>
+      <c r="TC20" s="200"/>
+      <c r="TD20" s="200"/>
+      <c r="TE20" s="200"/>
+      <c r="TF20" s="201"/>
+      <c r="TG20" s="201"/>
+      <c r="TH20" s="201"/>
+      <c r="TI20" s="200"/>
+      <c r="TJ20" s="200"/>
+      <c r="TK20" s="200"/>
+      <c r="TL20" s="200"/>
+      <c r="TM20" s="200"/>
+      <c r="TN20" s="201"/>
+      <c r="TO20" s="201"/>
+      <c r="TP20" s="201"/>
+      <c r="TQ20" s="200"/>
+      <c r="TR20" s="200"/>
+      <c r="TS20" s="200"/>
+      <c r="TT20" s="200"/>
+      <c r="TU20" s="200"/>
+      <c r="TV20" s="201"/>
+      <c r="TW20" s="201"/>
+      <c r="TX20" s="201"/>
+      <c r="TY20" s="200"/>
+      <c r="TZ20" s="200"/>
+      <c r="UA20" s="200"/>
+      <c r="UB20" s="200"/>
+      <c r="UC20" s="200"/>
+      <c r="UD20" s="201"/>
+      <c r="UE20" s="201"/>
+      <c r="UF20" s="201"/>
+      <c r="UG20" s="200"/>
+      <c r="UH20" s="200"/>
+      <c r="UI20" s="200"/>
+      <c r="UJ20" s="200"/>
+      <c r="UK20" s="200"/>
+      <c r="UL20" s="201"/>
+      <c r="UM20" s="201"/>
+      <c r="UN20" s="201"/>
+      <c r="UO20" s="200"/>
+      <c r="UP20" s="200"/>
+      <c r="UQ20" s="200"/>
+      <c r="UR20" s="200"/>
+      <c r="US20" s="200"/>
+      <c r="UT20" s="201"/>
+      <c r="UU20" s="201"/>
+      <c r="UV20" s="201"/>
+      <c r="UW20" s="200"/>
+      <c r="UX20" s="200"/>
+      <c r="UY20" s="200"/>
+      <c r="UZ20" s="200"/>
+      <c r="VA20" s="200"/>
+      <c r="VB20" s="201"/>
+      <c r="VC20" s="201"/>
+      <c r="VD20" s="201"/>
+      <c r="VE20" s="200"/>
+      <c r="VF20" s="200"/>
+      <c r="VG20" s="200"/>
+      <c r="VH20" s="200"/>
+      <c r="VI20" s="200"/>
+      <c r="VJ20" s="201"/>
+      <c r="VK20" s="201"/>
+      <c r="VL20" s="201"/>
+      <c r="VM20" s="200"/>
+      <c r="VN20" s="200"/>
+      <c r="VO20" s="200"/>
+      <c r="VP20" s="200"/>
+      <c r="VQ20" s="200"/>
+      <c r="VR20" s="201"/>
+      <c r="VS20" s="201"/>
+      <c r="VT20" s="201"/>
+      <c r="VU20" s="200"/>
+      <c r="VV20" s="200"/>
+      <c r="VW20" s="200"/>
+      <c r="VX20" s="200"/>
+      <c r="VY20" s="200"/>
+      <c r="VZ20" s="201"/>
+      <c r="WA20" s="201"/>
+      <c r="WB20" s="201"/>
+      <c r="WC20" s="200"/>
+      <c r="WD20" s="200"/>
+      <c r="WE20" s="200"/>
+      <c r="WF20" s="200"/>
+      <c r="WG20" s="200"/>
+      <c r="WH20" s="201"/>
+      <c r="WI20" s="201"/>
+      <c r="WJ20" s="201"/>
+      <c r="WK20" s="200"/>
+      <c r="WL20" s="200"/>
+      <c r="WM20" s="200"/>
+      <c r="WN20" s="200"/>
+      <c r="WO20" s="200"/>
+      <c r="WP20" s="201"/>
+      <c r="WQ20" s="201"/>
+      <c r="WR20" s="201"/>
+      <c r="WS20" s="200"/>
+      <c r="WT20" s="200"/>
+      <c r="WU20" s="200"/>
+      <c r="WV20" s="200"/>
+      <c r="WW20" s="200"/>
+      <c r="WX20" s="201"/>
+      <c r="WY20" s="201"/>
+      <c r="WZ20" s="201"/>
+      <c r="XA20" s="200"/>
+      <c r="XB20" s="200"/>
+      <c r="XC20" s="200"/>
+      <c r="XD20" s="200"/>
+      <c r="XE20" s="200"/>
+      <c r="XF20" s="201"/>
+      <c r="XG20" s="201"/>
+      <c r="XH20" s="201"/>
+      <c r="XI20" s="200"/>
+      <c r="XJ20" s="200"/>
+      <c r="XK20" s="200"/>
+      <c r="XL20" s="200"/>
+      <c r="XM20" s="200"/>
+      <c r="XN20" s="201"/>
+      <c r="XO20" s="201"/>
+      <c r="XP20" s="201"/>
+      <c r="XQ20" s="200"/>
+      <c r="XR20" s="200"/>
+      <c r="XS20" s="200"/>
+      <c r="XT20" s="200"/>
+      <c r="XU20" s="200"/>
+      <c r="XV20" s="201"/>
+      <c r="XW20" s="201"/>
+      <c r="XX20" s="201"/>
+      <c r="XY20" s="200"/>
+      <c r="XZ20" s="200"/>
+      <c r="YA20" s="200"/>
+      <c r="YB20" s="200"/>
+      <c r="YC20" s="200"/>
+      <c r="YD20" s="201"/>
+      <c r="YE20" s="201"/>
+      <c r="YF20" s="201"/>
+      <c r="YG20" s="200"/>
+      <c r="YH20" s="200"/>
+      <c r="YI20" s="200"/>
+      <c r="YJ20" s="200"/>
+      <c r="YK20" s="200"/>
+      <c r="YL20" s="201"/>
+      <c r="YM20" s="201"/>
+      <c r="YN20" s="201"/>
+      <c r="YO20" s="200"/>
+      <c r="YP20" s="200"/>
+      <c r="YQ20" s="200"/>
+      <c r="YR20" s="200"/>
+      <c r="YS20" s="200"/>
+      <c r="YT20" s="201"/>
+      <c r="YU20" s="201"/>
+      <c r="YV20" s="201"/>
+      <c r="YW20" s="200"/>
+      <c r="YX20" s="200"/>
+      <c r="YY20" s="200"/>
+      <c r="YZ20" s="200"/>
+      <c r="ZA20" s="200"/>
+      <c r="ZB20" s="201"/>
+      <c r="ZC20" s="201"/>
+      <c r="ZD20" s="201"/>
+      <c r="ZE20" s="200"/>
+      <c r="ZF20" s="200"/>
+      <c r="ZG20" s="200"/>
+      <c r="ZH20" s="200"/>
+      <c r="ZI20" s="200"/>
+      <c r="ZJ20" s="201"/>
+      <c r="ZK20" s="201"/>
+      <c r="ZL20" s="201"/>
+      <c r="ZM20" s="200"/>
+      <c r="ZN20" s="200"/>
+      <c r="ZO20" s="200"/>
+      <c r="ZP20" s="200"/>
+      <c r="ZQ20" s="200"/>
+      <c r="ZR20" s="201"/>
+      <c r="ZS20" s="201"/>
+      <c r="ZT20" s="201"/>
+      <c r="ZU20" s="200"/>
+      <c r="ZV20" s="200"/>
+      <c r="ZW20" s="200"/>
+      <c r="ZX20" s="200"/>
+      <c r="ZY20" s="200"/>
+      <c r="ZZ20" s="201"/>
+      <c r="AAA20" s="201"/>
+      <c r="AAB20" s="201"/>
+      <c r="AAC20" s="200"/>
+      <c r="AAD20" s="200"/>
+      <c r="AAE20" s="200"/>
+      <c r="AAF20" s="200"/>
+      <c r="AAG20" s="200"/>
+      <c r="AAH20" s="201"/>
+      <c r="AAI20" s="201"/>
+      <c r="AAJ20" s="201"/>
+      <c r="AAK20" s="200"/>
+      <c r="AAL20" s="200"/>
+      <c r="AAM20" s="200"/>
+      <c r="AAN20" s="200"/>
+      <c r="AAO20" s="200"/>
+      <c r="AAP20" s="201"/>
+      <c r="AAQ20" s="201"/>
+      <c r="AAR20" s="201"/>
+      <c r="AAS20" s="200"/>
+      <c r="AAT20" s="200"/>
+      <c r="AAU20" s="200"/>
+      <c r="AAV20" s="200"/>
+      <c r="AAW20" s="200"/>
+      <c r="AAX20" s="201"/>
+      <c r="AAY20" s="201"/>
+      <c r="AAZ20" s="201"/>
+      <c r="ABA20" s="200"/>
+      <c r="ABB20" s="200"/>
+      <c r="ABC20" s="200"/>
+      <c r="ABD20" s="200"/>
+      <c r="ABE20" s="200"/>
+      <c r="ABF20" s="201"/>
+      <c r="ABG20" s="201"/>
+      <c r="ABH20" s="201"/>
+      <c r="ABI20" s="200"/>
+      <c r="ABJ20" s="200"/>
+      <c r="ABK20" s="200"/>
+      <c r="ABL20" s="200"/>
+      <c r="ABM20" s="200"/>
+      <c r="ABN20" s="201"/>
+      <c r="ABO20" s="201"/>
+      <c r="ABP20" s="201"/>
+      <c r="ABQ20" s="200"/>
+      <c r="ABR20" s="200"/>
+      <c r="ABS20" s="200"/>
+      <c r="ABT20" s="200"/>
+      <c r="ABU20" s="200"/>
+      <c r="ABV20" s="201"/>
+      <c r="ABW20" s="201"/>
+      <c r="ABX20" s="201"/>
+      <c r="ABY20" s="200"/>
+      <c r="ABZ20" s="200"/>
+      <c r="ACA20" s="200"/>
+      <c r="ACB20" s="200"/>
+      <c r="ACC20" s="200"/>
+      <c r="ACD20" s="201"/>
+      <c r="ACE20" s="201"/>
+      <c r="ACF20" s="201"/>
+      <c r="ACG20" s="200"/>
+      <c r="ACH20" s="200"/>
+      <c r="ACI20" s="200"/>
+      <c r="ACJ20" s="200"/>
+      <c r="ACK20" s="200"/>
+      <c r="ACL20" s="201"/>
+      <c r="ACM20" s="201"/>
+      <c r="ACN20" s="201"/>
+      <c r="ACO20" s="200"/>
+      <c r="ACP20" s="200"/>
+      <c r="ACQ20" s="200"/>
+      <c r="ACR20" s="200"/>
+      <c r="ACS20" s="200"/>
+      <c r="ACT20" s="201"/>
+      <c r="ACU20" s="201"/>
+      <c r="ACV20" s="201"/>
+      <c r="ACW20" s="200"/>
+      <c r="ACX20" s="200"/>
+      <c r="ACY20" s="200"/>
+      <c r="ACZ20" s="200"/>
+      <c r="ADA20" s="200"/>
+      <c r="ADB20" s="201"/>
+      <c r="ADC20" s="201"/>
+      <c r="ADD20" s="201"/>
+      <c r="ADE20" s="200"/>
+      <c r="ADF20" s="200"/>
+      <c r="ADG20" s="200"/>
+      <c r="ADH20" s="200"/>
+      <c r="ADI20" s="200"/>
+      <c r="ADJ20" s="201"/>
+      <c r="ADK20" s="201"/>
+      <c r="ADL20" s="201"/>
+      <c r="ADM20" s="200"/>
+      <c r="ADN20" s="200"/>
+      <c r="ADO20" s="200"/>
+      <c r="ADP20" s="200"/>
+      <c r="ADQ20" s="200"/>
+      <c r="ADR20" s="201"/>
+      <c r="ADS20" s="201"/>
+      <c r="ADT20" s="201"/>
+      <c r="ADU20" s="200"/>
+      <c r="ADV20" s="200"/>
+      <c r="ADW20" s="200"/>
+      <c r="ADX20" s="200"/>
+      <c r="ADY20" s="200"/>
+      <c r="ADZ20" s="201"/>
+      <c r="AEA20" s="201"/>
+      <c r="AEB20" s="201"/>
+      <c r="AEC20" s="200"/>
+      <c r="AED20" s="200"/>
+      <c r="AEE20" s="200"/>
+      <c r="AEF20" s="200"/>
+      <c r="AEG20" s="200"/>
+      <c r="AEH20" s="201"/>
+      <c r="AEI20" s="201"/>
+      <c r="AEJ20" s="201"/>
+      <c r="AEK20" s="200"/>
+      <c r="AEL20" s="200"/>
+      <c r="AEM20" s="200"/>
+      <c r="AEN20" s="200"/>
+      <c r="AEO20" s="200"/>
+      <c r="AEP20" s="201"/>
+      <c r="AEQ20" s="201"/>
+      <c r="AER20" s="201"/>
+      <c r="AES20" s="200"/>
+      <c r="AET20" s="200"/>
+      <c r="AEU20" s="200"/>
+      <c r="AEV20" s="200"/>
+      <c r="AEW20" s="200"/>
+      <c r="AEX20" s="201"/>
+      <c r="AEY20" s="201"/>
+      <c r="AEZ20" s="201"/>
+      <c r="AFA20" s="200"/>
+      <c r="AFB20" s="200"/>
+      <c r="AFC20" s="200"/>
+      <c r="AFD20" s="200"/>
+      <c r="AFE20" s="200"/>
+      <c r="AFF20" s="201"/>
+      <c r="AFG20" s="201"/>
+      <c r="AFH20" s="201"/>
+      <c r="AFI20" s="200"/>
+      <c r="AFJ20" s="200"/>
+      <c r="AFK20" s="200"/>
+      <c r="AFL20" s="200"/>
+      <c r="AFM20" s="200"/>
+      <c r="AFN20" s="201"/>
+      <c r="AFO20" s="201"/>
+      <c r="AFP20" s="201"/>
+      <c r="AFQ20" s="200"/>
+      <c r="AFR20" s="200"/>
+      <c r="AFS20" s="200"/>
+      <c r="AFT20" s="200"/>
+      <c r="AFU20" s="200"/>
+      <c r="AFV20" s="201"/>
+      <c r="AFW20" s="201"/>
+      <c r="AFX20" s="201"/>
+      <c r="AFY20" s="200"/>
+      <c r="AFZ20" s="200"/>
+      <c r="AGA20" s="200"/>
+      <c r="AGB20" s="200"/>
+      <c r="AGC20" s="200"/>
+      <c r="AGD20" s="201"/>
+      <c r="AGE20" s="201"/>
+      <c r="AGF20" s="201"/>
+      <c r="AGG20" s="200"/>
+      <c r="AGH20" s="200"/>
+      <c r="AGI20" s="200"/>
+      <c r="AGJ20" s="200"/>
+      <c r="AGK20" s="200"/>
+      <c r="AGL20" s="201"/>
+      <c r="AGM20" s="201"/>
+      <c r="AGN20" s="201"/>
+      <c r="AGO20" s="200"/>
+      <c r="AGP20" s="200"/>
+      <c r="AGQ20" s="200"/>
+      <c r="AGR20" s="200"/>
+      <c r="AGS20" s="200"/>
+      <c r="AGT20" s="201"/>
+      <c r="AGU20" s="201"/>
+      <c r="AGV20" s="201"/>
+      <c r="AGW20" s="200"/>
+      <c r="AGX20" s="200"/>
+      <c r="AGY20" s="200"/>
+      <c r="AGZ20" s="200"/>
+      <c r="AHA20" s="200"/>
+      <c r="AHB20" s="201"/>
+      <c r="AHC20" s="201"/>
+      <c r="AHD20" s="201"/>
+      <c r="AHE20" s="200"/>
+      <c r="AHF20" s="200"/>
+      <c r="AHG20" s="200"/>
+      <c r="AHH20" s="200"/>
+      <c r="AHI20" s="200"/>
+      <c r="AHJ20" s="201"/>
+      <c r="AHK20" s="201"/>
+      <c r="AHL20" s="201"/>
+      <c r="AHM20" s="200"/>
+      <c r="AHN20" s="200"/>
+      <c r="AHO20" s="200"/>
+      <c r="AHP20" s="200"/>
+      <c r="AHQ20" s="200"/>
+      <c r="AHR20" s="201"/>
+      <c r="AHS20" s="201"/>
+      <c r="AHT20" s="201"/>
+      <c r="AHU20" s="200"/>
+      <c r="AHV20" s="200"/>
+      <c r="AHW20" s="200"/>
+      <c r="AHX20" s="200"/>
+      <c r="AHY20" s="200"/>
+      <c r="AHZ20" s="201"/>
+      <c r="AIA20" s="201"/>
+      <c r="AIB20" s="201"/>
+      <c r="AIC20" s="200"/>
+      <c r="AID20" s="200"/>
+      <c r="AIE20" s="200"/>
+      <c r="AIF20" s="200"/>
+      <c r="AIG20" s="200"/>
+      <c r="AIH20" s="201"/>
+      <c r="AII20" s="201"/>
+      <c r="AIJ20" s="201"/>
+      <c r="AIK20" s="200"/>
+      <c r="AIL20" s="200"/>
+      <c r="AIM20" s="200"/>
+      <c r="AIN20" s="200"/>
+      <c r="AIO20" s="200"/>
+      <c r="AIP20" s="201"/>
+      <c r="AIQ20" s="201"/>
+      <c r="AIR20" s="201"/>
+      <c r="AIS20" s="200"/>
+      <c r="AIT20" s="200"/>
+      <c r="AIU20" s="200"/>
+      <c r="AIV20" s="200"/>
+      <c r="AIW20" s="200"/>
+      <c r="AIX20" s="201"/>
+      <c r="AIY20" s="201"/>
+      <c r="AIZ20" s="201"/>
+      <c r="AJA20" s="200"/>
+      <c r="AJB20" s="200"/>
+      <c r="AJC20" s="200"/>
+      <c r="AJD20" s="200"/>
+      <c r="AJE20" s="200"/>
+      <c r="AJF20" s="201"/>
+      <c r="AJG20" s="201"/>
+      <c r="AJH20" s="201"/>
+      <c r="AJI20" s="200"/>
+      <c r="AJJ20" s="200"/>
+      <c r="AJK20" s="200"/>
+      <c r="AJL20" s="200"/>
+      <c r="AJM20" s="200"/>
+      <c r="AJN20" s="201"/>
+      <c r="AJO20" s="201"/>
+      <c r="AJP20" s="201"/>
+      <c r="AJQ20" s="200"/>
+      <c r="AJR20" s="200"/>
+      <c r="AJS20" s="200"/>
+      <c r="AJT20" s="200"/>
+      <c r="AJU20" s="200"/>
+      <c r="AJV20" s="201"/>
+      <c r="AJW20" s="201"/>
+      <c r="AJX20" s="201"/>
+      <c r="AJY20" s="200"/>
+      <c r="AJZ20" s="200"/>
+      <c r="AKA20" s="200"/>
+      <c r="AKB20" s="200"/>
+      <c r="AKC20" s="200"/>
+      <c r="AKD20" s="201"/>
+      <c r="AKE20" s="201"/>
+      <c r="AKF20" s="201"/>
+      <c r="AKG20" s="200"/>
+      <c r="AKH20" s="200"/>
+      <c r="AKI20" s="200"/>
+      <c r="AKJ20" s="200"/>
+      <c r="AKK20" s="200"/>
+      <c r="AKL20" s="201"/>
+      <c r="AKM20" s="201"/>
+      <c r="AKN20" s="201"/>
+      <c r="AKO20" s="200"/>
+      <c r="AKP20" s="200"/>
+      <c r="AKQ20" s="200"/>
+      <c r="AKR20" s="200"/>
+      <c r="AKS20" s="200"/>
+      <c r="AKT20" s="201"/>
+      <c r="AKU20" s="201"/>
+      <c r="AKV20" s="201"/>
+      <c r="AKW20" s="200"/>
+      <c r="AKX20" s="200"/>
+      <c r="AKY20" s="200"/>
+      <c r="AKZ20" s="200"/>
+      <c r="ALA20" s="200"/>
+      <c r="ALB20" s="201"/>
+      <c r="ALC20" s="201"/>
+      <c r="ALD20" s="201"/>
+      <c r="ALE20" s="200"/>
+      <c r="ALF20" s="200"/>
+      <c r="ALG20" s="200"/>
+      <c r="ALH20" s="200"/>
+      <c r="ALI20" s="200"/>
+      <c r="ALJ20" s="201"/>
+      <c r="ALK20" s="201"/>
+      <c r="ALL20" s="201"/>
+      <c r="ALM20" s="200"/>
+      <c r="ALN20" s="200"/>
+      <c r="ALO20" s="200"/>
+      <c r="ALP20" s="200"/>
+      <c r="ALQ20" s="200"/>
+      <c r="ALR20" s="201"/>
+      <c r="ALS20" s="201"/>
+      <c r="ALT20" s="201"/>
+      <c r="ALU20" s="200"/>
+      <c r="ALV20" s="200"/>
+      <c r="ALW20" s="200"/>
+    </row>
+    <row r="21" spans="1:1011" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="205"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="210"/>
-      <c r="C20" s="213" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="214" t="s">
+      <c r="D21" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="210" t="s">
+      <c r="E21" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="216"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
-      <c r="P20" s="219"/>
-      <c r="Q20" s="218"/>
-      <c r="R20" s="218"/>
-      <c r="S20" s="218"/>
-      <c r="T20" s="218"/>
-      <c r="U20" s="218"/>
-      <c r="V20" s="219"/>
-      <c r="W20" s="219"/>
-      <c r="X20" s="219"/>
-      <c r="Y20" s="218"/>
-      <c r="Z20" s="218"/>
-      <c r="AA20" s="218"/>
-      <c r="AB20" s="218"/>
-      <c r="AC20" s="218"/>
-      <c r="AD20" s="219"/>
-      <c r="AE20" s="219"/>
-      <c r="AF20" s="219"/>
-      <c r="AG20" s="218"/>
-      <c r="AH20" s="218"/>
-      <c r="AI20" s="218"/>
-      <c r="AJ20" s="218"/>
-      <c r="AK20" s="218"/>
-      <c r="AL20" s="219"/>
-      <c r="AM20" s="219"/>
-      <c r="AN20" s="219"/>
-      <c r="AO20" s="218"/>
-      <c r="AP20" s="218"/>
-      <c r="AQ20" s="218"/>
-      <c r="AR20" s="218"/>
-      <c r="AS20" s="218"/>
-      <c r="AT20" s="219"/>
-      <c r="AU20" s="219"/>
-      <c r="AV20" s="219"/>
-      <c r="AW20" s="218"/>
-      <c r="AX20" s="218"/>
-      <c r="AY20" s="218"/>
-      <c r="AZ20" s="218"/>
-      <c r="BA20" s="218"/>
-      <c r="BB20" s="219"/>
-      <c r="BC20" s="219"/>
-      <c r="BD20" s="219"/>
-      <c r="BE20" s="218"/>
-      <c r="BF20" s="218"/>
-      <c r="BG20" s="218"/>
-      <c r="BH20" s="218"/>
-      <c r="BI20" s="218"/>
-      <c r="BJ20" s="219"/>
-      <c r="BK20" s="219"/>
-      <c r="BL20" s="219"/>
-      <c r="BM20" s="218"/>
-      <c r="BN20" s="218"/>
-      <c r="BO20" s="218"/>
-      <c r="BP20" s="218"/>
-      <c r="BQ20" s="218"/>
-      <c r="BR20" s="219"/>
-      <c r="BS20" s="219"/>
-      <c r="BT20" s="219"/>
-      <c r="BU20" s="218"/>
-      <c r="BV20" s="218"/>
-      <c r="BW20" s="218"/>
-      <c r="BX20" s="218"/>
-      <c r="BY20" s="218"/>
-      <c r="BZ20" s="219"/>
-      <c r="CA20" s="219"/>
-      <c r="CB20" s="219"/>
-      <c r="CC20" s="218"/>
-      <c r="CD20" s="218"/>
-      <c r="CE20" s="218"/>
-      <c r="CF20" s="218"/>
-      <c r="CG20" s="218"/>
-      <c r="CH20" s="219"/>
-      <c r="CI20" s="219"/>
-      <c r="CJ20" s="219"/>
-      <c r="CK20" s="218"/>
-      <c r="CL20" s="218"/>
-      <c r="CM20" s="218"/>
-      <c r="CN20" s="218"/>
-      <c r="CO20" s="218"/>
-      <c r="CP20" s="219"/>
-      <c r="CQ20" s="219"/>
-      <c r="CR20" s="219"/>
-      <c r="CS20" s="218"/>
-      <c r="CT20" s="218"/>
-      <c r="CU20" s="218"/>
-      <c r="CV20" s="218"/>
-      <c r="CW20" s="218"/>
-      <c r="CX20" s="219"/>
-      <c r="CY20" s="219"/>
-      <c r="CZ20" s="219"/>
-      <c r="DA20" s="218"/>
-      <c r="DB20" s="218"/>
-      <c r="DC20" s="218"/>
-      <c r="DD20" s="218"/>
-      <c r="DE20" s="218"/>
-      <c r="DF20" s="219"/>
-      <c r="DG20" s="219"/>
-      <c r="DH20" s="219"/>
-      <c r="DI20" s="218"/>
-      <c r="DJ20" s="218"/>
-      <c r="DK20" s="218"/>
-      <c r="DL20" s="218"/>
-      <c r="DM20" s="218"/>
-      <c r="DN20" s="219"/>
-      <c r="DO20" s="219"/>
-      <c r="DP20" s="219"/>
-      <c r="DQ20" s="218"/>
-      <c r="DR20" s="218"/>
-      <c r="DS20" s="218"/>
-      <c r="DT20" s="218"/>
-      <c r="DU20" s="218"/>
-      <c r="DV20" s="219"/>
-      <c r="DW20" s="219"/>
-      <c r="DX20" s="219"/>
-      <c r="DY20" s="218"/>
-      <c r="DZ20" s="218"/>
-      <c r="EA20" s="218"/>
-      <c r="EB20" s="218"/>
-      <c r="EC20" s="218"/>
-      <c r="ED20" s="219"/>
-      <c r="EE20" s="219"/>
-      <c r="EF20" s="219"/>
-      <c r="EG20" s="218"/>
-      <c r="EH20" s="218"/>
-      <c r="EI20" s="218"/>
-      <c r="EJ20" s="218"/>
-      <c r="EK20" s="218"/>
-      <c r="EL20" s="219"/>
-      <c r="EM20" s="219"/>
-      <c r="EN20" s="219"/>
-      <c r="EO20" s="218"/>
-      <c r="EP20" s="218"/>
-      <c r="EQ20" s="218"/>
-      <c r="ER20" s="218"/>
-      <c r="ES20" s="218"/>
-      <c r="ET20" s="219"/>
-      <c r="EU20" s="219"/>
-      <c r="EV20" s="219"/>
-      <c r="EW20" s="218"/>
-      <c r="EX20" s="218"/>
-      <c r="EY20" s="218"/>
-      <c r="EZ20" s="218"/>
-      <c r="FA20" s="218"/>
-      <c r="FB20" s="219"/>
-      <c r="FC20" s="219"/>
-      <c r="FD20" s="219"/>
-      <c r="FE20" s="218"/>
-      <c r="FF20" s="218"/>
-      <c r="FG20" s="218"/>
-      <c r="FH20" s="218"/>
-      <c r="FI20" s="218"/>
-      <c r="FJ20" s="219"/>
-      <c r="FK20" s="219"/>
-      <c r="FL20" s="219"/>
-      <c r="FM20" s="218"/>
-      <c r="FN20" s="218"/>
-      <c r="FO20" s="218"/>
-      <c r="FP20" s="218"/>
-      <c r="FQ20" s="218"/>
-      <c r="FR20" s="219"/>
-      <c r="FS20" s="219"/>
-      <c r="FT20" s="219"/>
-      <c r="FU20" s="218"/>
-      <c r="FV20" s="218"/>
-      <c r="FW20" s="218"/>
-      <c r="FX20" s="218"/>
-      <c r="FY20" s="218"/>
-      <c r="FZ20" s="219"/>
-      <c r="GA20" s="219"/>
-      <c r="GB20" s="219"/>
-      <c r="GC20" s="218"/>
-      <c r="GD20" s="218"/>
-      <c r="GE20" s="218"/>
-      <c r="GF20" s="218"/>
-      <c r="GG20" s="218"/>
-      <c r="GH20" s="219"/>
-      <c r="GI20" s="219"/>
-      <c r="GJ20" s="219"/>
-      <c r="GK20" s="218"/>
-      <c r="GL20" s="218"/>
-      <c r="GM20" s="218"/>
-      <c r="GN20" s="218"/>
-      <c r="GO20" s="218"/>
-      <c r="GP20" s="219"/>
-      <c r="GQ20" s="219"/>
-      <c r="GR20" s="219"/>
-      <c r="GS20" s="218"/>
-      <c r="GT20" s="218"/>
-      <c r="GU20" s="218"/>
-      <c r="GV20" s="218"/>
-      <c r="GW20" s="218"/>
-      <c r="GX20" s="219"/>
-      <c r="GY20" s="219"/>
-      <c r="GZ20" s="219"/>
-      <c r="HA20" s="218"/>
-      <c r="HB20" s="218"/>
-      <c r="HC20" s="218"/>
-      <c r="HD20" s="218"/>
-      <c r="HE20" s="218"/>
-      <c r="HF20" s="219"/>
-      <c r="HG20" s="219"/>
-      <c r="HH20" s="219"/>
-      <c r="HI20" s="218"/>
-      <c r="HJ20" s="218"/>
-      <c r="HK20" s="218"/>
-      <c r="HL20" s="218"/>
-      <c r="HM20" s="218"/>
-      <c r="HN20" s="219"/>
-      <c r="HO20" s="219"/>
-      <c r="HP20" s="219"/>
-      <c r="HQ20" s="218"/>
-      <c r="HR20" s="218"/>
-      <c r="HS20" s="218"/>
-      <c r="HT20" s="218"/>
-      <c r="HU20" s="218"/>
-      <c r="HV20" s="219"/>
-      <c r="HW20" s="219"/>
-      <c r="HX20" s="219"/>
-      <c r="HY20" s="218"/>
-      <c r="HZ20" s="218"/>
-      <c r="IA20" s="218"/>
-      <c r="IB20" s="218"/>
-      <c r="IC20" s="218"/>
-      <c r="ID20" s="219"/>
-      <c r="IE20" s="219"/>
-      <c r="IF20" s="219"/>
-      <c r="IG20" s="218"/>
-      <c r="IH20" s="218"/>
-      <c r="II20" s="218"/>
-      <c r="IJ20" s="218"/>
-      <c r="IK20" s="218"/>
-      <c r="IL20" s="219"/>
-      <c r="IM20" s="219"/>
-      <c r="IN20" s="219"/>
-      <c r="IO20" s="218"/>
-      <c r="IP20" s="218"/>
-      <c r="IQ20" s="218"/>
-      <c r="IR20" s="218"/>
-      <c r="IS20" s="218"/>
-      <c r="IT20" s="219"/>
-      <c r="IU20" s="219"/>
-      <c r="IV20" s="219"/>
-      <c r="IW20" s="218"/>
-      <c r="IX20" s="218"/>
-      <c r="IY20" s="218"/>
-      <c r="IZ20" s="218"/>
-      <c r="JA20" s="218"/>
-      <c r="JB20" s="219"/>
-      <c r="JC20" s="219"/>
-      <c r="JD20" s="219"/>
-      <c r="JE20" s="218"/>
-      <c r="JF20" s="218"/>
-      <c r="JG20" s="218"/>
-      <c r="JH20" s="218"/>
-      <c r="JI20" s="218"/>
-      <c r="JJ20" s="219"/>
-      <c r="JK20" s="219"/>
-      <c r="JL20" s="219"/>
-      <c r="JM20" s="218"/>
-      <c r="JN20" s="218"/>
-      <c r="JO20" s="218"/>
-      <c r="JP20" s="218"/>
-      <c r="JQ20" s="218"/>
-      <c r="JR20" s="219"/>
-      <c r="JS20" s="219"/>
-      <c r="JT20" s="219"/>
-      <c r="JU20" s="218"/>
-      <c r="JV20" s="218"/>
-      <c r="JW20" s="218"/>
-      <c r="JX20" s="218"/>
-      <c r="JY20" s="218"/>
-      <c r="JZ20" s="219"/>
-      <c r="KA20" s="219"/>
-      <c r="KB20" s="219"/>
-      <c r="KC20" s="218"/>
-      <c r="KD20" s="218"/>
-      <c r="KE20" s="218"/>
-      <c r="KF20" s="218"/>
-      <c r="KG20" s="218"/>
-      <c r="KH20" s="219"/>
-      <c r="KI20" s="219"/>
-      <c r="KJ20" s="219"/>
-      <c r="KK20" s="218"/>
-      <c r="KL20" s="218"/>
-      <c r="KM20" s="218"/>
-      <c r="KN20" s="218"/>
-      <c r="KO20" s="218"/>
-      <c r="KP20" s="219"/>
-      <c r="KQ20" s="219"/>
-      <c r="KR20" s="219"/>
-      <c r="KS20" s="218"/>
-      <c r="KT20" s="218"/>
-      <c r="KU20" s="218"/>
-      <c r="KV20" s="218"/>
-      <c r="KW20" s="218"/>
-      <c r="KX20" s="219"/>
-      <c r="KY20" s="219"/>
-      <c r="KZ20" s="219"/>
-      <c r="LA20" s="218"/>
-      <c r="LB20" s="218"/>
-      <c r="LC20" s="218"/>
-      <c r="LD20" s="218"/>
-      <c r="LE20" s="218"/>
-      <c r="LF20" s="219"/>
-      <c r="LG20" s="219"/>
-      <c r="LH20" s="219"/>
-      <c r="LI20" s="218"/>
-      <c r="LJ20" s="218"/>
-      <c r="LK20" s="218"/>
-      <c r="LL20" s="218"/>
-      <c r="LM20" s="218"/>
-      <c r="LN20" s="219"/>
-      <c r="LO20" s="219"/>
-      <c r="LP20" s="219"/>
-      <c r="LQ20" s="218"/>
-      <c r="LR20" s="218"/>
-      <c r="LS20" s="218"/>
-      <c r="LT20" s="218"/>
-      <c r="LU20" s="218"/>
-      <c r="LV20" s="219"/>
-      <c r="LW20" s="219"/>
-      <c r="LX20" s="219"/>
-      <c r="LY20" s="218"/>
-      <c r="LZ20" s="218"/>
-      <c r="MA20" s="218"/>
-      <c r="MB20" s="218"/>
-      <c r="MC20" s="218"/>
-      <c r="MD20" s="219"/>
-      <c r="ME20" s="219"/>
-      <c r="MF20" s="219"/>
-      <c r="MG20" s="218"/>
-      <c r="MH20" s="218"/>
-      <c r="MI20" s="218"/>
-      <c r="MJ20" s="218"/>
-      <c r="MK20" s="218"/>
-      <c r="ML20" s="219"/>
-      <c r="MM20" s="219"/>
-      <c r="MN20" s="219"/>
-      <c r="MO20" s="218"/>
-      <c r="MP20" s="218"/>
-      <c r="MQ20" s="218"/>
-      <c r="MR20" s="218"/>
-      <c r="MS20" s="218"/>
-      <c r="MT20" s="219"/>
-      <c r="MU20" s="219"/>
-      <c r="MV20" s="219"/>
-      <c r="MW20" s="218"/>
-      <c r="MX20" s="218"/>
-      <c r="MY20" s="218"/>
-      <c r="MZ20" s="218"/>
-      <c r="NA20" s="218"/>
-      <c r="NB20" s="219"/>
-      <c r="NC20" s="219"/>
-      <c r="ND20" s="219"/>
-      <c r="NE20" s="218"/>
-      <c r="NF20" s="218"/>
-      <c r="NG20" s="218"/>
-      <c r="NH20" s="218"/>
-      <c r="NI20" s="218"/>
-      <c r="NJ20" s="219"/>
-      <c r="NK20" s="219"/>
-      <c r="NL20" s="219"/>
-      <c r="NM20" s="218"/>
-      <c r="NN20" s="218"/>
-      <c r="NO20" s="218"/>
-      <c r="NP20" s="218"/>
-      <c r="NQ20" s="218"/>
-      <c r="NR20" s="219"/>
-      <c r="NS20" s="219"/>
-      <c r="NT20" s="219"/>
-      <c r="NU20" s="218"/>
-      <c r="NV20" s="218"/>
-      <c r="NW20" s="218"/>
-      <c r="NX20" s="218"/>
-      <c r="NY20" s="218"/>
-      <c r="NZ20" s="219"/>
-      <c r="OA20" s="219"/>
-      <c r="OB20" s="219"/>
-      <c r="OC20" s="218"/>
-      <c r="OD20" s="218"/>
-      <c r="OE20" s="218"/>
-      <c r="OF20" s="218"/>
-      <c r="OG20" s="218"/>
-      <c r="OH20" s="219"/>
-      <c r="OI20" s="219"/>
-      <c r="OJ20" s="219"/>
-      <c r="OK20" s="218"/>
-      <c r="OL20" s="218"/>
-      <c r="OM20" s="218"/>
-      <c r="ON20" s="218"/>
-      <c r="OO20" s="218"/>
-      <c r="OP20" s="219"/>
-      <c r="OQ20" s="219"/>
-      <c r="OR20" s="219"/>
-      <c r="OS20" s="218"/>
-      <c r="OT20" s="218"/>
-      <c r="OU20" s="218"/>
-      <c r="OV20" s="218"/>
-      <c r="OW20" s="218"/>
-      <c r="OX20" s="219"/>
-      <c r="OY20" s="219"/>
-      <c r="OZ20" s="219"/>
-      <c r="PA20" s="218"/>
-      <c r="PB20" s="218"/>
-      <c r="PC20" s="218"/>
-      <c r="PD20" s="218"/>
-      <c r="PE20" s="218"/>
-      <c r="PF20" s="219"/>
-      <c r="PG20" s="219"/>
-      <c r="PH20" s="219"/>
-      <c r="PI20" s="218"/>
-      <c r="PJ20" s="218"/>
-      <c r="PK20" s="218"/>
-      <c r="PL20" s="218"/>
-      <c r="PM20" s="218"/>
-      <c r="PN20" s="219"/>
-      <c r="PO20" s="219"/>
-      <c r="PP20" s="219"/>
-      <c r="PQ20" s="218"/>
-      <c r="PR20" s="218"/>
-      <c r="PS20" s="218"/>
-      <c r="PT20" s="218"/>
-      <c r="PU20" s="218"/>
-      <c r="PV20" s="219"/>
-      <c r="PW20" s="219"/>
-      <c r="PX20" s="219"/>
-      <c r="PY20" s="218"/>
-      <c r="PZ20" s="218"/>
-      <c r="QA20" s="218"/>
-      <c r="QB20" s="218"/>
-      <c r="QC20" s="218"/>
-      <c r="QD20" s="219"/>
-      <c r="QE20" s="219"/>
-      <c r="QF20" s="219"/>
-      <c r="QG20" s="218"/>
-      <c r="QH20" s="218"/>
-      <c r="QI20" s="218"/>
-      <c r="QJ20" s="218"/>
-      <c r="QK20" s="218"/>
-      <c r="QL20" s="219"/>
-      <c r="QM20" s="219"/>
-      <c r="QN20" s="219"/>
-      <c r="QO20" s="218"/>
-      <c r="QP20" s="218"/>
-      <c r="QQ20" s="218"/>
-      <c r="QR20" s="218"/>
-      <c r="QS20" s="218"/>
-      <c r="QT20" s="219"/>
-      <c r="QU20" s="219"/>
-      <c r="QV20" s="219"/>
-      <c r="QW20" s="218"/>
-      <c r="QX20" s="218"/>
-      <c r="QY20" s="218"/>
-      <c r="QZ20" s="218"/>
-      <c r="RA20" s="218"/>
-      <c r="RB20" s="219"/>
-      <c r="RC20" s="219"/>
-      <c r="RD20" s="219"/>
-      <c r="RE20" s="218"/>
-      <c r="RF20" s="218"/>
-      <c r="RG20" s="218"/>
-      <c r="RH20" s="218"/>
-      <c r="RI20" s="218"/>
-      <c r="RJ20" s="219"/>
-      <c r="RK20" s="219"/>
-      <c r="RL20" s="219"/>
-      <c r="RM20" s="218"/>
-      <c r="RN20" s="218"/>
-      <c r="RO20" s="218"/>
-      <c r="RP20" s="218"/>
-      <c r="RQ20" s="218"/>
-      <c r="RR20" s="219"/>
-      <c r="RS20" s="219"/>
-      <c r="RT20" s="219"/>
-      <c r="RU20" s="218"/>
-      <c r="RV20" s="218"/>
-      <c r="RW20" s="218"/>
-      <c r="RX20" s="218"/>
-      <c r="RY20" s="218"/>
-      <c r="RZ20" s="219"/>
-      <c r="SA20" s="219"/>
-      <c r="SB20" s="219"/>
-      <c r="SC20" s="218"/>
-      <c r="SD20" s="218"/>
-      <c r="SE20" s="218"/>
-      <c r="SF20" s="218"/>
-      <c r="SG20" s="218"/>
-      <c r="SH20" s="219"/>
-      <c r="SI20" s="219"/>
-      <c r="SJ20" s="219"/>
-      <c r="SK20" s="218"/>
-      <c r="SL20" s="218"/>
-      <c r="SM20" s="218"/>
-      <c r="SN20" s="218"/>
-      <c r="SO20" s="218"/>
-      <c r="SP20" s="219"/>
-      <c r="SQ20" s="219"/>
-      <c r="SR20" s="219"/>
-      <c r="SS20" s="218"/>
-      <c r="ST20" s="218"/>
-      <c r="SU20" s="218"/>
-      <c r="SV20" s="218"/>
-      <c r="SW20" s="218"/>
-      <c r="SX20" s="219"/>
-      <c r="SY20" s="219"/>
-      <c r="SZ20" s="219"/>
-      <c r="TA20" s="218"/>
-      <c r="TB20" s="218"/>
-      <c r="TC20" s="218"/>
-      <c r="TD20" s="218"/>
-      <c r="TE20" s="218"/>
-      <c r="TF20" s="219"/>
-      <c r="TG20" s="219"/>
-      <c r="TH20" s="219"/>
-      <c r="TI20" s="218"/>
-      <c r="TJ20" s="218"/>
-      <c r="TK20" s="218"/>
-      <c r="TL20" s="218"/>
-      <c r="TM20" s="218"/>
-      <c r="TN20" s="219"/>
-      <c r="TO20" s="219"/>
-      <c r="TP20" s="219"/>
-      <c r="TQ20" s="218"/>
-      <c r="TR20" s="218"/>
-      <c r="TS20" s="218"/>
-      <c r="TT20" s="218"/>
-      <c r="TU20" s="218"/>
-      <c r="TV20" s="219"/>
-      <c r="TW20" s="219"/>
-      <c r="TX20" s="219"/>
-      <c r="TY20" s="218"/>
-      <c r="TZ20" s="218"/>
-      <c r="UA20" s="218"/>
-      <c r="UB20" s="218"/>
-      <c r="UC20" s="218"/>
-      <c r="UD20" s="219"/>
-      <c r="UE20" s="219"/>
-      <c r="UF20" s="219"/>
-      <c r="UG20" s="218"/>
-      <c r="UH20" s="218"/>
-      <c r="UI20" s="218"/>
-      <c r="UJ20" s="218"/>
-      <c r="UK20" s="218"/>
-      <c r="UL20" s="219"/>
-      <c r="UM20" s="219"/>
-      <c r="UN20" s="219"/>
-      <c r="UO20" s="218"/>
-      <c r="UP20" s="218"/>
-      <c r="UQ20" s="218"/>
-      <c r="UR20" s="218"/>
-      <c r="US20" s="218"/>
-      <c r="UT20" s="219"/>
-      <c r="UU20" s="219"/>
-      <c r="UV20" s="219"/>
-      <c r="UW20" s="218"/>
-      <c r="UX20" s="218"/>
-      <c r="UY20" s="218"/>
-      <c r="UZ20" s="218"/>
-      <c r="VA20" s="218"/>
-      <c r="VB20" s="219"/>
-      <c r="VC20" s="219"/>
-      <c r="VD20" s="219"/>
-      <c r="VE20" s="218"/>
-      <c r="VF20" s="218"/>
-      <c r="VG20" s="218"/>
-      <c r="VH20" s="218"/>
-      <c r="VI20" s="218"/>
-      <c r="VJ20" s="219"/>
-      <c r="VK20" s="219"/>
-      <c r="VL20" s="219"/>
-      <c r="VM20" s="218"/>
-      <c r="VN20" s="218"/>
-      <c r="VO20" s="218"/>
-      <c r="VP20" s="218"/>
-      <c r="VQ20" s="218"/>
-      <c r="VR20" s="219"/>
-      <c r="VS20" s="219"/>
-      <c r="VT20" s="219"/>
-      <c r="VU20" s="218"/>
-      <c r="VV20" s="218"/>
-      <c r="VW20" s="218"/>
-      <c r="VX20" s="218"/>
-      <c r="VY20" s="218"/>
-      <c r="VZ20" s="219"/>
-      <c r="WA20" s="219"/>
-      <c r="WB20" s="219"/>
-      <c r="WC20" s="218"/>
-      <c r="WD20" s="218"/>
-      <c r="WE20" s="218"/>
-      <c r="WF20" s="218"/>
-      <c r="WG20" s="218"/>
-      <c r="WH20" s="219"/>
-      <c r="WI20" s="219"/>
-      <c r="WJ20" s="219"/>
-      <c r="WK20" s="218"/>
-      <c r="WL20" s="218"/>
-      <c r="WM20" s="218"/>
-      <c r="WN20" s="218"/>
-      <c r="WO20" s="218"/>
-      <c r="WP20" s="219"/>
-      <c r="WQ20" s="219"/>
-      <c r="WR20" s="219"/>
-      <c r="WS20" s="218"/>
-      <c r="WT20" s="218"/>
-      <c r="WU20" s="218"/>
-      <c r="WV20" s="218"/>
-      <c r="WW20" s="218"/>
-      <c r="WX20" s="219"/>
-      <c r="WY20" s="219"/>
-      <c r="WZ20" s="219"/>
-      <c r="XA20" s="218"/>
-      <c r="XB20" s="218"/>
-      <c r="XC20" s="218"/>
-      <c r="XD20" s="218"/>
-      <c r="XE20" s="218"/>
-      <c r="XF20" s="219"/>
-      <c r="XG20" s="219"/>
-      <c r="XH20" s="219"/>
-      <c r="XI20" s="218"/>
-      <c r="XJ20" s="218"/>
-      <c r="XK20" s="218"/>
-      <c r="XL20" s="218"/>
-      <c r="XM20" s="218"/>
-      <c r="XN20" s="219"/>
-      <c r="XO20" s="219"/>
-      <c r="XP20" s="219"/>
-      <c r="XQ20" s="218"/>
-      <c r="XR20" s="218"/>
-      <c r="XS20" s="218"/>
-      <c r="XT20" s="218"/>
-      <c r="XU20" s="218"/>
-      <c r="XV20" s="219"/>
-      <c r="XW20" s="219"/>
-      <c r="XX20" s="219"/>
-      <c r="XY20" s="218"/>
-      <c r="XZ20" s="218"/>
-      <c r="YA20" s="218"/>
-      <c r="YB20" s="218"/>
-      <c r="YC20" s="218"/>
-      <c r="YD20" s="219"/>
-      <c r="YE20" s="219"/>
-      <c r="YF20" s="219"/>
-      <c r="YG20" s="218"/>
-      <c r="YH20" s="218"/>
-      <c r="YI20" s="218"/>
-      <c r="YJ20" s="218"/>
-      <c r="YK20" s="218"/>
-      <c r="YL20" s="219"/>
-      <c r="YM20" s="219"/>
-      <c r="YN20" s="219"/>
-      <c r="YO20" s="218"/>
-      <c r="YP20" s="218"/>
-      <c r="YQ20" s="218"/>
-      <c r="YR20" s="218"/>
-      <c r="YS20" s="218"/>
-      <c r="YT20" s="219"/>
-      <c r="YU20" s="219"/>
-      <c r="YV20" s="219"/>
-      <c r="YW20" s="218"/>
-      <c r="YX20" s="218"/>
-      <c r="YY20" s="218"/>
-      <c r="YZ20" s="218"/>
-      <c r="ZA20" s="218"/>
-      <c r="ZB20" s="219"/>
-      <c r="ZC20" s="219"/>
-      <c r="ZD20" s="219"/>
-      <c r="ZE20" s="218"/>
-      <c r="ZF20" s="218"/>
-      <c r="ZG20" s="218"/>
-      <c r="ZH20" s="218"/>
-      <c r="ZI20" s="218"/>
-      <c r="ZJ20" s="219"/>
-      <c r="ZK20" s="219"/>
-      <c r="ZL20" s="219"/>
-      <c r="ZM20" s="218"/>
-      <c r="ZN20" s="218"/>
-      <c r="ZO20" s="218"/>
-      <c r="ZP20" s="218"/>
-      <c r="ZQ20" s="218"/>
-      <c r="ZR20" s="219"/>
-      <c r="ZS20" s="219"/>
-      <c r="ZT20" s="219"/>
-      <c r="ZU20" s="218"/>
-      <c r="ZV20" s="218"/>
-      <c r="ZW20" s="218"/>
-      <c r="ZX20" s="218"/>
-      <c r="ZY20" s="218"/>
-      <c r="ZZ20" s="219"/>
-      <c r="AAA20" s="219"/>
-      <c r="AAB20" s="219"/>
-      <c r="AAC20" s="218"/>
-      <c r="AAD20" s="218"/>
-      <c r="AAE20" s="218"/>
-      <c r="AAF20" s="218"/>
-      <c r="AAG20" s="218"/>
-      <c r="AAH20" s="219"/>
-      <c r="AAI20" s="219"/>
-      <c r="AAJ20" s="219"/>
-      <c r="AAK20" s="218"/>
-      <c r="AAL20" s="218"/>
-      <c r="AAM20" s="218"/>
-      <c r="AAN20" s="218"/>
-      <c r="AAO20" s="218"/>
-      <c r="AAP20" s="219"/>
-      <c r="AAQ20" s="219"/>
-      <c r="AAR20" s="219"/>
-      <c r="AAS20" s="218"/>
-      <c r="AAT20" s="218"/>
-      <c r="AAU20" s="218"/>
-      <c r="AAV20" s="218"/>
-      <c r="AAW20" s="218"/>
-      <c r="AAX20" s="219"/>
-      <c r="AAY20" s="219"/>
-      <c r="AAZ20" s="219"/>
-      <c r="ABA20" s="218"/>
-      <c r="ABB20" s="218"/>
-      <c r="ABC20" s="218"/>
-      <c r="ABD20" s="218"/>
-      <c r="ABE20" s="218"/>
-      <c r="ABF20" s="219"/>
-      <c r="ABG20" s="219"/>
-      <c r="ABH20" s="219"/>
-      <c r="ABI20" s="218"/>
-      <c r="ABJ20" s="218"/>
-      <c r="ABK20" s="218"/>
-      <c r="ABL20" s="218"/>
-      <c r="ABM20" s="218"/>
-      <c r="ABN20" s="219"/>
-      <c r="ABO20" s="219"/>
-      <c r="ABP20" s="219"/>
-      <c r="ABQ20" s="218"/>
-      <c r="ABR20" s="218"/>
-      <c r="ABS20" s="218"/>
-      <c r="ABT20" s="218"/>
-      <c r="ABU20" s="218"/>
-      <c r="ABV20" s="219"/>
-      <c r="ABW20" s="219"/>
-      <c r="ABX20" s="219"/>
-      <c r="ABY20" s="218"/>
-      <c r="ABZ20" s="218"/>
-      <c r="ACA20" s="218"/>
-      <c r="ACB20" s="218"/>
-      <c r="ACC20" s="218"/>
-      <c r="ACD20" s="219"/>
-      <c r="ACE20" s="219"/>
-      <c r="ACF20" s="219"/>
-      <c r="ACG20" s="218"/>
-      <c r="ACH20" s="218"/>
-      <c r="ACI20" s="218"/>
-      <c r="ACJ20" s="218"/>
-      <c r="ACK20" s="218"/>
-      <c r="ACL20" s="219"/>
-      <c r="ACM20" s="219"/>
-      <c r="ACN20" s="219"/>
-      <c r="ACO20" s="218"/>
-      <c r="ACP20" s="218"/>
-      <c r="ACQ20" s="218"/>
-      <c r="ACR20" s="218"/>
-      <c r="ACS20" s="218"/>
-      <c r="ACT20" s="219"/>
-      <c r="ACU20" s="219"/>
-      <c r="ACV20" s="219"/>
-      <c r="ACW20" s="218"/>
-      <c r="ACX20" s="218"/>
-      <c r="ACY20" s="218"/>
-      <c r="ACZ20" s="218"/>
-      <c r="ADA20" s="218"/>
-      <c r="ADB20" s="219"/>
-      <c r="ADC20" s="219"/>
-      <c r="ADD20" s="219"/>
-      <c r="ADE20" s="218"/>
-      <c r="ADF20" s="218"/>
-      <c r="ADG20" s="218"/>
-      <c r="ADH20" s="218"/>
-      <c r="ADI20" s="218"/>
-      <c r="ADJ20" s="219"/>
-      <c r="ADK20" s="219"/>
-      <c r="ADL20" s="219"/>
-      <c r="ADM20" s="218"/>
-      <c r="ADN20" s="218"/>
-      <c r="ADO20" s="218"/>
-      <c r="ADP20" s="218"/>
-      <c r="ADQ20" s="218"/>
-      <c r="ADR20" s="219"/>
-      <c r="ADS20" s="219"/>
-      <c r="ADT20" s="219"/>
-      <c r="ADU20" s="218"/>
-      <c r="ADV20" s="218"/>
-      <c r="ADW20" s="218"/>
-      <c r="ADX20" s="218"/>
-      <c r="ADY20" s="218"/>
-      <c r="ADZ20" s="219"/>
-      <c r="AEA20" s="219"/>
-      <c r="AEB20" s="219"/>
-      <c r="AEC20" s="218"/>
-      <c r="AED20" s="218"/>
-      <c r="AEE20" s="218"/>
-      <c r="AEF20" s="218"/>
-      <c r="AEG20" s="218"/>
-      <c r="AEH20" s="219"/>
-      <c r="AEI20" s="219"/>
-      <c r="AEJ20" s="219"/>
-      <c r="AEK20" s="218"/>
-      <c r="AEL20" s="218"/>
-      <c r="AEM20" s="218"/>
-      <c r="AEN20" s="218"/>
-      <c r="AEO20" s="218"/>
-      <c r="AEP20" s="219"/>
-      <c r="AEQ20" s="219"/>
-      <c r="AER20" s="219"/>
-      <c r="AES20" s="218"/>
-      <c r="AET20" s="218"/>
-      <c r="AEU20" s="218"/>
-      <c r="AEV20" s="218"/>
-      <c r="AEW20" s="218"/>
-      <c r="AEX20" s="219"/>
-      <c r="AEY20" s="219"/>
-      <c r="AEZ20" s="219"/>
-      <c r="AFA20" s="218"/>
-      <c r="AFB20" s="218"/>
-      <c r="AFC20" s="218"/>
-      <c r="AFD20" s="218"/>
-      <c r="AFE20" s="218"/>
-      <c r="AFF20" s="219"/>
-      <c r="AFG20" s="219"/>
-      <c r="AFH20" s="219"/>
-      <c r="AFI20" s="218"/>
-      <c r="AFJ20" s="218"/>
-      <c r="AFK20" s="218"/>
-      <c r="AFL20" s="218"/>
-      <c r="AFM20" s="218"/>
-      <c r="AFN20" s="219"/>
-      <c r="AFO20" s="219"/>
-      <c r="AFP20" s="219"/>
-      <c r="AFQ20" s="218"/>
-      <c r="AFR20" s="218"/>
-      <c r="AFS20" s="218"/>
-      <c r="AFT20" s="218"/>
-      <c r="AFU20" s="218"/>
-      <c r="AFV20" s="219"/>
-      <c r="AFW20" s="219"/>
-      <c r="AFX20" s="219"/>
-      <c r="AFY20" s="218"/>
-      <c r="AFZ20" s="218"/>
-      <c r="AGA20" s="218"/>
-      <c r="AGB20" s="218"/>
-      <c r="AGC20" s="218"/>
-      <c r="AGD20" s="219"/>
-      <c r="AGE20" s="219"/>
-      <c r="AGF20" s="219"/>
-      <c r="AGG20" s="218"/>
-      <c r="AGH20" s="218"/>
-      <c r="AGI20" s="218"/>
-      <c r="AGJ20" s="218"/>
-      <c r="AGK20" s="218"/>
-      <c r="AGL20" s="219"/>
-      <c r="AGM20" s="219"/>
-      <c r="AGN20" s="219"/>
-      <c r="AGO20" s="218"/>
-      <c r="AGP20" s="218"/>
-      <c r="AGQ20" s="218"/>
-      <c r="AGR20" s="218"/>
-      <c r="AGS20" s="218"/>
-      <c r="AGT20" s="219"/>
-      <c r="AGU20" s="219"/>
-      <c r="AGV20" s="219"/>
-      <c r="AGW20" s="218"/>
-      <c r="AGX20" s="218"/>
-      <c r="AGY20" s="218"/>
-      <c r="AGZ20" s="218"/>
-      <c r="AHA20" s="218"/>
-      <c r="AHB20" s="219"/>
-      <c r="AHC20" s="219"/>
-      <c r="AHD20" s="219"/>
-      <c r="AHE20" s="218"/>
-      <c r="AHF20" s="218"/>
-      <c r="AHG20" s="218"/>
-      <c r="AHH20" s="218"/>
-      <c r="AHI20" s="218"/>
-      <c r="AHJ20" s="219"/>
-      <c r="AHK20" s="219"/>
-      <c r="AHL20" s="219"/>
-      <c r="AHM20" s="218"/>
-      <c r="AHN20" s="218"/>
-      <c r="AHO20" s="218"/>
-      <c r="AHP20" s="218"/>
-      <c r="AHQ20" s="218"/>
-      <c r="AHR20" s="219"/>
-      <c r="AHS20" s="219"/>
-      <c r="AHT20" s="219"/>
-      <c r="AHU20" s="218"/>
-      <c r="AHV20" s="218"/>
-      <c r="AHW20" s="218"/>
-      <c r="AHX20" s="218"/>
-      <c r="AHY20" s="218"/>
-      <c r="AHZ20" s="219"/>
-      <c r="AIA20" s="219"/>
-      <c r="AIB20" s="219"/>
-      <c r="AIC20" s="218"/>
-      <c r="AID20" s="218"/>
-      <c r="AIE20" s="218"/>
-      <c r="AIF20" s="218"/>
-      <c r="AIG20" s="218"/>
-      <c r="AIH20" s="219"/>
-      <c r="AII20" s="219"/>
-      <c r="AIJ20" s="219"/>
-      <c r="AIK20" s="218"/>
-      <c r="AIL20" s="218"/>
-      <c r="AIM20" s="218"/>
-      <c r="AIN20" s="218"/>
-      <c r="AIO20" s="218"/>
-      <c r="AIP20" s="219"/>
-      <c r="AIQ20" s="219"/>
-      <c r="AIR20" s="219"/>
-      <c r="AIS20" s="218"/>
-      <c r="AIT20" s="218"/>
-      <c r="AIU20" s="218"/>
-      <c r="AIV20" s="218"/>
-      <c r="AIW20" s="218"/>
-      <c r="AIX20" s="219"/>
-      <c r="AIY20" s="219"/>
-      <c r="AIZ20" s="219"/>
-      <c r="AJA20" s="218"/>
-      <c r="AJB20" s="218"/>
-      <c r="AJC20" s="218"/>
-      <c r="AJD20" s="218"/>
-      <c r="AJE20" s="218"/>
-      <c r="AJF20" s="219"/>
-      <c r="AJG20" s="219"/>
-      <c r="AJH20" s="219"/>
-      <c r="AJI20" s="218"/>
-      <c r="AJJ20" s="218"/>
-      <c r="AJK20" s="218"/>
-      <c r="AJL20" s="218"/>
-      <c r="AJM20" s="218"/>
-      <c r="AJN20" s="219"/>
-      <c r="AJO20" s="219"/>
-      <c r="AJP20" s="219"/>
-      <c r="AJQ20" s="218"/>
-      <c r="AJR20" s="218"/>
-      <c r="AJS20" s="218"/>
-      <c r="AJT20" s="218"/>
-      <c r="AJU20" s="218"/>
-      <c r="AJV20" s="219"/>
-      <c r="AJW20" s="219"/>
-      <c r="AJX20" s="219"/>
-      <c r="AJY20" s="218"/>
-      <c r="AJZ20" s="218"/>
-      <c r="AKA20" s="218"/>
-      <c r="AKB20" s="218"/>
-      <c r="AKC20" s="218"/>
-      <c r="AKD20" s="219"/>
-      <c r="AKE20" s="219"/>
-      <c r="AKF20" s="219"/>
-      <c r="AKG20" s="218"/>
-      <c r="AKH20" s="218"/>
-      <c r="AKI20" s="218"/>
-      <c r="AKJ20" s="218"/>
-      <c r="AKK20" s="218"/>
-      <c r="AKL20" s="219"/>
-      <c r="AKM20" s="219"/>
-      <c r="AKN20" s="219"/>
-      <c r="AKO20" s="218"/>
-      <c r="AKP20" s="218"/>
-      <c r="AKQ20" s="218"/>
-      <c r="AKR20" s="218"/>
-      <c r="AKS20" s="218"/>
-      <c r="AKT20" s="219"/>
-      <c r="AKU20" s="219"/>
-      <c r="AKV20" s="219"/>
-      <c r="AKW20" s="218"/>
-      <c r="AKX20" s="218"/>
-      <c r="AKY20" s="218"/>
-      <c r="AKZ20" s="218"/>
-      <c r="ALA20" s="218"/>
-      <c r="ALB20" s="219"/>
-      <c r="ALC20" s="219"/>
-      <c r="ALD20" s="219"/>
-      <c r="ALE20" s="218"/>
-      <c r="ALF20" s="218"/>
-      <c r="ALG20" s="218"/>
-      <c r="ALH20" s="218"/>
-      <c r="ALI20" s="218"/>
-      <c r="ALJ20" s="219"/>
-      <c r="ALK20" s="219"/>
-      <c r="ALL20" s="219"/>
-      <c r="ALM20" s="218"/>
-      <c r="ALN20" s="218"/>
-      <c r="ALO20" s="218"/>
-      <c r="ALP20" s="218"/>
-      <c r="ALQ20" s="218"/>
-      <c r="ALR20" s="219"/>
-      <c r="ALS20" s="219"/>
-      <c r="ALT20" s="219"/>
-      <c r="ALU20" s="218"/>
-      <c r="ALV20" s="218"/>
-      <c r="ALW20" s="218"/>
-    </row>
-    <row r="21" spans="1:1011" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="211"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="215"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="218"/>
-      <c r="S21" s="218"/>
-      <c r="T21" s="218"/>
-      <c r="U21" s="218"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200"/>
+      <c r="U21" s="200"/>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
-      <c r="Y21" s="218"/>
-      <c r="Z21" s="218"/>
-      <c r="AA21" s="218"/>
-      <c r="AB21" s="218"/>
-      <c r="AC21" s="218"/>
+      <c r="Y21" s="200"/>
+      <c r="Z21" s="200"/>
+      <c r="AA21" s="200"/>
+      <c r="AB21" s="200"/>
+      <c r="AC21" s="200"/>
       <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21"/>
-      <c r="AG21" s="218"/>
-      <c r="AH21" s="218"/>
-      <c r="AI21" s="218"/>
-      <c r="AJ21" s="218"/>
-      <c r="AK21" s="218"/>
+      <c r="AG21" s="200"/>
+      <c r="AH21" s="200"/>
+      <c r="AI21" s="200"/>
+      <c r="AJ21" s="200"/>
+      <c r="AK21" s="200"/>
       <c r="AL21"/>
       <c r="AM21"/>
       <c r="AN21"/>
-      <c r="AO21" s="218"/>
-      <c r="AP21" s="218"/>
-      <c r="AQ21" s="218"/>
-      <c r="AR21" s="218"/>
-      <c r="AS21" s="218"/>
+      <c r="AO21" s="200"/>
+      <c r="AP21" s="200"/>
+      <c r="AQ21" s="200"/>
+      <c r="AR21" s="200"/>
+      <c r="AS21" s="200"/>
       <c r="AT21"/>
       <c r="AU21"/>
       <c r="AV21"/>
-      <c r="AW21" s="218"/>
-      <c r="AX21" s="218"/>
-      <c r="AY21" s="218"/>
-      <c r="AZ21" s="218"/>
-      <c r="BA21" s="218"/>
+      <c r="AW21" s="200"/>
+      <c r="AX21" s="200"/>
+      <c r="AY21" s="200"/>
+      <c r="AZ21" s="200"/>
+      <c r="BA21" s="200"/>
       <c r="BB21"/>
       <c r="BC21"/>
       <c r="BD21"/>
-      <c r="BE21" s="218"/>
-      <c r="BF21" s="218"/>
-      <c r="BG21" s="218"/>
-      <c r="BH21" s="218"/>
-      <c r="BI21" s="218"/>
+      <c r="BE21" s="200"/>
+      <c r="BF21" s="200"/>
+      <c r="BG21" s="200"/>
+      <c r="BH21" s="200"/>
+      <c r="BI21" s="200"/>
       <c r="BJ21"/>
       <c r="BK21"/>
       <c r="BL21"/>
-      <c r="BM21" s="218"/>
-      <c r="BN21" s="218"/>
-      <c r="BO21" s="218"/>
-      <c r="BP21" s="218"/>
-      <c r="BQ21" s="218"/>
+      <c r="BM21" s="200"/>
+      <c r="BN21" s="200"/>
+      <c r="BO21" s="200"/>
+      <c r="BP21" s="200"/>
+      <c r="BQ21" s="200"/>
       <c r="BR21"/>
       <c r="BS21"/>
       <c r="BT21"/>
-      <c r="BU21" s="218"/>
-      <c r="BV21" s="218"/>
-      <c r="BW21" s="218"/>
-      <c r="BX21" s="218"/>
-      <c r="BY21" s="218"/>
+      <c r="BU21" s="200"/>
+      <c r="BV21" s="200"/>
+      <c r="BW21" s="200"/>
+      <c r="BX21" s="200"/>
+      <c r="BY21" s="200"/>
       <c r="BZ21"/>
       <c r="CA21"/>
       <c r="CB21"/>
-      <c r="CC21" s="218"/>
-      <c r="CD21" s="218"/>
-      <c r="CE21" s="218"/>
-      <c r="CF21" s="218"/>
-      <c r="CG21" s="218"/>
+      <c r="CC21" s="200"/>
+      <c r="CD21" s="200"/>
+      <c r="CE21" s="200"/>
+      <c r="CF21" s="200"/>
+      <c r="CG21" s="200"/>
       <c r="CH21"/>
       <c r="CI21"/>
       <c r="CJ21"/>
-      <c r="CK21" s="218"/>
-      <c r="CL21" s="218"/>
-      <c r="CM21" s="218"/>
-      <c r="CN21" s="218"/>
-      <c r="CO21" s="218"/>
+      <c r="CK21" s="200"/>
+      <c r="CL21" s="200"/>
+      <c r="CM21" s="200"/>
+      <c r="CN21" s="200"/>
+      <c r="CO21" s="200"/>
       <c r="CP21"/>
       <c r="CQ21"/>
       <c r="CR21"/>
-      <c r="CS21" s="218"/>
-      <c r="CT21" s="218"/>
-      <c r="CU21" s="218"/>
-      <c r="CV21" s="218"/>
-      <c r="CW21" s="218"/>
+      <c r="CS21" s="200"/>
+      <c r="CT21" s="200"/>
+      <c r="CU21" s="200"/>
+      <c r="CV21" s="200"/>
+      <c r="CW21" s="200"/>
       <c r="CX21"/>
       <c r="CY21"/>
       <c r="CZ21"/>
-      <c r="DA21" s="218"/>
-      <c r="DB21" s="218"/>
-      <c r="DC21" s="218"/>
-      <c r="DD21" s="218"/>
-      <c r="DE21" s="218"/>
+      <c r="DA21" s="200"/>
+      <c r="DB21" s="200"/>
+      <c r="DC21" s="200"/>
+      <c r="DD21" s="200"/>
+      <c r="DE21" s="200"/>
       <c r="DF21"/>
       <c r="DG21"/>
       <c r="DH21"/>
-      <c r="DI21" s="218"/>
-      <c r="DJ21" s="218"/>
-      <c r="DK21" s="218"/>
-      <c r="DL21" s="218"/>
-      <c r="DM21" s="218"/>
+      <c r="DI21" s="200"/>
+      <c r="DJ21" s="200"/>
+      <c r="DK21" s="200"/>
+      <c r="DL21" s="200"/>
+      <c r="DM21" s="200"/>
       <c r="DN21"/>
       <c r="DO21"/>
       <c r="DP21"/>
-      <c r="DQ21" s="218"/>
-      <c r="DR21" s="218"/>
-      <c r="DS21" s="218"/>
-      <c r="DT21" s="218"/>
-      <c r="DU21" s="218"/>
+      <c r="DQ21" s="200"/>
+      <c r="DR21" s="200"/>
+      <c r="DS21" s="200"/>
+      <c r="DT21" s="200"/>
+      <c r="DU21" s="200"/>
       <c r="DV21"/>
       <c r="DW21"/>
       <c r="DX21"/>
-      <c r="DY21" s="218"/>
-      <c r="DZ21" s="218"/>
-      <c r="EA21" s="218"/>
-      <c r="EB21" s="218"/>
-      <c r="EC21" s="218"/>
+      <c r="DY21" s="200"/>
+      <c r="DZ21" s="200"/>
+      <c r="EA21" s="200"/>
+      <c r="EB21" s="200"/>
+      <c r="EC21" s="200"/>
       <c r="ED21"/>
       <c r="EE21"/>
       <c r="EF21"/>
-      <c r="EG21" s="218"/>
-      <c r="EH21" s="218"/>
-      <c r="EI21" s="218"/>
-      <c r="EJ21" s="218"/>
-      <c r="EK21" s="218"/>
+      <c r="EG21" s="200"/>
+      <c r="EH21" s="200"/>
+      <c r="EI21" s="200"/>
+      <c r="EJ21" s="200"/>
+      <c r="EK21" s="200"/>
       <c r="EL21"/>
       <c r="EM21"/>
       <c r="EN21"/>
-      <c r="EO21" s="218"/>
-      <c r="EP21" s="218"/>
-      <c r="EQ21" s="218"/>
-      <c r="ER21" s="218"/>
-      <c r="ES21" s="218"/>
+      <c r="EO21" s="200"/>
+      <c r="EP21" s="200"/>
+      <c r="EQ21" s="200"/>
+      <c r="ER21" s="200"/>
+      <c r="ES21" s="200"/>
       <c r="ET21"/>
       <c r="EU21"/>
       <c r="EV21"/>
-      <c r="EW21" s="218"/>
-      <c r="EX21" s="218"/>
-      <c r="EY21" s="218"/>
-      <c r="EZ21" s="218"/>
-      <c r="FA21" s="218"/>
+      <c r="EW21" s="200"/>
+      <c r="EX21" s="200"/>
+      <c r="EY21" s="200"/>
+      <c r="EZ21" s="200"/>
+      <c r="FA21" s="200"/>
       <c r="FB21"/>
       <c r="FC21"/>
       <c r="FD21"/>
-      <c r="FE21" s="218"/>
-      <c r="FF21" s="218"/>
-      <c r="FG21" s="218"/>
-      <c r="FH21" s="218"/>
-      <c r="FI21" s="218"/>
+      <c r="FE21" s="200"/>
+      <c r="FF21" s="200"/>
+      <c r="FG21" s="200"/>
+      <c r="FH21" s="200"/>
+      <c r="FI21" s="200"/>
       <c r="FJ21"/>
       <c r="FK21"/>
       <c r="FL21"/>
-      <c r="FM21" s="218"/>
-      <c r="FN21" s="218"/>
-      <c r="FO21" s="218"/>
-      <c r="FP21" s="218"/>
-      <c r="FQ21" s="218"/>
+      <c r="FM21" s="200"/>
+      <c r="FN21" s="200"/>
+      <c r="FO21" s="200"/>
+      <c r="FP21" s="200"/>
+      <c r="FQ21" s="200"/>
       <c r="FR21"/>
       <c r="FS21"/>
       <c r="FT21"/>
-      <c r="FU21" s="218"/>
-      <c r="FV21" s="218"/>
-      <c r="FW21" s="218"/>
-      <c r="FX21" s="218"/>
-      <c r="FY21" s="218"/>
+      <c r="FU21" s="200"/>
+      <c r="FV21" s="200"/>
+      <c r="FW21" s="200"/>
+      <c r="FX21" s="200"/>
+      <c r="FY21" s="200"/>
       <c r="FZ21"/>
       <c r="GA21"/>
       <c r="GB21"/>
-      <c r="GC21" s="218"/>
-      <c r="GD21" s="218"/>
-      <c r="GE21" s="218"/>
-      <c r="GF21" s="218"/>
-      <c r="GG21" s="218"/>
+      <c r="GC21" s="200"/>
+      <c r="GD21" s="200"/>
+      <c r="GE21" s="200"/>
+      <c r="GF21" s="200"/>
+      <c r="GG21" s="200"/>
       <c r="GH21"/>
       <c r="GI21"/>
       <c r="GJ21"/>
-      <c r="GK21" s="218"/>
-      <c r="GL21" s="218"/>
-      <c r="GM21" s="218"/>
-      <c r="GN21" s="218"/>
-      <c r="GO21" s="218"/>
+      <c r="GK21" s="200"/>
+      <c r="GL21" s="200"/>
+      <c r="GM21" s="200"/>
+      <c r="GN21" s="200"/>
+      <c r="GO21" s="200"/>
       <c r="GP21"/>
       <c r="GQ21"/>
       <c r="GR21"/>
-      <c r="GS21" s="218"/>
-      <c r="GT21" s="218"/>
-      <c r="GU21" s="218"/>
-      <c r="GV21" s="218"/>
-      <c r="GW21" s="218"/>
+      <c r="GS21" s="200"/>
+      <c r="GT21" s="200"/>
+      <c r="GU21" s="200"/>
+      <c r="GV21" s="200"/>
+      <c r="GW21" s="200"/>
       <c r="GX21"/>
       <c r="GY21"/>
       <c r="GZ21"/>
-      <c r="HA21" s="218"/>
-      <c r="HB21" s="218"/>
-      <c r="HC21" s="218"/>
-      <c r="HD21" s="218"/>
-      <c r="HE21" s="218"/>
+      <c r="HA21" s="200"/>
+      <c r="HB21" s="200"/>
+      <c r="HC21" s="200"/>
+      <c r="HD21" s="200"/>
+      <c r="HE21" s="200"/>
       <c r="HF21"/>
       <c r="HG21"/>
       <c r="HH21"/>
-      <c r="HI21" s="218"/>
-      <c r="HJ21" s="218"/>
-      <c r="HK21" s="218"/>
-      <c r="HL21" s="218"/>
-      <c r="HM21" s="218"/>
+      <c r="HI21" s="200"/>
+      <c r="HJ21" s="200"/>
+      <c r="HK21" s="200"/>
+      <c r="HL21" s="200"/>
+      <c r="HM21" s="200"/>
       <c r="HN21"/>
       <c r="HO21"/>
       <c r="HP21"/>
-      <c r="HQ21" s="218"/>
-      <c r="HR21" s="218"/>
-      <c r="HS21" s="218"/>
-      <c r="HT21" s="218"/>
-      <c r="HU21" s="218"/>
+      <c r="HQ21" s="200"/>
+      <c r="HR21" s="200"/>
+      <c r="HS21" s="200"/>
+      <c r="HT21" s="200"/>
+      <c r="HU21" s="200"/>
       <c r="HV21"/>
       <c r="HW21"/>
       <c r="HX21"/>
-      <c r="HY21" s="218"/>
-      <c r="HZ21" s="218"/>
-      <c r="IA21" s="218"/>
-      <c r="IB21" s="218"/>
-      <c r="IC21" s="218"/>
+      <c r="HY21" s="200"/>
+      <c r="HZ21" s="200"/>
+      <c r="IA21" s="200"/>
+      <c r="IB21" s="200"/>
+      <c r="IC21" s="200"/>
       <c r="ID21"/>
       <c r="IE21"/>
       <c r="IF21"/>
-      <c r="IG21" s="218"/>
-      <c r="IH21" s="218"/>
-      <c r="II21" s="218"/>
-      <c r="IJ21" s="218"/>
-      <c r="IK21" s="218"/>
+      <c r="IG21" s="200"/>
+      <c r="IH21" s="200"/>
+      <c r="II21" s="200"/>
+      <c r="IJ21" s="200"/>
+      <c r="IK21" s="200"/>
       <c r="IL21"/>
       <c r="IM21"/>
       <c r="IN21"/>
-      <c r="IO21" s="218"/>
-      <c r="IP21" s="218"/>
-      <c r="IQ21" s="218"/>
-      <c r="IR21" s="218"/>
-      <c r="IS21" s="218"/>
+      <c r="IO21" s="200"/>
+      <c r="IP21" s="200"/>
+      <c r="IQ21" s="200"/>
+      <c r="IR21" s="200"/>
+      <c r="IS21" s="200"/>
       <c r="IT21"/>
       <c r="IU21"/>
       <c r="IV21"/>
-      <c r="IW21" s="218"/>
-      <c r="IX21" s="218"/>
-      <c r="IY21" s="218"/>
-      <c r="IZ21" s="218"/>
-      <c r="JA21" s="218"/>
+      <c r="IW21" s="200"/>
+      <c r="IX21" s="200"/>
+      <c r="IY21" s="200"/>
+      <c r="IZ21" s="200"/>
+      <c r="JA21" s="200"/>
       <c r="JB21"/>
       <c r="JC21"/>
       <c r="JD21"/>
-      <c r="JE21" s="218"/>
-      <c r="JF21" s="218"/>
-      <c r="JG21" s="218"/>
-      <c r="JH21" s="218"/>
-      <c r="JI21" s="218"/>
+      <c r="JE21" s="200"/>
+      <c r="JF21" s="200"/>
+      <c r="JG21" s="200"/>
+      <c r="JH21" s="200"/>
+      <c r="JI21" s="200"/>
       <c r="JJ21"/>
       <c r="JK21"/>
       <c r="JL21"/>
-      <c r="JM21" s="218"/>
-      <c r="JN21" s="218"/>
-      <c r="JO21" s="218"/>
-      <c r="JP21" s="218"/>
-      <c r="JQ21" s="218"/>
+      <c r="JM21" s="200"/>
+      <c r="JN21" s="200"/>
+      <c r="JO21" s="200"/>
+      <c r="JP21" s="200"/>
+      <c r="JQ21" s="200"/>
       <c r="JR21"/>
       <c r="JS21"/>
       <c r="JT21"/>
-      <c r="JU21" s="218"/>
-      <c r="JV21" s="218"/>
-      <c r="JW21" s="218"/>
-      <c r="JX21" s="218"/>
-      <c r="JY21" s="218"/>
+      <c r="JU21" s="200"/>
+      <c r="JV21" s="200"/>
+      <c r="JW21" s="200"/>
+      <c r="JX21" s="200"/>
+      <c r="JY21" s="200"/>
       <c r="JZ21"/>
       <c r="KA21"/>
       <c r="KB21"/>
-      <c r="KC21" s="218"/>
-      <c r="KD21" s="218"/>
-      <c r="KE21" s="218"/>
-      <c r="KF21" s="218"/>
-      <c r="KG21" s="218"/>
+      <c r="KC21" s="200"/>
+      <c r="KD21" s="200"/>
+      <c r="KE21" s="200"/>
+      <c r="KF21" s="200"/>
+      <c r="KG21" s="200"/>
       <c r="KH21"/>
       <c r="KI21"/>
       <c r="KJ21"/>
-      <c r="KK21" s="218"/>
-      <c r="KL21" s="218"/>
-      <c r="KM21" s="218"/>
-      <c r="KN21" s="218"/>
-      <c r="KO21" s="218"/>
+      <c r="KK21" s="200"/>
+      <c r="KL21" s="200"/>
+      <c r="KM21" s="200"/>
+      <c r="KN21" s="200"/>
+      <c r="KO21" s="200"/>
       <c r="KP21"/>
       <c r="KQ21"/>
       <c r="KR21"/>
-      <c r="KS21" s="218"/>
-      <c r="KT21" s="218"/>
-      <c r="KU21" s="218"/>
-      <c r="KV21" s="218"/>
-      <c r="KW21" s="218"/>
+      <c r="KS21" s="200"/>
+      <c r="KT21" s="200"/>
+      <c r="KU21" s="200"/>
+      <c r="KV21" s="200"/>
+      <c r="KW21" s="200"/>
       <c r="KX21"/>
       <c r="KY21"/>
       <c r="KZ21"/>
-      <c r="LA21" s="218"/>
-      <c r="LB21" s="218"/>
-      <c r="LC21" s="218"/>
-      <c r="LD21" s="218"/>
-      <c r="LE21" s="218"/>
+      <c r="LA21" s="200"/>
+      <c r="LB21" s="200"/>
+      <c r="LC21" s="200"/>
+      <c r="LD21" s="200"/>
+      <c r="LE21" s="200"/>
       <c r="LF21"/>
       <c r="LG21"/>
       <c r="LH21"/>
-      <c r="LI21" s="218"/>
-      <c r="LJ21" s="218"/>
-      <c r="LK21" s="218"/>
-      <c r="LL21" s="218"/>
-      <c r="LM21" s="218"/>
+      <c r="LI21" s="200"/>
+      <c r="LJ21" s="200"/>
+      <c r="LK21" s="200"/>
+      <c r="LL21" s="200"/>
+      <c r="LM21" s="200"/>
       <c r="LN21"/>
       <c r="LO21"/>
       <c r="LP21"/>
-      <c r="LQ21" s="218"/>
-      <c r="LR21" s="218"/>
-      <c r="LS21" s="218"/>
-      <c r="LT21" s="218"/>
-      <c r="LU21" s="218"/>
+      <c r="LQ21" s="200"/>
+      <c r="LR21" s="200"/>
+      <c r="LS21" s="200"/>
+      <c r="LT21" s="200"/>
+      <c r="LU21" s="200"/>
       <c r="LV21"/>
       <c r="LW21"/>
       <c r="LX21"/>
-      <c r="LY21" s="218"/>
-      <c r="LZ21" s="218"/>
-      <c r="MA21" s="218"/>
-      <c r="MB21" s="218"/>
-      <c r="MC21" s="218"/>
+      <c r="LY21" s="200"/>
+      <c r="LZ21" s="200"/>
+      <c r="MA21" s="200"/>
+      <c r="MB21" s="200"/>
+      <c r="MC21" s="200"/>
       <c r="MD21"/>
       <c r="ME21"/>
       <c r="MF21"/>
-      <c r="MG21" s="218"/>
-      <c r="MH21" s="218"/>
-      <c r="MI21" s="218"/>
-      <c r="MJ21" s="218"/>
-      <c r="MK21" s="218"/>
+      <c r="MG21" s="200"/>
+      <c r="MH21" s="200"/>
+      <c r="MI21" s="200"/>
+      <c r="MJ21" s="200"/>
+      <c r="MK21" s="200"/>
       <c r="ML21"/>
       <c r="MM21"/>
       <c r="MN21"/>
-      <c r="MO21" s="218"/>
-      <c r="MP21" s="218"/>
-      <c r="MQ21" s="218"/>
-      <c r="MR21" s="218"/>
-      <c r="MS21" s="218"/>
+      <c r="MO21" s="200"/>
+      <c r="MP21" s="200"/>
+      <c r="MQ21" s="200"/>
+      <c r="MR21" s="200"/>
+      <c r="MS21" s="200"/>
       <c r="MT21"/>
       <c r="MU21"/>
       <c r="MV21"/>
-      <c r="MW21" s="218"/>
-      <c r="MX21" s="218"/>
-      <c r="MY21" s="218"/>
-      <c r="MZ21" s="218"/>
-      <c r="NA21" s="218"/>
+      <c r="MW21" s="200"/>
+      <c r="MX21" s="200"/>
+      <c r="MY21" s="200"/>
+      <c r="MZ21" s="200"/>
+      <c r="NA21" s="200"/>
       <c r="NB21"/>
       <c r="NC21"/>
       <c r="ND21"/>
-      <c r="NE21" s="218"/>
-      <c r="NF21" s="218"/>
-      <c r="NG21" s="218"/>
-      <c r="NH21" s="218"/>
-      <c r="NI21" s="218"/>
+      <c r="NE21" s="200"/>
+      <c r="NF21" s="200"/>
+      <c r="NG21" s="200"/>
+      <c r="NH21" s="200"/>
+      <c r="NI21" s="200"/>
       <c r="NJ21"/>
       <c r="NK21"/>
       <c r="NL21"/>
-      <c r="NM21" s="218"/>
-      <c r="NN21" s="218"/>
-      <c r="NO21" s="218"/>
-      <c r="NP21" s="218"/>
-      <c r="NQ21" s="218"/>
+      <c r="NM21" s="200"/>
+      <c r="NN21" s="200"/>
+      <c r="NO21" s="200"/>
+      <c r="NP21" s="200"/>
+      <c r="NQ21" s="200"/>
       <c r="NR21"/>
       <c r="NS21"/>
       <c r="NT21"/>
-      <c r="NU21" s="218"/>
-      <c r="NV21" s="218"/>
-      <c r="NW21" s="218"/>
-      <c r="NX21" s="218"/>
-      <c r="NY21" s="218"/>
+      <c r="NU21" s="200"/>
+      <c r="NV21" s="200"/>
+      <c r="NW21" s="200"/>
+      <c r="NX21" s="200"/>
+      <c r="NY21" s="200"/>
       <c r="NZ21"/>
       <c r="OA21"/>
       <c r="OB21"/>
-      <c r="OC21" s="218"/>
-      <c r="OD21" s="218"/>
-      <c r="OE21" s="218"/>
-      <c r="OF21" s="218"/>
-      <c r="OG21" s="218"/>
+      <c r="OC21" s="200"/>
+      <c r="OD21" s="200"/>
+      <c r="OE21" s="200"/>
+      <c r="OF21" s="200"/>
+      <c r="OG21" s="200"/>
       <c r="OH21"/>
       <c r="OI21"/>
       <c r="OJ21"/>
-      <c r="OK21" s="218"/>
-      <c r="OL21" s="218"/>
-      <c r="OM21" s="218"/>
-      <c r="ON21" s="218"/>
-      <c r="OO21" s="218"/>
+      <c r="OK21" s="200"/>
+      <c r="OL21" s="200"/>
+      <c r="OM21" s="200"/>
+      <c r="ON21" s="200"/>
+      <c r="OO21" s="200"/>
       <c r="OP21"/>
       <c r="OQ21"/>
       <c r="OR21"/>
-      <c r="OS21" s="218"/>
-      <c r="OT21" s="218"/>
-      <c r="OU21" s="218"/>
-      <c r="OV21" s="218"/>
-      <c r="OW21" s="218"/>
+      <c r="OS21" s="200"/>
+      <c r="OT21" s="200"/>
+      <c r="OU21" s="200"/>
+      <c r="OV21" s="200"/>
+      <c r="OW21" s="200"/>
       <c r="OX21"/>
       <c r="OY21"/>
       <c r="OZ21"/>
-      <c r="PA21" s="218"/>
-      <c r="PB21" s="218"/>
-      <c r="PC21" s="218"/>
-      <c r="PD21" s="218"/>
-      <c r="PE21" s="218"/>
+      <c r="PA21" s="200"/>
+      <c r="PB21" s="200"/>
+      <c r="PC21" s="200"/>
+      <c r="PD21" s="200"/>
+      <c r="PE21" s="200"/>
       <c r="PF21"/>
       <c r="PG21"/>
       <c r="PH21"/>
-      <c r="PI21" s="218"/>
-      <c r="PJ21" s="218"/>
-      <c r="PK21" s="218"/>
-      <c r="PL21" s="218"/>
-      <c r="PM21" s="218"/>
+      <c r="PI21" s="200"/>
+      <c r="PJ21" s="200"/>
+      <c r="PK21" s="200"/>
+      <c r="PL21" s="200"/>
+      <c r="PM21" s="200"/>
       <c r="PN21"/>
       <c r="PO21"/>
       <c r="PP21"/>
-      <c r="PQ21" s="218"/>
-      <c r="PR21" s="218"/>
-      <c r="PS21" s="218"/>
-      <c r="PT21" s="218"/>
-      <c r="PU21" s="218"/>
+      <c r="PQ21" s="200"/>
+      <c r="PR21" s="200"/>
+      <c r="PS21" s="200"/>
+      <c r="PT21" s="200"/>
+      <c r="PU21" s="200"/>
       <c r="PV21"/>
       <c r="PW21"/>
       <c r="PX21"/>
-      <c r="PY21" s="218"/>
-      <c r="PZ21" s="218"/>
-      <c r="QA21" s="218"/>
-      <c r="QB21" s="218"/>
-      <c r="QC21" s="218"/>
+      <c r="PY21" s="200"/>
+      <c r="PZ21" s="200"/>
+      <c r="QA21" s="200"/>
+      <c r="QB21" s="200"/>
+      <c r="QC21" s="200"/>
       <c r="QD21"/>
       <c r="QE21"/>
       <c r="QF21"/>
-      <c r="QG21" s="218"/>
-      <c r="QH21" s="218"/>
-      <c r="QI21" s="218"/>
-      <c r="QJ21" s="218"/>
-      <c r="QK21" s="218"/>
+      <c r="QG21" s="200"/>
+      <c r="QH21" s="200"/>
+      <c r="QI21" s="200"/>
+      <c r="QJ21" s="200"/>
+      <c r="QK21" s="200"/>
       <c r="QL21"/>
       <c r="QM21"/>
       <c r="QN21"/>
-      <c r="QO21" s="218"/>
-      <c r="QP21" s="218"/>
-      <c r="QQ21" s="218"/>
-      <c r="QR21" s="218"/>
-      <c r="QS21" s="218"/>
+      <c r="QO21" s="200"/>
+      <c r="QP21" s="200"/>
+      <c r="QQ21" s="200"/>
+      <c r="QR21" s="200"/>
+      <c r="QS21" s="200"/>
       <c r="QT21"/>
       <c r="QU21"/>
       <c r="QV21"/>
-      <c r="QW21" s="218"/>
-      <c r="QX21" s="218"/>
-      <c r="QY21" s="218"/>
-      <c r="QZ21" s="218"/>
-      <c r="RA21" s="218"/>
+      <c r="QW21" s="200"/>
+      <c r="QX21" s="200"/>
+      <c r="QY21" s="200"/>
+      <c r="QZ21" s="200"/>
+      <c r="RA21" s="200"/>
       <c r="RB21"/>
       <c r="RC21"/>
       <c r="RD21"/>
-      <c r="RE21" s="218"/>
-      <c r="RF21" s="218"/>
-      <c r="RG21" s="218"/>
-      <c r="RH21" s="218"/>
-      <c r="RI21" s="218"/>
+      <c r="RE21" s="200"/>
+      <c r="RF21" s="200"/>
+      <c r="RG21" s="200"/>
+      <c r="RH21" s="200"/>
+      <c r="RI21" s="200"/>
       <c r="RJ21"/>
       <c r="RK21"/>
       <c r="RL21"/>
-      <c r="RM21" s="218"/>
-      <c r="RN21" s="218"/>
-      <c r="RO21" s="218"/>
-      <c r="RP21" s="218"/>
-      <c r="RQ21" s="218"/>
+      <c r="RM21" s="200"/>
+      <c r="RN21" s="200"/>
+      <c r="RO21" s="200"/>
+      <c r="RP21" s="200"/>
+      <c r="RQ21" s="200"/>
       <c r="RR21"/>
       <c r="RS21"/>
       <c r="RT21"/>
-      <c r="RU21" s="218"/>
-      <c r="RV21" s="218"/>
-      <c r="RW21" s="218"/>
-      <c r="RX21" s="218"/>
-      <c r="RY21" s="218"/>
+      <c r="RU21" s="200"/>
+      <c r="RV21" s="200"/>
+      <c r="RW21" s="200"/>
+      <c r="RX21" s="200"/>
+      <c r="RY21" s="200"/>
       <c r="RZ21"/>
       <c r="SA21"/>
       <c r="SB21"/>
-      <c r="SC21" s="218"/>
-      <c r="SD21" s="218"/>
-      <c r="SE21" s="218"/>
-      <c r="SF21" s="218"/>
-      <c r="SG21" s="218"/>
+      <c r="SC21" s="200"/>
+      <c r="SD21" s="200"/>
+      <c r="SE21" s="200"/>
+      <c r="SF21" s="200"/>
+      <c r="SG21" s="200"/>
       <c r="SH21"/>
       <c r="SI21"/>
       <c r="SJ21"/>
-      <c r="SK21" s="218"/>
-      <c r="SL21" s="218"/>
-      <c r="SM21" s="218"/>
-      <c r="SN21" s="218"/>
-      <c r="SO21" s="218"/>
+      <c r="SK21" s="200"/>
+      <c r="SL21" s="200"/>
+      <c r="SM21" s="200"/>
+      <c r="SN21" s="200"/>
+      <c r="SO21" s="200"/>
       <c r="SP21"/>
       <c r="SQ21"/>
       <c r="SR21"/>
-      <c r="SS21" s="218"/>
-      <c r="ST21" s="218"/>
-      <c r="SU21" s="218"/>
-      <c r="SV21" s="218"/>
-      <c r="SW21" s="218"/>
+      <c r="SS21" s="200"/>
+      <c r="ST21" s="200"/>
+      <c r="SU21" s="200"/>
+      <c r="SV21" s="200"/>
+      <c r="SW21" s="200"/>
       <c r="SX21"/>
       <c r="SY21"/>
       <c r="SZ21"/>
-      <c r="TA21" s="218"/>
-      <c r="TB21" s="218"/>
-      <c r="TC21" s="218"/>
-      <c r="TD21" s="218"/>
-      <c r="TE21" s="218"/>
+      <c r="TA21" s="200"/>
+      <c r="TB21" s="200"/>
+      <c r="TC21" s="200"/>
+      <c r="TD21" s="200"/>
+      <c r="TE21" s="200"/>
       <c r="TF21"/>
       <c r="TG21"/>
       <c r="TH21"/>
-      <c r="TI21" s="218"/>
-      <c r="TJ21" s="218"/>
-      <c r="TK21" s="218"/>
-      <c r="TL21" s="218"/>
-      <c r="TM21" s="218"/>
+      <c r="TI21" s="200"/>
+      <c r="TJ21" s="200"/>
+      <c r="TK21" s="200"/>
+      <c r="TL21" s="200"/>
+      <c r="TM21" s="200"/>
       <c r="TN21"/>
       <c r="TO21"/>
       <c r="TP21"/>
-      <c r="TQ21" s="218"/>
-      <c r="TR21" s="218"/>
-      <c r="TS21" s="218"/>
-      <c r="TT21" s="218"/>
-      <c r="TU21" s="218"/>
+      <c r="TQ21" s="200"/>
+      <c r="TR21" s="200"/>
+      <c r="TS21" s="200"/>
+      <c r="TT21" s="200"/>
+      <c r="TU21" s="200"/>
       <c r="TV21"/>
       <c r="TW21"/>
       <c r="TX21"/>
-      <c r="TY21" s="218"/>
-      <c r="TZ21" s="218"/>
-      <c r="UA21" s="218"/>
-      <c r="UB21" s="218"/>
-      <c r="UC21" s="218"/>
+      <c r="TY21" s="200"/>
+      <c r="TZ21" s="200"/>
+      <c r="UA21" s="200"/>
+      <c r="UB21" s="200"/>
+      <c r="UC21" s="200"/>
       <c r="UD21"/>
       <c r="UE21"/>
       <c r="UF21"/>
-      <c r="UG21" s="218"/>
-      <c r="UH21" s="218"/>
-      <c r="UI21" s="218"/>
-      <c r="UJ21" s="218"/>
-      <c r="UK21" s="218"/>
+      <c r="UG21" s="200"/>
+      <c r="UH21" s="200"/>
+      <c r="UI21" s="200"/>
+      <c r="UJ21" s="200"/>
+      <c r="UK21" s="200"/>
       <c r="UL21"/>
       <c r="UM21"/>
       <c r="UN21"/>
-      <c r="UO21" s="218"/>
-      <c r="UP21" s="218"/>
-      <c r="UQ21" s="218"/>
-      <c r="UR21" s="218"/>
-      <c r="US21" s="218"/>
+      <c r="UO21" s="200"/>
+      <c r="UP21" s="200"/>
+      <c r="UQ21" s="200"/>
+      <c r="UR21" s="200"/>
+      <c r="US21" s="200"/>
       <c r="UT21"/>
       <c r="UU21"/>
       <c r="UV21"/>
-      <c r="UW21" s="218"/>
-      <c r="UX21" s="218"/>
-      <c r="UY21" s="218"/>
-      <c r="UZ21" s="218"/>
-      <c r="VA21" s="218"/>
+      <c r="UW21" s="200"/>
+      <c r="UX21" s="200"/>
+      <c r="UY21" s="200"/>
+      <c r="UZ21" s="200"/>
+      <c r="VA21" s="200"/>
       <c r="VB21"/>
       <c r="VC21"/>
       <c r="VD21"/>
-      <c r="VE21" s="218"/>
-      <c r="VF21" s="218"/>
-      <c r="VG21" s="218"/>
-      <c r="VH21" s="218"/>
-      <c r="VI21" s="218"/>
+      <c r="VE21" s="200"/>
+      <c r="VF21" s="200"/>
+      <c r="VG21" s="200"/>
+      <c r="VH21" s="200"/>
+      <c r="VI21" s="200"/>
       <c r="VJ21"/>
       <c r="VK21"/>
       <c r="VL21"/>
-      <c r="VM21" s="218"/>
-      <c r="VN21" s="218"/>
-      <c r="VO21" s="218"/>
-      <c r="VP21" s="218"/>
-      <c r="VQ21" s="218"/>
+      <c r="VM21" s="200"/>
+      <c r="VN21" s="200"/>
+      <c r="VO21" s="200"/>
+      <c r="VP21" s="200"/>
+      <c r="VQ21" s="200"/>
       <c r="VR21"/>
       <c r="VS21"/>
       <c r="VT21"/>
-      <c r="VU21" s="218"/>
-      <c r="VV21" s="218"/>
-      <c r="VW21" s="218"/>
-      <c r="VX21" s="218"/>
-      <c r="VY21" s="218"/>
+      <c r="VU21" s="200"/>
+      <c r="VV21" s="200"/>
+      <c r="VW21" s="200"/>
+      <c r="VX21" s="200"/>
+      <c r="VY21" s="200"/>
       <c r="VZ21"/>
       <c r="WA21"/>
       <c r="WB21"/>
-      <c r="WC21" s="218"/>
-      <c r="WD21" s="218"/>
-      <c r="WE21" s="218"/>
-      <c r="WF21" s="218"/>
-      <c r="WG21" s="218"/>
+      <c r="WC21" s="200"/>
+      <c r="WD21" s="200"/>
+      <c r="WE21" s="200"/>
+      <c r="WF21" s="200"/>
+      <c r="WG21" s="200"/>
       <c r="WH21"/>
       <c r="WI21"/>
       <c r="WJ21"/>
-      <c r="WK21" s="218"/>
-      <c r="WL21" s="218"/>
-      <c r="WM21" s="218"/>
-      <c r="WN21" s="218"/>
-      <c r="WO21" s="218"/>
+      <c r="WK21" s="200"/>
+      <c r="WL21" s="200"/>
+      <c r="WM21" s="200"/>
+      <c r="WN21" s="200"/>
+      <c r="WO21" s="200"/>
       <c r="WP21"/>
       <c r="WQ21"/>
       <c r="WR21"/>
-      <c r="WS21" s="218"/>
-      <c r="WT21" s="218"/>
-      <c r="WU21" s="218"/>
-      <c r="WV21" s="218"/>
-      <c r="WW21" s="218"/>
+      <c r="WS21" s="200"/>
+      <c r="WT21" s="200"/>
+      <c r="WU21" s="200"/>
+      <c r="WV21" s="200"/>
+      <c r="WW21" s="200"/>
       <c r="WX21"/>
       <c r="WY21"/>
       <c r="WZ21"/>
-      <c r="XA21" s="218"/>
-      <c r="XB21" s="218"/>
-      <c r="XC21" s="218"/>
-      <c r="XD21" s="218"/>
-      <c r="XE21" s="218"/>
+      <c r="XA21" s="200"/>
+      <c r="XB21" s="200"/>
+      <c r="XC21" s="200"/>
+      <c r="XD21" s="200"/>
+      <c r="XE21" s="200"/>
       <c r="XF21"/>
       <c r="XG21"/>
       <c r="XH21"/>
-      <c r="XI21" s="218"/>
-      <c r="XJ21" s="218"/>
-      <c r="XK21" s="218"/>
-      <c r="XL21" s="218"/>
-      <c r="XM21" s="218"/>
+      <c r="XI21" s="200"/>
+      <c r="XJ21" s="200"/>
+      <c r="XK21" s="200"/>
+      <c r="XL21" s="200"/>
+      <c r="XM21" s="200"/>
       <c r="XN21"/>
       <c r="XO21"/>
       <c r="XP21"/>
-      <c r="XQ21" s="218"/>
-      <c r="XR21" s="218"/>
-      <c r="XS21" s="218"/>
-      <c r="XT21" s="218"/>
-      <c r="XU21" s="218"/>
+      <c r="XQ21" s="200"/>
+      <c r="XR21" s="200"/>
+      <c r="XS21" s="200"/>
+      <c r="XT21" s="200"/>
+      <c r="XU21" s="200"/>
       <c r="XV21"/>
       <c r="XW21"/>
       <c r="XX21"/>
-      <c r="XY21" s="218"/>
-      <c r="XZ21" s="218"/>
-      <c r="YA21" s="218"/>
-      <c r="YB21" s="218"/>
-      <c r="YC21" s="218"/>
+      <c r="XY21" s="200"/>
+      <c r="XZ21" s="200"/>
+      <c r="YA21" s="200"/>
+      <c r="YB21" s="200"/>
+      <c r="YC21" s="200"/>
       <c r="YD21"/>
       <c r="YE21"/>
       <c r="YF21"/>
-      <c r="YG21" s="218"/>
-      <c r="YH21" s="218"/>
-      <c r="YI21" s="218"/>
-      <c r="YJ21" s="218"/>
-      <c r="YK21" s="218"/>
+      <c r="YG21" s="200"/>
+      <c r="YH21" s="200"/>
+      <c r="YI21" s="200"/>
+      <c r="YJ21" s="200"/>
+      <c r="YK21" s="200"/>
       <c r="YL21"/>
       <c r="YM21"/>
       <c r="YN21"/>
-      <c r="YO21" s="218"/>
-      <c r="YP21" s="218"/>
-      <c r="YQ21" s="218"/>
-      <c r="YR21" s="218"/>
-      <c r="YS21" s="218"/>
+      <c r="YO21" s="200"/>
+      <c r="YP21" s="200"/>
+      <c r="YQ21" s="200"/>
+      <c r="YR21" s="200"/>
+      <c r="YS21" s="200"/>
       <c r="YT21"/>
       <c r="YU21"/>
       <c r="YV21"/>
-      <c r="YW21" s="218"/>
-      <c r="YX21" s="218"/>
-      <c r="YY21" s="218"/>
-      <c r="YZ21" s="218"/>
-      <c r="ZA21" s="218"/>
+      <c r="YW21" s="200"/>
+      <c r="YX21" s="200"/>
+      <c r="YY21" s="200"/>
+      <c r="YZ21" s="200"/>
+      <c r="ZA21" s="200"/>
       <c r="ZB21"/>
       <c r="ZC21"/>
       <c r="ZD21"/>
-      <c r="ZE21" s="218"/>
-      <c r="ZF21" s="218"/>
-      <c r="ZG21" s="218"/>
-      <c r="ZH21" s="218"/>
-      <c r="ZI21" s="218"/>
+      <c r="ZE21" s="200"/>
+      <c r="ZF21" s="200"/>
+      <c r="ZG21" s="200"/>
+      <c r="ZH21" s="200"/>
+      <c r="ZI21" s="200"/>
       <c r="ZJ21"/>
       <c r="ZK21"/>
       <c r="ZL21"/>
-      <c r="ZM21" s="218"/>
-      <c r="ZN21" s="218"/>
-      <c r="ZO21" s="218"/>
-      <c r="ZP21" s="218"/>
-      <c r="ZQ21" s="218"/>
+      <c r="ZM21" s="200"/>
+      <c r="ZN21" s="200"/>
+      <c r="ZO21" s="200"/>
+      <c r="ZP21" s="200"/>
+      <c r="ZQ21" s="200"/>
       <c r="ZR21"/>
       <c r="ZS21"/>
       <c r="ZT21"/>
-      <c r="ZU21" s="218"/>
-      <c r="ZV21" s="218"/>
-      <c r="ZW21" s="218"/>
-      <c r="ZX21" s="218"/>
-      <c r="ZY21" s="218"/>
+      <c r="ZU21" s="200"/>
+      <c r="ZV21" s="200"/>
+      <c r="ZW21" s="200"/>
+      <c r="ZX21" s="200"/>
+      <c r="ZY21" s="200"/>
       <c r="ZZ21"/>
       <c r="AAA21"/>
       <c r="AAB21"/>
-      <c r="AAC21" s="218"/>
-      <c r="AAD21" s="218"/>
-      <c r="AAE21" s="218"/>
-      <c r="AAF21" s="218"/>
-      <c r="AAG21" s="218"/>
+      <c r="AAC21" s="200"/>
+      <c r="AAD21" s="200"/>
+      <c r="AAE21" s="200"/>
+      <c r="AAF21" s="200"/>
+      <c r="AAG21" s="200"/>
       <c r="AAH21"/>
       <c r="AAI21"/>
       <c r="AAJ21"/>
-      <c r="AAK21" s="218"/>
-      <c r="AAL21" s="218"/>
-      <c r="AAM21" s="218"/>
-      <c r="AAN21" s="218"/>
-      <c r="AAO21" s="218"/>
+      <c r="AAK21" s="200"/>
+      <c r="AAL21" s="200"/>
+      <c r="AAM21" s="200"/>
+      <c r="AAN21" s="200"/>
+      <c r="AAO21" s="200"/>
       <c r="AAP21"/>
       <c r="AAQ21"/>
       <c r="AAR21"/>
-      <c r="AAS21" s="218"/>
-      <c r="AAT21" s="218"/>
-      <c r="AAU21" s="218"/>
-      <c r="AAV21" s="218"/>
-      <c r="AAW21" s="218"/>
+      <c r="AAS21" s="200"/>
+      <c r="AAT21" s="200"/>
+      <c r="AAU21" s="200"/>
+      <c r="AAV21" s="200"/>
+      <c r="AAW21" s="200"/>
       <c r="AAX21"/>
       <c r="AAY21"/>
       <c r="AAZ21"/>
-      <c r="ABA21" s="218"/>
-      <c r="ABB21" s="218"/>
-      <c r="ABC21" s="218"/>
-      <c r="ABD21" s="218"/>
-      <c r="ABE21" s="218"/>
+      <c r="ABA21" s="200"/>
+      <c r="ABB21" s="200"/>
+      <c r="ABC21" s="200"/>
+      <c r="ABD21" s="200"/>
+      <c r="ABE21" s="200"/>
       <c r="ABF21"/>
       <c r="ABG21"/>
       <c r="ABH21"/>
-      <c r="ABI21" s="218"/>
-      <c r="ABJ21" s="218"/>
-      <c r="ABK21" s="218"/>
-      <c r="ABL21" s="218"/>
-      <c r="ABM21" s="218"/>
+      <c r="ABI21" s="200"/>
+      <c r="ABJ21" s="200"/>
+      <c r="ABK21" s="200"/>
+      <c r="ABL21" s="200"/>
+      <c r="ABM21" s="200"/>
       <c r="ABN21"/>
       <c r="ABO21"/>
       <c r="ABP21"/>
-      <c r="ABQ21" s="218"/>
-      <c r="ABR21" s="218"/>
-      <c r="ABS21" s="218"/>
-      <c r="ABT21" s="218"/>
-      <c r="ABU21" s="218"/>
+      <c r="ABQ21" s="200"/>
+      <c r="ABR21" s="200"/>
+      <c r="ABS21" s="200"/>
+      <c r="ABT21" s="200"/>
+      <c r="ABU21" s="200"/>
       <c r="ABV21"/>
       <c r="ABW21"/>
       <c r="ABX21"/>
-      <c r="ABY21" s="218"/>
-      <c r="ABZ21" s="218"/>
-      <c r="ACA21" s="218"/>
-      <c r="ACB21" s="218"/>
-      <c r="ACC21" s="218"/>
+      <c r="ABY21" s="200"/>
+      <c r="ABZ21" s="200"/>
+      <c r="ACA21" s="200"/>
+      <c r="ACB21" s="200"/>
+      <c r="ACC21" s="200"/>
       <c r="ACD21"/>
       <c r="ACE21"/>
       <c r="ACF21"/>
-      <c r="ACG21" s="218"/>
-      <c r="ACH21" s="218"/>
-      <c r="ACI21" s="218"/>
-      <c r="ACJ21" s="218"/>
-      <c r="ACK21" s="218"/>
+      <c r="ACG21" s="200"/>
+      <c r="ACH21" s="200"/>
+      <c r="ACI21" s="200"/>
+      <c r="ACJ21" s="200"/>
+      <c r="ACK21" s="200"/>
       <c r="ACL21"/>
       <c r="ACM21"/>
       <c r="ACN21"/>
-      <c r="ACO21" s="218"/>
-      <c r="ACP21" s="218"/>
-      <c r="ACQ21" s="218"/>
-      <c r="ACR21" s="218"/>
-      <c r="ACS21" s="218"/>
+      <c r="ACO21" s="200"/>
+      <c r="ACP21" s="200"/>
+      <c r="ACQ21" s="200"/>
+      <c r="ACR21" s="200"/>
+      <c r="ACS21" s="200"/>
       <c r="ACT21"/>
       <c r="ACU21"/>
       <c r="ACV21"/>
-      <c r="ACW21" s="218"/>
-      <c r="ACX21" s="218"/>
-      <c r="ACY21" s="218"/>
-      <c r="ACZ21" s="218"/>
-      <c r="ADA21" s="218"/>
+      <c r="ACW21" s="200"/>
+      <c r="ACX21" s="200"/>
+      <c r="ACY21" s="200"/>
+      <c r="ACZ21" s="200"/>
+      <c r="ADA21" s="200"/>
       <c r="ADB21"/>
       <c r="ADC21"/>
       <c r="ADD21"/>
-      <c r="ADE21" s="218"/>
-      <c r="ADF21" s="218"/>
-      <c r="ADG21" s="218"/>
-      <c r="ADH21" s="218"/>
-      <c r="ADI21" s="218"/>
+      <c r="ADE21" s="200"/>
+      <c r="ADF21" s="200"/>
+      <c r="ADG21" s="200"/>
+      <c r="ADH21" s="200"/>
+      <c r="ADI21" s="200"/>
       <c r="ADJ21"/>
       <c r="ADK21"/>
       <c r="ADL21"/>
-      <c r="ADM21" s="218"/>
-      <c r="ADN21" s="218"/>
-      <c r="ADO21" s="218"/>
-      <c r="ADP21" s="218"/>
-      <c r="ADQ21" s="218"/>
+      <c r="ADM21" s="200"/>
+      <c r="ADN21" s="200"/>
+      <c r="ADO21" s="200"/>
+      <c r="ADP21" s="200"/>
+      <c r="ADQ21" s="200"/>
       <c r="ADR21"/>
       <c r="ADS21"/>
       <c r="ADT21"/>
-      <c r="ADU21" s="218"/>
-      <c r="ADV21" s="218"/>
-      <c r="ADW21" s="218"/>
-      <c r="ADX21" s="218"/>
-      <c r="ADY21" s="218"/>
+      <c r="ADU21" s="200"/>
+      <c r="ADV21" s="200"/>
+      <c r="ADW21" s="200"/>
+      <c r="ADX21" s="200"/>
+      <c r="ADY21" s="200"/>
       <c r="ADZ21"/>
       <c r="AEA21"/>
       <c r="AEB21"/>
-      <c r="AEC21" s="218"/>
-      <c r="AED21" s="218"/>
-      <c r="AEE21" s="218"/>
-      <c r="AEF21" s="218"/>
-      <c r="AEG21" s="218"/>
+      <c r="AEC21" s="200"/>
+      <c r="AED21" s="200"/>
+      <c r="AEE21" s="200"/>
+      <c r="AEF21" s="200"/>
+      <c r="AEG21" s="200"/>
       <c r="AEH21"/>
       <c r="AEI21"/>
       <c r="AEJ21"/>
-      <c r="AEK21" s="218"/>
-      <c r="AEL21" s="218"/>
-      <c r="AEM21" s="218"/>
-      <c r="AEN21" s="218"/>
-      <c r="AEO21" s="218"/>
+      <c r="AEK21" s="200"/>
+      <c r="AEL21" s="200"/>
+      <c r="AEM21" s="200"/>
+      <c r="AEN21" s="200"/>
+      <c r="AEO21" s="200"/>
       <c r="AEP21"/>
       <c r="AEQ21"/>
       <c r="AER21"/>
-      <c r="AES21" s="218"/>
-      <c r="AET21" s="218"/>
-      <c r="AEU21" s="218"/>
-      <c r="AEV21" s="218"/>
-      <c r="AEW21" s="218"/>
+      <c r="AES21" s="200"/>
+      <c r="AET21" s="200"/>
+      <c r="AEU21" s="200"/>
+      <c r="AEV21" s="200"/>
+      <c r="AEW21" s="200"/>
       <c r="AEX21"/>
       <c r="AEY21"/>
       <c r="AEZ21"/>
-      <c r="AFA21" s="218"/>
-      <c r="AFB21" s="218"/>
-      <c r="AFC21" s="218"/>
-      <c r="AFD21" s="218"/>
-      <c r="AFE21" s="218"/>
+      <c r="AFA21" s="200"/>
+      <c r="AFB21" s="200"/>
+      <c r="AFC21" s="200"/>
+      <c r="AFD21" s="200"/>
+      <c r="AFE21" s="200"/>
       <c r="AFF21"/>
       <c r="AFG21"/>
       <c r="AFH21"/>
-      <c r="AFI21" s="218"/>
-      <c r="AFJ21" s="218"/>
-      <c r="AFK21" s="218"/>
-      <c r="AFL21" s="218"/>
-      <c r="AFM21" s="218"/>
+      <c r="AFI21" s="200"/>
+      <c r="AFJ21" s="200"/>
+      <c r="AFK21" s="200"/>
+      <c r="AFL21" s="200"/>
+      <c r="AFM21" s="200"/>
       <c r="AFN21"/>
       <c r="AFO21"/>
       <c r="AFP21"/>
-      <c r="AFQ21" s="218"/>
-      <c r="AFR21" s="218"/>
-      <c r="AFS21" s="218"/>
-      <c r="AFT21" s="218"/>
-      <c r="AFU21" s="218"/>
+      <c r="AFQ21" s="200"/>
+      <c r="AFR21" s="200"/>
+      <c r="AFS21" s="200"/>
+      <c r="AFT21" s="200"/>
+      <c r="AFU21" s="200"/>
       <c r="AFV21"/>
       <c r="AFW21"/>
       <c r="AFX21"/>
-      <c r="AFY21" s="218"/>
-      <c r="AFZ21" s="218"/>
-      <c r="AGA21" s="218"/>
-      <c r="AGB21" s="218"/>
-      <c r="AGC21" s="218"/>
+      <c r="AFY21" s="200"/>
+      <c r="AFZ21" s="200"/>
+      <c r="AGA21" s="200"/>
+      <c r="AGB21" s="200"/>
+      <c r="AGC21" s="200"/>
       <c r="AGD21"/>
       <c r="AGE21"/>
       <c r="AGF21"/>
-      <c r="AGG21" s="218"/>
-      <c r="AGH21" s="218"/>
-      <c r="AGI21" s="218"/>
-      <c r="AGJ21" s="218"/>
-      <c r="AGK21" s="218"/>
+      <c r="AGG21" s="200"/>
+      <c r="AGH21" s="200"/>
+      <c r="AGI21" s="200"/>
+      <c r="AGJ21" s="200"/>
+      <c r="AGK21" s="200"/>
       <c r="AGL21"/>
       <c r="AGM21"/>
       <c r="AGN21"/>
-      <c r="AGO21" s="218"/>
-      <c r="AGP21" s="218"/>
-      <c r="AGQ21" s="218"/>
-      <c r="AGR21" s="218"/>
-      <c r="AGS21" s="218"/>
+      <c r="AGO21" s="200"/>
+      <c r="AGP21" s="200"/>
+      <c r="AGQ21" s="200"/>
+      <c r="AGR21" s="200"/>
+      <c r="AGS21" s="200"/>
       <c r="AGT21"/>
       <c r="AGU21"/>
       <c r="AGV21"/>
-      <c r="AGW21" s="218"/>
-      <c r="AGX21" s="218"/>
-      <c r="AGY21" s="218"/>
-      <c r="AGZ21" s="218"/>
-      <c r="AHA21" s="218"/>
+      <c r="AGW21" s="200"/>
+      <c r="AGX21" s="200"/>
+      <c r="AGY21" s="200"/>
+      <c r="AGZ21" s="200"/>
+      <c r="AHA21" s="200"/>
       <c r="AHB21"/>
       <c r="AHC21"/>
       <c r="AHD21"/>
-      <c r="AHE21" s="218"/>
-      <c r="AHF21" s="218"/>
-      <c r="AHG21" s="218"/>
-      <c r="AHH21" s="218"/>
-      <c r="AHI21" s="218"/>
+      <c r="AHE21" s="200"/>
+      <c r="AHF21" s="200"/>
+      <c r="AHG21" s="200"/>
+      <c r="AHH21" s="200"/>
+      <c r="AHI21" s="200"/>
       <c r="AHJ21"/>
       <c r="AHK21"/>
       <c r="AHL21"/>
-      <c r="AHM21" s="218"/>
-      <c r="AHN21" s="218"/>
-      <c r="AHO21" s="218"/>
-      <c r="AHP21" s="218"/>
-      <c r="AHQ21" s="218"/>
+      <c r="AHM21" s="200"/>
+      <c r="AHN21" s="200"/>
+      <c r="AHO21" s="200"/>
+      <c r="AHP21" s="200"/>
+      <c r="AHQ21" s="200"/>
       <c r="AHR21"/>
       <c r="AHS21"/>
       <c r="AHT21"/>
-      <c r="AHU21" s="218"/>
-      <c r="AHV21" s="218"/>
-      <c r="AHW21" s="218"/>
-      <c r="AHX21" s="218"/>
-      <c r="AHY21" s="218"/>
+      <c r="AHU21" s="200"/>
+      <c r="AHV21" s="200"/>
+      <c r="AHW21" s="200"/>
+      <c r="AHX21" s="200"/>
+      <c r="AHY21" s="200"/>
       <c r="AHZ21"/>
       <c r="AIA21"/>
       <c r="AIB21"/>
-      <c r="AIC21" s="218"/>
-      <c r="AID21" s="218"/>
-      <c r="AIE21" s="218"/>
-      <c r="AIF21" s="218"/>
-      <c r="AIG21" s="218"/>
+      <c r="AIC21" s="200"/>
+      <c r="AID21" s="200"/>
+      <c r="AIE21" s="200"/>
+      <c r="AIF21" s="200"/>
+      <c r="AIG21" s="200"/>
       <c r="AIH21"/>
       <c r="AII21"/>
       <c r="AIJ21"/>
-      <c r="AIK21" s="218"/>
-      <c r="AIL21" s="218"/>
-      <c r="AIM21" s="218"/>
-      <c r="AIN21" s="218"/>
-      <c r="AIO21" s="218"/>
+      <c r="AIK21" s="200"/>
+      <c r="AIL21" s="200"/>
+      <c r="AIM21" s="200"/>
+      <c r="AIN21" s="200"/>
+      <c r="AIO21" s="200"/>
       <c r="AIP21"/>
       <c r="AIQ21"/>
       <c r="AIR21"/>
-      <c r="AIS21" s="218"/>
-      <c r="AIT21" s="218"/>
-      <c r="AIU21" s="218"/>
-      <c r="AIV21" s="218"/>
-      <c r="AIW21" s="218"/>
+      <c r="AIS21" s="200"/>
+      <c r="AIT21" s="200"/>
+      <c r="AIU21" s="200"/>
+      <c r="AIV21" s="200"/>
+      <c r="AIW21" s="200"/>
       <c r="AIX21"/>
       <c r="AIY21"/>
       <c r="AIZ21"/>
-      <c r="AJA21" s="218"/>
-      <c r="AJB21" s="218"/>
-      <c r="AJC21" s="218"/>
-      <c r="AJD21" s="218"/>
-      <c r="AJE21" s="218"/>
+      <c r="AJA21" s="200"/>
+      <c r="AJB21" s="200"/>
+      <c r="AJC21" s="200"/>
+      <c r="AJD21" s="200"/>
+      <c r="AJE21" s="200"/>
       <c r="AJF21"/>
       <c r="AJG21"/>
       <c r="AJH21"/>
-      <c r="AJI21" s="218"/>
-      <c r="AJJ21" s="218"/>
-      <c r="AJK21" s="218"/>
-      <c r="AJL21" s="218"/>
-      <c r="AJM21" s="218"/>
+      <c r="AJI21" s="200"/>
+      <c r="AJJ21" s="200"/>
+      <c r="AJK21" s="200"/>
+      <c r="AJL21" s="200"/>
+      <c r="AJM21" s="200"/>
       <c r="AJN21"/>
       <c r="AJO21"/>
       <c r="AJP21"/>
-      <c r="AJQ21" s="218"/>
-      <c r="AJR21" s="218"/>
-      <c r="AJS21" s="218"/>
-      <c r="AJT21" s="218"/>
-      <c r="AJU21" s="218"/>
+      <c r="AJQ21" s="200"/>
+      <c r="AJR21" s="200"/>
+      <c r="AJS21" s="200"/>
+      <c r="AJT21" s="200"/>
+      <c r="AJU21" s="200"/>
       <c r="AJV21"/>
       <c r="AJW21"/>
       <c r="AJX21"/>
-      <c r="AJY21" s="218"/>
-      <c r="AJZ21" s="218"/>
-      <c r="AKA21" s="218"/>
-      <c r="AKB21" s="218"/>
-      <c r="AKC21" s="218"/>
+      <c r="AJY21" s="200"/>
+      <c r="AJZ21" s="200"/>
+      <c r="AKA21" s="200"/>
+      <c r="AKB21" s="200"/>
+      <c r="AKC21" s="200"/>
       <c r="AKD21"/>
       <c r="AKE21"/>
       <c r="AKF21"/>
-      <c r="AKG21" s="218"/>
-      <c r="AKH21" s="218"/>
-      <c r="AKI21" s="218"/>
-      <c r="AKJ21" s="218"/>
-      <c r="AKK21" s="218"/>
+      <c r="AKG21" s="200"/>
+      <c r="AKH21" s="200"/>
+      <c r="AKI21" s="200"/>
+      <c r="AKJ21" s="200"/>
+      <c r="AKK21" s="200"/>
       <c r="AKL21"/>
       <c r="AKM21"/>
       <c r="AKN21"/>
-      <c r="AKO21" s="218"/>
-      <c r="AKP21" s="218"/>
-      <c r="AKQ21" s="218"/>
-      <c r="AKR21" s="218"/>
-      <c r="AKS21" s="218"/>
+      <c r="AKO21" s="200"/>
+      <c r="AKP21" s="200"/>
+      <c r="AKQ21" s="200"/>
+      <c r="AKR21" s="200"/>
+      <c r="AKS21" s="200"/>
       <c r="AKT21"/>
       <c r="AKU21"/>
       <c r="AKV21"/>
-      <c r="AKW21" s="218"/>
-      <c r="AKX21" s="218"/>
-      <c r="AKY21" s="218"/>
-      <c r="AKZ21" s="218"/>
-      <c r="ALA21" s="218"/>
+      <c r="AKW21" s="200"/>
+      <c r="AKX21" s="200"/>
+      <c r="AKY21" s="200"/>
+      <c r="AKZ21" s="200"/>
+      <c r="ALA21" s="200"/>
       <c r="ALB21"/>
       <c r="ALC21"/>
       <c r="ALD21"/>
-      <c r="ALE21" s="218"/>
-      <c r="ALF21" s="218"/>
-      <c r="ALG21" s="218"/>
-      <c r="ALH21" s="218"/>
-      <c r="ALI21" s="218"/>
+      <c r="ALE21" s="200"/>
+      <c r="ALF21" s="200"/>
+      <c r="ALG21" s="200"/>
+      <c r="ALH21" s="200"/>
+      <c r="ALI21" s="200"/>
       <c r="ALJ21"/>
       <c r="ALK21"/>
       <c r="ALL21"/>
-      <c r="ALM21" s="218"/>
-      <c r="ALN21" s="218"/>
-      <c r="ALO21" s="218"/>
-      <c r="ALP21" s="218"/>
-      <c r="ALQ21" s="218"/>
+      <c r="ALM21" s="200"/>
+      <c r="ALN21" s="200"/>
+      <c r="ALO21" s="200"/>
+      <c r="ALP21" s="200"/>
+      <c r="ALQ21" s="200"/>
       <c r="ALR21"/>
       <c r="ALS21"/>
       <c r="ALT21"/>
-      <c r="ALU21" s="218"/>
-      <c r="ALV21" s="218"/>
-      <c r="ALW21" s="218"/>
+      <c r="ALU21" s="200"/>
+      <c r="ALV21" s="200"/>
+      <c r="ALW21" s="200"/>
     </row>
     <row r="22" spans="1:1011" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="220" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="221"/>
+        <v>156</v>
+      </c>
+      <c r="G22" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="199"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:1011" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="203" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="204"/>
+        <v>160</v>
+      </c>
+      <c r="G23" s="192" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="193"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:1011" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="E24" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="204"/>
+        <v>164</v>
+      </c>
+      <c r="G24" s="192" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="193"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:1011" ht="215.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
       <c r="E25" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="203" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="204"/>
+        <v>164</v>
+      </c>
+      <c r="G25" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="193"/>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:1011" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
       <c r="E26" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="203" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="204"/>
+        <v>170</v>
+      </c>
+      <c r="G26" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="193"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:1011" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
       <c r="E27" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="201" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="202"/>
+        <v>164</v>
+      </c>
+      <c r="G27" s="196" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="197"/>
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:1011" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
       <c r="E28" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="203" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="204"/>
+        <v>176</v>
+      </c>
+      <c r="G28" s="192" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="193"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:1011" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
       <c r="E29" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="203" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="204"/>
+        <v>180</v>
+      </c>
+      <c r="G29" s="192" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="193"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:1011" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
       <c r="E30" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30" s="203" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="204"/>
+        <v>183</v>
+      </c>
+      <c r="G30" s="192" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="193"/>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:1011" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
       <c r="E31" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" s="203" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="204"/>
+        <v>186</v>
+      </c>
+      <c r="G31" s="192" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="193"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:1011" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
       <c r="E32" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="201" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="202"/>
+        <v>189</v>
+      </c>
+      <c r="G32" s="196" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="197"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
       <c r="F33" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="G33" s="201" t="s">
-        <v>196</v>
-      </c>
-      <c r="H33" s="202"/>
+        <v>189</v>
+      </c>
+      <c r="G33" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="197"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C34" s="84"/>
       <c r="D34" s="84"/>
       <c r="E34" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="G34" s="203" t="s">
-        <v>200</v>
-      </c>
-      <c r="H34" s="204"/>
+        <v>196</v>
+      </c>
+      <c r="G34" s="192" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="193"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B35" s="77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
       <c r="E35" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="205" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="206"/>
+        <v>200</v>
+      </c>
+      <c r="G35" s="194" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="195"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="49.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="537">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="T20:U21"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:AA21"/>
+    <mergeCell ref="AB20:AC21"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AI21"/>
+    <mergeCell ref="AJ20:AK21"/>
+    <mergeCell ref="AL20:AN20"/>
+    <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AP20:AQ21"/>
+    <mergeCell ref="AR20:AS21"/>
+    <mergeCell ref="AT20:AV20"/>
+    <mergeCell ref="AW20:AW21"/>
+    <mergeCell ref="AX20:AY21"/>
+    <mergeCell ref="AZ20:BA21"/>
+    <mergeCell ref="BB20:BD20"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="BF20:BG21"/>
+    <mergeCell ref="BH20:BI21"/>
+    <mergeCell ref="BJ20:BL20"/>
+    <mergeCell ref="BM20:BM21"/>
+    <mergeCell ref="BN20:BO21"/>
+    <mergeCell ref="BP20:BQ21"/>
+    <mergeCell ref="BR20:BT20"/>
+    <mergeCell ref="BU20:BU21"/>
+    <mergeCell ref="BV20:BW21"/>
+    <mergeCell ref="BX20:BY21"/>
+    <mergeCell ref="BZ20:CB20"/>
+    <mergeCell ref="CC20:CC21"/>
+    <mergeCell ref="CD20:CE21"/>
+    <mergeCell ref="CF20:CG21"/>
+    <mergeCell ref="CH20:CJ20"/>
+    <mergeCell ref="CK20:CK21"/>
+    <mergeCell ref="CL20:CM21"/>
+    <mergeCell ref="CN20:CO21"/>
+    <mergeCell ref="CP20:CR20"/>
+    <mergeCell ref="CS20:CS21"/>
+    <mergeCell ref="CT20:CU21"/>
+    <mergeCell ref="CV20:CW21"/>
+    <mergeCell ref="CX20:CZ20"/>
+    <mergeCell ref="DA20:DA21"/>
+    <mergeCell ref="DB20:DC21"/>
+    <mergeCell ref="DD20:DE21"/>
+    <mergeCell ref="DF20:DH20"/>
+    <mergeCell ref="DI20:DI21"/>
+    <mergeCell ref="DJ20:DK21"/>
+    <mergeCell ref="DL20:DM21"/>
+    <mergeCell ref="DN20:DP20"/>
+    <mergeCell ref="DQ20:DQ21"/>
+    <mergeCell ref="DR20:DS21"/>
+    <mergeCell ref="DT20:DU21"/>
+    <mergeCell ref="DV20:DX20"/>
+    <mergeCell ref="DY20:DY21"/>
+    <mergeCell ref="DZ20:EA21"/>
+    <mergeCell ref="EB20:EC21"/>
+    <mergeCell ref="ED20:EF20"/>
+    <mergeCell ref="EG20:EG21"/>
+    <mergeCell ref="EH20:EI21"/>
+    <mergeCell ref="EJ20:EK21"/>
+    <mergeCell ref="EL20:EN20"/>
+    <mergeCell ref="EO20:EO21"/>
+    <mergeCell ref="EP20:EQ21"/>
+    <mergeCell ref="ER20:ES21"/>
+    <mergeCell ref="ET20:EV20"/>
+    <mergeCell ref="EW20:EW21"/>
+    <mergeCell ref="EX20:EY21"/>
+    <mergeCell ref="EZ20:FA21"/>
+    <mergeCell ref="FB20:FD20"/>
+    <mergeCell ref="FE20:FE21"/>
+    <mergeCell ref="FF20:FG21"/>
+    <mergeCell ref="FH20:FI21"/>
+    <mergeCell ref="FJ20:FL20"/>
+    <mergeCell ref="FM20:FM21"/>
+    <mergeCell ref="FN20:FO21"/>
+    <mergeCell ref="FP20:FQ21"/>
+    <mergeCell ref="FR20:FT20"/>
+    <mergeCell ref="FU20:FU21"/>
+    <mergeCell ref="FV20:FW21"/>
+    <mergeCell ref="FX20:FY21"/>
+    <mergeCell ref="FZ20:GB20"/>
+    <mergeCell ref="GC20:GC21"/>
+    <mergeCell ref="GD20:GE21"/>
+    <mergeCell ref="GF20:GG21"/>
+    <mergeCell ref="GH20:GJ20"/>
+    <mergeCell ref="GK20:GK21"/>
+    <mergeCell ref="GL20:GM21"/>
+    <mergeCell ref="GN20:GO21"/>
+    <mergeCell ref="GP20:GR20"/>
+    <mergeCell ref="GS20:GS21"/>
+    <mergeCell ref="GT20:GU21"/>
+    <mergeCell ref="GV20:GW21"/>
+    <mergeCell ref="GX20:GZ20"/>
+    <mergeCell ref="HA20:HA21"/>
+    <mergeCell ref="HB20:HC21"/>
+    <mergeCell ref="HD20:HE21"/>
+    <mergeCell ref="HF20:HH20"/>
+    <mergeCell ref="HI20:HI21"/>
+    <mergeCell ref="HJ20:HK21"/>
+    <mergeCell ref="HL20:HM21"/>
+    <mergeCell ref="HN20:HP20"/>
+    <mergeCell ref="HQ20:HQ21"/>
+    <mergeCell ref="HR20:HS21"/>
+    <mergeCell ref="HT20:HU21"/>
+    <mergeCell ref="HV20:HX20"/>
+    <mergeCell ref="HY20:HY21"/>
+    <mergeCell ref="HZ20:IA21"/>
+    <mergeCell ref="IB20:IC21"/>
+    <mergeCell ref="ID20:IF20"/>
+    <mergeCell ref="IG20:IG21"/>
+    <mergeCell ref="IH20:II21"/>
+    <mergeCell ref="IJ20:IK21"/>
+    <mergeCell ref="IL20:IN20"/>
+    <mergeCell ref="IO20:IO21"/>
+    <mergeCell ref="IP20:IQ21"/>
+    <mergeCell ref="IR20:IS21"/>
+    <mergeCell ref="IT20:IV20"/>
+    <mergeCell ref="IW20:IW21"/>
+    <mergeCell ref="IX20:IY21"/>
+    <mergeCell ref="IZ20:JA21"/>
+    <mergeCell ref="JB20:JD20"/>
+    <mergeCell ref="JE20:JE21"/>
+    <mergeCell ref="JF20:JG21"/>
+    <mergeCell ref="JH20:JI21"/>
+    <mergeCell ref="JJ20:JL20"/>
+    <mergeCell ref="JM20:JM21"/>
+    <mergeCell ref="JN20:JO21"/>
+    <mergeCell ref="JP20:JQ21"/>
+    <mergeCell ref="JR20:JT20"/>
+    <mergeCell ref="JU20:JU21"/>
+    <mergeCell ref="JV20:JW21"/>
+    <mergeCell ref="JX20:JY21"/>
+    <mergeCell ref="JZ20:KB20"/>
+    <mergeCell ref="KC20:KC21"/>
+    <mergeCell ref="KD20:KE21"/>
+    <mergeCell ref="KF20:KG21"/>
+    <mergeCell ref="KH20:KJ20"/>
+    <mergeCell ref="KK20:KK21"/>
+    <mergeCell ref="KL20:KM21"/>
+    <mergeCell ref="KN20:KO21"/>
+    <mergeCell ref="KP20:KR20"/>
+    <mergeCell ref="KS20:KS21"/>
+    <mergeCell ref="KT20:KU21"/>
+    <mergeCell ref="KV20:KW21"/>
+    <mergeCell ref="KX20:KZ20"/>
+    <mergeCell ref="LA20:LA21"/>
+    <mergeCell ref="LB20:LC21"/>
+    <mergeCell ref="LD20:LE21"/>
+    <mergeCell ref="LF20:LH20"/>
+    <mergeCell ref="LI20:LI21"/>
+    <mergeCell ref="LJ20:LK21"/>
+    <mergeCell ref="LL20:LM21"/>
+    <mergeCell ref="LN20:LP20"/>
+    <mergeCell ref="LQ20:LQ21"/>
+    <mergeCell ref="LR20:LS21"/>
+    <mergeCell ref="LT20:LU21"/>
+    <mergeCell ref="LV20:LX20"/>
+    <mergeCell ref="LY20:LY21"/>
+    <mergeCell ref="LZ20:MA21"/>
+    <mergeCell ref="MB20:MC21"/>
+    <mergeCell ref="MD20:MF20"/>
+    <mergeCell ref="MG20:MG21"/>
+    <mergeCell ref="MH20:MI21"/>
+    <mergeCell ref="MJ20:MK21"/>
+    <mergeCell ref="ML20:MN20"/>
+    <mergeCell ref="MO20:MO21"/>
+    <mergeCell ref="MP20:MQ21"/>
+    <mergeCell ref="MR20:MS21"/>
+    <mergeCell ref="MT20:MV20"/>
+    <mergeCell ref="MW20:MW21"/>
+    <mergeCell ref="MX20:MY21"/>
+    <mergeCell ref="MZ20:NA21"/>
+    <mergeCell ref="NB20:ND20"/>
+    <mergeCell ref="NE20:NE21"/>
+    <mergeCell ref="NF20:NG21"/>
+    <mergeCell ref="NH20:NI21"/>
+    <mergeCell ref="NJ20:NL20"/>
+    <mergeCell ref="NM20:NM21"/>
+    <mergeCell ref="NN20:NO21"/>
+    <mergeCell ref="NP20:NQ21"/>
+    <mergeCell ref="NR20:NT20"/>
+    <mergeCell ref="NU20:NU21"/>
+    <mergeCell ref="NV20:NW21"/>
+    <mergeCell ref="NX20:NY21"/>
+    <mergeCell ref="NZ20:OB20"/>
+    <mergeCell ref="OC20:OC21"/>
+    <mergeCell ref="OD20:OE21"/>
+    <mergeCell ref="OF20:OG21"/>
+    <mergeCell ref="OH20:OJ20"/>
+    <mergeCell ref="OK20:OK21"/>
+    <mergeCell ref="OL20:OM21"/>
+    <mergeCell ref="ON20:OO21"/>
+    <mergeCell ref="OP20:OR20"/>
+    <mergeCell ref="OS20:OS21"/>
+    <mergeCell ref="OT20:OU21"/>
+    <mergeCell ref="OV20:OW21"/>
+    <mergeCell ref="OX20:OZ20"/>
+    <mergeCell ref="PA20:PA21"/>
+    <mergeCell ref="PB20:PC21"/>
+    <mergeCell ref="PD20:PE21"/>
+    <mergeCell ref="PF20:PH20"/>
+    <mergeCell ref="PI20:PI21"/>
+    <mergeCell ref="PJ20:PK21"/>
+    <mergeCell ref="PL20:PM21"/>
+    <mergeCell ref="PN20:PP20"/>
+    <mergeCell ref="PQ20:PQ21"/>
+    <mergeCell ref="PR20:PS21"/>
+    <mergeCell ref="PT20:PU21"/>
+    <mergeCell ref="PV20:PX20"/>
+    <mergeCell ref="PY20:PY21"/>
+    <mergeCell ref="PZ20:QA21"/>
+    <mergeCell ref="QB20:QC21"/>
+    <mergeCell ref="QD20:QF20"/>
+    <mergeCell ref="QG20:QG21"/>
+    <mergeCell ref="QH20:QI21"/>
+    <mergeCell ref="QJ20:QK21"/>
+    <mergeCell ref="QL20:QN20"/>
+    <mergeCell ref="QO20:QO21"/>
+    <mergeCell ref="QP20:QQ21"/>
+    <mergeCell ref="QR20:QS21"/>
+    <mergeCell ref="QT20:QV20"/>
+    <mergeCell ref="QW20:QW21"/>
+    <mergeCell ref="QX20:QY21"/>
+    <mergeCell ref="QZ20:RA21"/>
+    <mergeCell ref="RB20:RD20"/>
+    <mergeCell ref="RE20:RE21"/>
+    <mergeCell ref="RF20:RG21"/>
+    <mergeCell ref="RH20:RI21"/>
+    <mergeCell ref="RJ20:RL20"/>
+    <mergeCell ref="RM20:RM21"/>
+    <mergeCell ref="RN20:RO21"/>
+    <mergeCell ref="RP20:RQ21"/>
+    <mergeCell ref="RR20:RT20"/>
+    <mergeCell ref="RU20:RU21"/>
+    <mergeCell ref="RV20:RW21"/>
+    <mergeCell ref="RX20:RY21"/>
+    <mergeCell ref="RZ20:SB20"/>
+    <mergeCell ref="SC20:SC21"/>
+    <mergeCell ref="SD20:SE21"/>
+    <mergeCell ref="SF20:SG21"/>
+    <mergeCell ref="SH20:SJ20"/>
+    <mergeCell ref="SK20:SK21"/>
+    <mergeCell ref="SL20:SM21"/>
+    <mergeCell ref="SN20:SO21"/>
+    <mergeCell ref="SP20:SR20"/>
+    <mergeCell ref="SS20:SS21"/>
+    <mergeCell ref="ST20:SU21"/>
+    <mergeCell ref="SV20:SW21"/>
+    <mergeCell ref="SX20:SZ20"/>
+    <mergeCell ref="TA20:TA21"/>
+    <mergeCell ref="TB20:TC21"/>
+    <mergeCell ref="TD20:TE21"/>
+    <mergeCell ref="TF20:TH20"/>
+    <mergeCell ref="TI20:TI21"/>
+    <mergeCell ref="TJ20:TK21"/>
+    <mergeCell ref="TL20:TM21"/>
+    <mergeCell ref="TN20:TP20"/>
+    <mergeCell ref="TQ20:TQ21"/>
+    <mergeCell ref="TR20:TS21"/>
+    <mergeCell ref="TT20:TU21"/>
+    <mergeCell ref="TV20:TX20"/>
+    <mergeCell ref="TY20:TY21"/>
+    <mergeCell ref="TZ20:UA21"/>
+    <mergeCell ref="UB20:UC21"/>
+    <mergeCell ref="UD20:UF20"/>
+    <mergeCell ref="UG20:UG21"/>
+    <mergeCell ref="UH20:UI21"/>
+    <mergeCell ref="UJ20:UK21"/>
+    <mergeCell ref="UL20:UN20"/>
+    <mergeCell ref="UO20:UO21"/>
+    <mergeCell ref="UP20:UQ21"/>
+    <mergeCell ref="UR20:US21"/>
+    <mergeCell ref="UT20:UV20"/>
+    <mergeCell ref="UW20:UW21"/>
+    <mergeCell ref="UX20:UY21"/>
+    <mergeCell ref="UZ20:VA21"/>
+    <mergeCell ref="VB20:VD20"/>
+    <mergeCell ref="VE20:VE21"/>
+    <mergeCell ref="VF20:VG21"/>
+    <mergeCell ref="VH20:VI21"/>
+    <mergeCell ref="VJ20:VL20"/>
+    <mergeCell ref="VM20:VM21"/>
+    <mergeCell ref="VN20:VO21"/>
+    <mergeCell ref="VP20:VQ21"/>
+    <mergeCell ref="VR20:VT20"/>
+    <mergeCell ref="VU20:VU21"/>
+    <mergeCell ref="VV20:VW21"/>
+    <mergeCell ref="VX20:VY21"/>
+    <mergeCell ref="VZ20:WB20"/>
+    <mergeCell ref="WC20:WC21"/>
+    <mergeCell ref="WD20:WE21"/>
+    <mergeCell ref="WF20:WG21"/>
+    <mergeCell ref="WH20:WJ20"/>
+    <mergeCell ref="WK20:WK21"/>
+    <mergeCell ref="WL20:WM21"/>
+    <mergeCell ref="WN20:WO21"/>
+    <mergeCell ref="WP20:WR20"/>
+    <mergeCell ref="WS20:WS21"/>
+    <mergeCell ref="WT20:WU21"/>
+    <mergeCell ref="WV20:WW21"/>
+    <mergeCell ref="WX20:WZ20"/>
+    <mergeCell ref="XA20:XA21"/>
+    <mergeCell ref="XB20:XC21"/>
+    <mergeCell ref="XD20:XE21"/>
+    <mergeCell ref="XF20:XH20"/>
+    <mergeCell ref="XI20:XI21"/>
+    <mergeCell ref="XJ20:XK21"/>
+    <mergeCell ref="XL20:XM21"/>
+    <mergeCell ref="XN20:XP20"/>
+    <mergeCell ref="XQ20:XQ21"/>
+    <mergeCell ref="XR20:XS21"/>
+    <mergeCell ref="XT20:XU21"/>
+    <mergeCell ref="XV20:XX20"/>
+    <mergeCell ref="XY20:XY21"/>
+    <mergeCell ref="XZ20:YA21"/>
+    <mergeCell ref="YB20:YC21"/>
+    <mergeCell ref="YD20:YF20"/>
+    <mergeCell ref="YG20:YG21"/>
+    <mergeCell ref="YH20:YI21"/>
+    <mergeCell ref="YJ20:YK21"/>
+    <mergeCell ref="YL20:YN20"/>
+    <mergeCell ref="YO20:YO21"/>
+    <mergeCell ref="YP20:YQ21"/>
+    <mergeCell ref="YR20:YS21"/>
+    <mergeCell ref="YT20:YV20"/>
+    <mergeCell ref="YW20:YW21"/>
+    <mergeCell ref="YX20:YY21"/>
+    <mergeCell ref="YZ20:ZA21"/>
+    <mergeCell ref="ZB20:ZD20"/>
+    <mergeCell ref="ZE20:ZE21"/>
+    <mergeCell ref="ZF20:ZG21"/>
+    <mergeCell ref="ZH20:ZI21"/>
+    <mergeCell ref="ZJ20:ZL20"/>
+    <mergeCell ref="ZM20:ZM21"/>
+    <mergeCell ref="ZN20:ZO21"/>
+    <mergeCell ref="ZP20:ZQ21"/>
+    <mergeCell ref="ZR20:ZT20"/>
+    <mergeCell ref="ZU20:ZU21"/>
+    <mergeCell ref="ZV20:ZW21"/>
+    <mergeCell ref="ZX20:ZY21"/>
+    <mergeCell ref="ZZ20:AAB20"/>
+    <mergeCell ref="AAC20:AAC21"/>
+    <mergeCell ref="AAD20:AAE21"/>
+    <mergeCell ref="AAF20:AAG21"/>
+    <mergeCell ref="AAH20:AAJ20"/>
+    <mergeCell ref="AAK20:AAK21"/>
+    <mergeCell ref="AAL20:AAM21"/>
+    <mergeCell ref="AAN20:AAO21"/>
+    <mergeCell ref="AAP20:AAR20"/>
+    <mergeCell ref="AAS20:AAS21"/>
+    <mergeCell ref="AAT20:AAU21"/>
+    <mergeCell ref="AAV20:AAW21"/>
+    <mergeCell ref="AAX20:AAZ20"/>
+    <mergeCell ref="ABA20:ABA21"/>
+    <mergeCell ref="ABB20:ABC21"/>
+    <mergeCell ref="ABD20:ABE21"/>
+    <mergeCell ref="ABF20:ABH20"/>
+    <mergeCell ref="ABI20:ABI21"/>
+    <mergeCell ref="ABJ20:ABK21"/>
+    <mergeCell ref="ABL20:ABM21"/>
+    <mergeCell ref="ABN20:ABP20"/>
+    <mergeCell ref="ABQ20:ABQ21"/>
+    <mergeCell ref="ABR20:ABS21"/>
+    <mergeCell ref="ABT20:ABU21"/>
+    <mergeCell ref="ABV20:ABX20"/>
+    <mergeCell ref="ABY20:ABY21"/>
+    <mergeCell ref="ABZ20:ACA21"/>
+    <mergeCell ref="ACB20:ACC21"/>
+    <mergeCell ref="ACD20:ACF20"/>
+    <mergeCell ref="ACG20:ACG21"/>
+    <mergeCell ref="ACH20:ACI21"/>
+    <mergeCell ref="ACJ20:ACK21"/>
+    <mergeCell ref="ACL20:ACN20"/>
+    <mergeCell ref="ACO20:ACO21"/>
+    <mergeCell ref="ACP20:ACQ21"/>
+    <mergeCell ref="ACR20:ACS21"/>
+    <mergeCell ref="ACT20:ACV20"/>
+    <mergeCell ref="ACW20:ACW21"/>
+    <mergeCell ref="ACX20:ACY21"/>
+    <mergeCell ref="ACZ20:ADA21"/>
+    <mergeCell ref="ADB20:ADD20"/>
+    <mergeCell ref="ADE20:ADE21"/>
+    <mergeCell ref="ADF20:ADG21"/>
+    <mergeCell ref="ADH20:ADI21"/>
+    <mergeCell ref="ADJ20:ADL20"/>
+    <mergeCell ref="ADM20:ADM21"/>
+    <mergeCell ref="ADN20:ADO21"/>
+    <mergeCell ref="ADP20:ADQ21"/>
+    <mergeCell ref="ADR20:ADT20"/>
+    <mergeCell ref="ADU20:ADU21"/>
+    <mergeCell ref="ADV20:ADW21"/>
+    <mergeCell ref="ADX20:ADY21"/>
+    <mergeCell ref="ADZ20:AEB20"/>
+    <mergeCell ref="AEC20:AEC21"/>
+    <mergeCell ref="AED20:AEE21"/>
+    <mergeCell ref="AEF20:AEG21"/>
+    <mergeCell ref="AEH20:AEJ20"/>
+    <mergeCell ref="AEK20:AEK21"/>
+    <mergeCell ref="AEL20:AEM21"/>
+    <mergeCell ref="AEN20:AEO21"/>
+    <mergeCell ref="AEP20:AER20"/>
+    <mergeCell ref="AES20:AES21"/>
+    <mergeCell ref="AET20:AEU21"/>
+    <mergeCell ref="AEV20:AEW21"/>
+    <mergeCell ref="AEX20:AEZ20"/>
+    <mergeCell ref="AFA20:AFA21"/>
+    <mergeCell ref="AFB20:AFC21"/>
+    <mergeCell ref="AFD20:AFE21"/>
+    <mergeCell ref="AFF20:AFH20"/>
+    <mergeCell ref="AFI20:AFI21"/>
+    <mergeCell ref="AFJ20:AFK21"/>
+    <mergeCell ref="AFL20:AFM21"/>
+    <mergeCell ref="AFN20:AFP20"/>
+    <mergeCell ref="AFQ20:AFQ21"/>
+    <mergeCell ref="AFR20:AFS21"/>
+    <mergeCell ref="AFT20:AFU21"/>
+    <mergeCell ref="AFV20:AFX20"/>
+    <mergeCell ref="AFY20:AFY21"/>
+    <mergeCell ref="AFZ20:AGA21"/>
+    <mergeCell ref="AGB20:AGC21"/>
+    <mergeCell ref="AGD20:AGF20"/>
+    <mergeCell ref="AGG20:AGG21"/>
+    <mergeCell ref="AGH20:AGI21"/>
+    <mergeCell ref="AGJ20:AGK21"/>
+    <mergeCell ref="AGL20:AGN20"/>
+    <mergeCell ref="AGO20:AGO21"/>
+    <mergeCell ref="AGP20:AGQ21"/>
+    <mergeCell ref="AGR20:AGS21"/>
+    <mergeCell ref="AGT20:AGV20"/>
+    <mergeCell ref="AGW20:AGW21"/>
+    <mergeCell ref="AGX20:AGY21"/>
+    <mergeCell ref="AGZ20:AHA21"/>
+    <mergeCell ref="AHB20:AHD20"/>
+    <mergeCell ref="AHE20:AHE21"/>
+    <mergeCell ref="AHF20:AHG21"/>
+    <mergeCell ref="AHH20:AHI21"/>
+    <mergeCell ref="AHJ20:AHL20"/>
+    <mergeCell ref="AHM20:AHM21"/>
+    <mergeCell ref="AHN20:AHO21"/>
+    <mergeCell ref="AHP20:AHQ21"/>
+    <mergeCell ref="AHR20:AHT20"/>
+    <mergeCell ref="AHU20:AHU21"/>
+    <mergeCell ref="AHV20:AHW21"/>
+    <mergeCell ref="AHX20:AHY21"/>
+    <mergeCell ref="AHZ20:AIB20"/>
+    <mergeCell ref="AIC20:AIC21"/>
+    <mergeCell ref="AID20:AIE21"/>
+    <mergeCell ref="AIF20:AIG21"/>
+    <mergeCell ref="AIH20:AIJ20"/>
+    <mergeCell ref="AIK20:AIK21"/>
+    <mergeCell ref="AIL20:AIM21"/>
+    <mergeCell ref="AIN20:AIO21"/>
+    <mergeCell ref="AIP20:AIR20"/>
+    <mergeCell ref="AIS20:AIS21"/>
+    <mergeCell ref="AIT20:AIU21"/>
+    <mergeCell ref="AIV20:AIW21"/>
+    <mergeCell ref="AIX20:AIZ20"/>
+    <mergeCell ref="AJA20:AJA21"/>
+    <mergeCell ref="AJB20:AJC21"/>
+    <mergeCell ref="AJD20:AJE21"/>
+    <mergeCell ref="AJF20:AJH20"/>
+    <mergeCell ref="AJI20:AJI21"/>
+    <mergeCell ref="AJJ20:AJK21"/>
+    <mergeCell ref="AJL20:AJM21"/>
+    <mergeCell ref="AJN20:AJP20"/>
+    <mergeCell ref="AJQ20:AJQ21"/>
+    <mergeCell ref="AJR20:AJS21"/>
+    <mergeCell ref="AJT20:AJU21"/>
+    <mergeCell ref="AJV20:AJX20"/>
+    <mergeCell ref="AJY20:AJY21"/>
+    <mergeCell ref="AJZ20:AKA21"/>
+    <mergeCell ref="AKB20:AKC21"/>
+    <mergeCell ref="AKD20:AKF20"/>
+    <mergeCell ref="AKG20:AKG21"/>
+    <mergeCell ref="AKH20:AKI21"/>
+    <mergeCell ref="AKJ20:AKK21"/>
+    <mergeCell ref="AKL20:AKN20"/>
+    <mergeCell ref="AKO20:AKO21"/>
+    <mergeCell ref="AKP20:AKQ21"/>
+    <mergeCell ref="AKR20:AKS21"/>
+    <mergeCell ref="AKT20:AKV20"/>
+    <mergeCell ref="AKW20:AKW21"/>
+    <mergeCell ref="AKX20:AKY21"/>
+    <mergeCell ref="AKZ20:ALA21"/>
+    <mergeCell ref="ALB20:ALD20"/>
+    <mergeCell ref="ALE20:ALE21"/>
+    <mergeCell ref="ALF20:ALG21"/>
+    <mergeCell ref="ALH20:ALI21"/>
+    <mergeCell ref="ALJ20:ALL20"/>
+    <mergeCell ref="ALM20:ALM21"/>
+    <mergeCell ref="ALN20:ALO21"/>
+    <mergeCell ref="ALP20:ALQ21"/>
+    <mergeCell ref="ALR20:ALT20"/>
+    <mergeCell ref="ALU20:ALU21"/>
+    <mergeCell ref="ALV20:ALW21"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G14:H14"/>
@@ -9224,528 +9689,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="ALF20:ALG21"/>
-    <mergeCell ref="ALH20:ALI21"/>
-    <mergeCell ref="ALJ20:ALL20"/>
-    <mergeCell ref="ALM20:ALM21"/>
-    <mergeCell ref="ALN20:ALO21"/>
-    <mergeCell ref="ALP20:ALQ21"/>
-    <mergeCell ref="ALR20:ALT20"/>
-    <mergeCell ref="ALU20:ALU21"/>
-    <mergeCell ref="ALV20:ALW21"/>
-    <mergeCell ref="AKO20:AKO21"/>
-    <mergeCell ref="AKP20:AKQ21"/>
-    <mergeCell ref="AKR20:AKS21"/>
-    <mergeCell ref="AKT20:AKV20"/>
-    <mergeCell ref="AKW20:AKW21"/>
-    <mergeCell ref="AKX20:AKY21"/>
-    <mergeCell ref="AKZ20:ALA21"/>
-    <mergeCell ref="ALB20:ALD20"/>
-    <mergeCell ref="ALE20:ALE21"/>
-    <mergeCell ref="AJV20:AJX20"/>
-    <mergeCell ref="AJY20:AJY21"/>
-    <mergeCell ref="AJZ20:AKA21"/>
-    <mergeCell ref="AKB20:AKC21"/>
-    <mergeCell ref="AKD20:AKF20"/>
-    <mergeCell ref="AKG20:AKG21"/>
-    <mergeCell ref="AKH20:AKI21"/>
-    <mergeCell ref="AKJ20:AKK21"/>
-    <mergeCell ref="AKL20:AKN20"/>
-    <mergeCell ref="AJD20:AJE21"/>
-    <mergeCell ref="AJF20:AJH20"/>
-    <mergeCell ref="AJI20:AJI21"/>
-    <mergeCell ref="AJJ20:AJK21"/>
-    <mergeCell ref="AJL20:AJM21"/>
-    <mergeCell ref="AJN20:AJP20"/>
-    <mergeCell ref="AJQ20:AJQ21"/>
-    <mergeCell ref="AJR20:AJS21"/>
-    <mergeCell ref="AJT20:AJU21"/>
-    <mergeCell ref="AIL20:AIM21"/>
-    <mergeCell ref="AIN20:AIO21"/>
-    <mergeCell ref="AIP20:AIR20"/>
-    <mergeCell ref="AIS20:AIS21"/>
-    <mergeCell ref="AIT20:AIU21"/>
-    <mergeCell ref="AIV20:AIW21"/>
-    <mergeCell ref="AIX20:AIZ20"/>
-    <mergeCell ref="AJA20:AJA21"/>
-    <mergeCell ref="AJB20:AJC21"/>
-    <mergeCell ref="AHU20:AHU21"/>
-    <mergeCell ref="AHV20:AHW21"/>
-    <mergeCell ref="AHX20:AHY21"/>
-    <mergeCell ref="AHZ20:AIB20"/>
-    <mergeCell ref="AIC20:AIC21"/>
-    <mergeCell ref="AID20:AIE21"/>
-    <mergeCell ref="AIF20:AIG21"/>
-    <mergeCell ref="AIH20:AIJ20"/>
-    <mergeCell ref="AIK20:AIK21"/>
-    <mergeCell ref="AHB20:AHD20"/>
-    <mergeCell ref="AHE20:AHE21"/>
-    <mergeCell ref="AHF20:AHG21"/>
-    <mergeCell ref="AHH20:AHI21"/>
-    <mergeCell ref="AHJ20:AHL20"/>
-    <mergeCell ref="AHM20:AHM21"/>
-    <mergeCell ref="AHN20:AHO21"/>
-    <mergeCell ref="AHP20:AHQ21"/>
-    <mergeCell ref="AHR20:AHT20"/>
-    <mergeCell ref="AGJ20:AGK21"/>
-    <mergeCell ref="AGL20:AGN20"/>
-    <mergeCell ref="AGO20:AGO21"/>
-    <mergeCell ref="AGP20:AGQ21"/>
-    <mergeCell ref="AGR20:AGS21"/>
-    <mergeCell ref="AGT20:AGV20"/>
-    <mergeCell ref="AGW20:AGW21"/>
-    <mergeCell ref="AGX20:AGY21"/>
-    <mergeCell ref="AGZ20:AHA21"/>
-    <mergeCell ref="AFR20:AFS21"/>
-    <mergeCell ref="AFT20:AFU21"/>
-    <mergeCell ref="AFV20:AFX20"/>
-    <mergeCell ref="AFY20:AFY21"/>
-    <mergeCell ref="AFZ20:AGA21"/>
-    <mergeCell ref="AGB20:AGC21"/>
-    <mergeCell ref="AGD20:AGF20"/>
-    <mergeCell ref="AGG20:AGG21"/>
-    <mergeCell ref="AGH20:AGI21"/>
-    <mergeCell ref="AFA20:AFA21"/>
-    <mergeCell ref="AFB20:AFC21"/>
-    <mergeCell ref="AFD20:AFE21"/>
-    <mergeCell ref="AFF20:AFH20"/>
-    <mergeCell ref="AFI20:AFI21"/>
-    <mergeCell ref="AFJ20:AFK21"/>
-    <mergeCell ref="AFL20:AFM21"/>
-    <mergeCell ref="AFN20:AFP20"/>
-    <mergeCell ref="AFQ20:AFQ21"/>
-    <mergeCell ref="AEH20:AEJ20"/>
-    <mergeCell ref="AEK20:AEK21"/>
-    <mergeCell ref="AEL20:AEM21"/>
-    <mergeCell ref="AEN20:AEO21"/>
-    <mergeCell ref="AEP20:AER20"/>
-    <mergeCell ref="AES20:AES21"/>
-    <mergeCell ref="AET20:AEU21"/>
-    <mergeCell ref="AEV20:AEW21"/>
-    <mergeCell ref="AEX20:AEZ20"/>
-    <mergeCell ref="ADP20:ADQ21"/>
-    <mergeCell ref="ADR20:ADT20"/>
-    <mergeCell ref="ADU20:ADU21"/>
-    <mergeCell ref="ADV20:ADW21"/>
-    <mergeCell ref="ADX20:ADY21"/>
-    <mergeCell ref="ADZ20:AEB20"/>
-    <mergeCell ref="AEC20:AEC21"/>
-    <mergeCell ref="AED20:AEE21"/>
-    <mergeCell ref="AEF20:AEG21"/>
-    <mergeCell ref="ACX20:ACY21"/>
-    <mergeCell ref="ACZ20:ADA21"/>
-    <mergeCell ref="ADB20:ADD20"/>
-    <mergeCell ref="ADE20:ADE21"/>
-    <mergeCell ref="ADF20:ADG21"/>
-    <mergeCell ref="ADH20:ADI21"/>
-    <mergeCell ref="ADJ20:ADL20"/>
-    <mergeCell ref="ADM20:ADM21"/>
-    <mergeCell ref="ADN20:ADO21"/>
-    <mergeCell ref="ACG20:ACG21"/>
-    <mergeCell ref="ACH20:ACI21"/>
-    <mergeCell ref="ACJ20:ACK21"/>
-    <mergeCell ref="ACL20:ACN20"/>
-    <mergeCell ref="ACO20:ACO21"/>
-    <mergeCell ref="ACP20:ACQ21"/>
-    <mergeCell ref="ACR20:ACS21"/>
-    <mergeCell ref="ACT20:ACV20"/>
-    <mergeCell ref="ACW20:ACW21"/>
-    <mergeCell ref="ABN20:ABP20"/>
-    <mergeCell ref="ABQ20:ABQ21"/>
-    <mergeCell ref="ABR20:ABS21"/>
-    <mergeCell ref="ABT20:ABU21"/>
-    <mergeCell ref="ABV20:ABX20"/>
-    <mergeCell ref="ABY20:ABY21"/>
-    <mergeCell ref="ABZ20:ACA21"/>
-    <mergeCell ref="ACB20:ACC21"/>
-    <mergeCell ref="ACD20:ACF20"/>
-    <mergeCell ref="AAV20:AAW21"/>
-    <mergeCell ref="AAX20:AAZ20"/>
-    <mergeCell ref="ABA20:ABA21"/>
-    <mergeCell ref="ABB20:ABC21"/>
-    <mergeCell ref="ABD20:ABE21"/>
-    <mergeCell ref="ABF20:ABH20"/>
-    <mergeCell ref="ABI20:ABI21"/>
-    <mergeCell ref="ABJ20:ABK21"/>
-    <mergeCell ref="ABL20:ABM21"/>
-    <mergeCell ref="AAD20:AAE21"/>
-    <mergeCell ref="AAF20:AAG21"/>
-    <mergeCell ref="AAH20:AAJ20"/>
-    <mergeCell ref="AAK20:AAK21"/>
-    <mergeCell ref="AAL20:AAM21"/>
-    <mergeCell ref="AAN20:AAO21"/>
-    <mergeCell ref="AAP20:AAR20"/>
-    <mergeCell ref="AAS20:AAS21"/>
-    <mergeCell ref="AAT20:AAU21"/>
-    <mergeCell ref="ZM20:ZM21"/>
-    <mergeCell ref="ZN20:ZO21"/>
-    <mergeCell ref="ZP20:ZQ21"/>
-    <mergeCell ref="ZR20:ZT20"/>
-    <mergeCell ref="ZU20:ZU21"/>
-    <mergeCell ref="ZV20:ZW21"/>
-    <mergeCell ref="ZX20:ZY21"/>
-    <mergeCell ref="ZZ20:AAB20"/>
-    <mergeCell ref="AAC20:AAC21"/>
-    <mergeCell ref="YT20:YV20"/>
-    <mergeCell ref="YW20:YW21"/>
-    <mergeCell ref="YX20:YY21"/>
-    <mergeCell ref="YZ20:ZA21"/>
-    <mergeCell ref="ZB20:ZD20"/>
-    <mergeCell ref="ZE20:ZE21"/>
-    <mergeCell ref="ZF20:ZG21"/>
-    <mergeCell ref="ZH20:ZI21"/>
-    <mergeCell ref="ZJ20:ZL20"/>
-    <mergeCell ref="YB20:YC21"/>
-    <mergeCell ref="YD20:YF20"/>
-    <mergeCell ref="YG20:YG21"/>
-    <mergeCell ref="YH20:YI21"/>
-    <mergeCell ref="YJ20:YK21"/>
-    <mergeCell ref="YL20:YN20"/>
-    <mergeCell ref="YO20:YO21"/>
-    <mergeCell ref="YP20:YQ21"/>
-    <mergeCell ref="YR20:YS21"/>
-    <mergeCell ref="XJ20:XK21"/>
-    <mergeCell ref="XL20:XM21"/>
-    <mergeCell ref="XN20:XP20"/>
-    <mergeCell ref="XQ20:XQ21"/>
-    <mergeCell ref="XR20:XS21"/>
-    <mergeCell ref="XT20:XU21"/>
-    <mergeCell ref="XV20:XX20"/>
-    <mergeCell ref="XY20:XY21"/>
-    <mergeCell ref="XZ20:YA21"/>
-    <mergeCell ref="WS20:WS21"/>
-    <mergeCell ref="WT20:WU21"/>
-    <mergeCell ref="WV20:WW21"/>
-    <mergeCell ref="WX20:WZ20"/>
-    <mergeCell ref="XA20:XA21"/>
-    <mergeCell ref="XB20:XC21"/>
-    <mergeCell ref="XD20:XE21"/>
-    <mergeCell ref="XF20:XH20"/>
-    <mergeCell ref="XI20:XI21"/>
-    <mergeCell ref="VZ20:WB20"/>
-    <mergeCell ref="WC20:WC21"/>
-    <mergeCell ref="WD20:WE21"/>
-    <mergeCell ref="WF20:WG21"/>
-    <mergeCell ref="WH20:WJ20"/>
-    <mergeCell ref="WK20:WK21"/>
-    <mergeCell ref="WL20:WM21"/>
-    <mergeCell ref="WN20:WO21"/>
-    <mergeCell ref="WP20:WR20"/>
-    <mergeCell ref="VH20:VI21"/>
-    <mergeCell ref="VJ20:VL20"/>
-    <mergeCell ref="VM20:VM21"/>
-    <mergeCell ref="VN20:VO21"/>
-    <mergeCell ref="VP20:VQ21"/>
-    <mergeCell ref="VR20:VT20"/>
-    <mergeCell ref="VU20:VU21"/>
-    <mergeCell ref="VV20:VW21"/>
-    <mergeCell ref="VX20:VY21"/>
-    <mergeCell ref="UP20:UQ21"/>
-    <mergeCell ref="UR20:US21"/>
-    <mergeCell ref="UT20:UV20"/>
-    <mergeCell ref="UW20:UW21"/>
-    <mergeCell ref="UX20:UY21"/>
-    <mergeCell ref="UZ20:VA21"/>
-    <mergeCell ref="VB20:VD20"/>
-    <mergeCell ref="VE20:VE21"/>
-    <mergeCell ref="VF20:VG21"/>
-    <mergeCell ref="TY20:TY21"/>
-    <mergeCell ref="TZ20:UA21"/>
-    <mergeCell ref="UB20:UC21"/>
-    <mergeCell ref="UD20:UF20"/>
-    <mergeCell ref="UG20:UG21"/>
-    <mergeCell ref="UH20:UI21"/>
-    <mergeCell ref="UJ20:UK21"/>
-    <mergeCell ref="UL20:UN20"/>
-    <mergeCell ref="UO20:UO21"/>
-    <mergeCell ref="TF20:TH20"/>
-    <mergeCell ref="TI20:TI21"/>
-    <mergeCell ref="TJ20:TK21"/>
-    <mergeCell ref="TL20:TM21"/>
-    <mergeCell ref="TN20:TP20"/>
-    <mergeCell ref="TQ20:TQ21"/>
-    <mergeCell ref="TR20:TS21"/>
-    <mergeCell ref="TT20:TU21"/>
-    <mergeCell ref="TV20:TX20"/>
-    <mergeCell ref="SN20:SO21"/>
-    <mergeCell ref="SP20:SR20"/>
-    <mergeCell ref="SS20:SS21"/>
-    <mergeCell ref="ST20:SU21"/>
-    <mergeCell ref="SV20:SW21"/>
-    <mergeCell ref="SX20:SZ20"/>
-    <mergeCell ref="TA20:TA21"/>
-    <mergeCell ref="TB20:TC21"/>
-    <mergeCell ref="TD20:TE21"/>
-    <mergeCell ref="RV20:RW21"/>
-    <mergeCell ref="RX20:RY21"/>
-    <mergeCell ref="RZ20:SB20"/>
-    <mergeCell ref="SC20:SC21"/>
-    <mergeCell ref="SD20:SE21"/>
-    <mergeCell ref="SF20:SG21"/>
-    <mergeCell ref="SH20:SJ20"/>
-    <mergeCell ref="SK20:SK21"/>
-    <mergeCell ref="SL20:SM21"/>
-    <mergeCell ref="RE20:RE21"/>
-    <mergeCell ref="RF20:RG21"/>
-    <mergeCell ref="RH20:RI21"/>
-    <mergeCell ref="RJ20:RL20"/>
-    <mergeCell ref="RM20:RM21"/>
-    <mergeCell ref="RN20:RO21"/>
-    <mergeCell ref="RP20:RQ21"/>
-    <mergeCell ref="RR20:RT20"/>
-    <mergeCell ref="RU20:RU21"/>
-    <mergeCell ref="QL20:QN20"/>
-    <mergeCell ref="QO20:QO21"/>
-    <mergeCell ref="QP20:QQ21"/>
-    <mergeCell ref="QR20:QS21"/>
-    <mergeCell ref="QT20:QV20"/>
-    <mergeCell ref="QW20:QW21"/>
-    <mergeCell ref="QX20:QY21"/>
-    <mergeCell ref="QZ20:RA21"/>
-    <mergeCell ref="RB20:RD20"/>
-    <mergeCell ref="PT20:PU21"/>
-    <mergeCell ref="PV20:PX20"/>
-    <mergeCell ref="PY20:PY21"/>
-    <mergeCell ref="PZ20:QA21"/>
-    <mergeCell ref="QB20:QC21"/>
-    <mergeCell ref="QD20:QF20"/>
-    <mergeCell ref="QG20:QG21"/>
-    <mergeCell ref="QH20:QI21"/>
-    <mergeCell ref="QJ20:QK21"/>
-    <mergeCell ref="PB20:PC21"/>
-    <mergeCell ref="PD20:PE21"/>
-    <mergeCell ref="PF20:PH20"/>
-    <mergeCell ref="PI20:PI21"/>
-    <mergeCell ref="PJ20:PK21"/>
-    <mergeCell ref="PL20:PM21"/>
-    <mergeCell ref="PN20:PP20"/>
-    <mergeCell ref="PQ20:PQ21"/>
-    <mergeCell ref="PR20:PS21"/>
-    <mergeCell ref="OK20:OK21"/>
-    <mergeCell ref="OL20:OM21"/>
-    <mergeCell ref="ON20:OO21"/>
-    <mergeCell ref="OP20:OR20"/>
-    <mergeCell ref="OS20:OS21"/>
-    <mergeCell ref="OT20:OU21"/>
-    <mergeCell ref="OV20:OW21"/>
-    <mergeCell ref="OX20:OZ20"/>
-    <mergeCell ref="PA20:PA21"/>
-    <mergeCell ref="NR20:NT20"/>
-    <mergeCell ref="NU20:NU21"/>
-    <mergeCell ref="NV20:NW21"/>
-    <mergeCell ref="NX20:NY21"/>
-    <mergeCell ref="NZ20:OB20"/>
-    <mergeCell ref="OC20:OC21"/>
-    <mergeCell ref="OD20:OE21"/>
-    <mergeCell ref="OF20:OG21"/>
-    <mergeCell ref="OH20:OJ20"/>
-    <mergeCell ref="MZ20:NA21"/>
-    <mergeCell ref="NB20:ND20"/>
-    <mergeCell ref="NE20:NE21"/>
-    <mergeCell ref="NF20:NG21"/>
-    <mergeCell ref="NH20:NI21"/>
-    <mergeCell ref="NJ20:NL20"/>
-    <mergeCell ref="NM20:NM21"/>
-    <mergeCell ref="NN20:NO21"/>
-    <mergeCell ref="NP20:NQ21"/>
-    <mergeCell ref="MH20:MI21"/>
-    <mergeCell ref="MJ20:MK21"/>
-    <mergeCell ref="ML20:MN20"/>
-    <mergeCell ref="MO20:MO21"/>
-    <mergeCell ref="MP20:MQ21"/>
-    <mergeCell ref="MR20:MS21"/>
-    <mergeCell ref="MT20:MV20"/>
-    <mergeCell ref="MW20:MW21"/>
-    <mergeCell ref="MX20:MY21"/>
-    <mergeCell ref="LQ20:LQ21"/>
-    <mergeCell ref="LR20:LS21"/>
-    <mergeCell ref="LT20:LU21"/>
-    <mergeCell ref="LV20:LX20"/>
-    <mergeCell ref="LY20:LY21"/>
-    <mergeCell ref="LZ20:MA21"/>
-    <mergeCell ref="MB20:MC21"/>
-    <mergeCell ref="MD20:MF20"/>
-    <mergeCell ref="MG20:MG21"/>
-    <mergeCell ref="KX20:KZ20"/>
-    <mergeCell ref="LA20:LA21"/>
-    <mergeCell ref="LB20:LC21"/>
-    <mergeCell ref="LD20:LE21"/>
-    <mergeCell ref="LF20:LH20"/>
-    <mergeCell ref="LI20:LI21"/>
-    <mergeCell ref="LJ20:LK21"/>
-    <mergeCell ref="LL20:LM21"/>
-    <mergeCell ref="LN20:LP20"/>
-    <mergeCell ref="KF20:KG21"/>
-    <mergeCell ref="KH20:KJ20"/>
-    <mergeCell ref="KK20:KK21"/>
-    <mergeCell ref="KL20:KM21"/>
-    <mergeCell ref="KN20:KO21"/>
-    <mergeCell ref="KP20:KR20"/>
-    <mergeCell ref="KS20:KS21"/>
-    <mergeCell ref="KT20:KU21"/>
-    <mergeCell ref="KV20:KW21"/>
-    <mergeCell ref="JN20:JO21"/>
-    <mergeCell ref="JP20:JQ21"/>
-    <mergeCell ref="JR20:JT20"/>
-    <mergeCell ref="JU20:JU21"/>
-    <mergeCell ref="JV20:JW21"/>
-    <mergeCell ref="JX20:JY21"/>
-    <mergeCell ref="JZ20:KB20"/>
-    <mergeCell ref="KC20:KC21"/>
-    <mergeCell ref="KD20:KE21"/>
-    <mergeCell ref="IW20:IW21"/>
-    <mergeCell ref="IX20:IY21"/>
-    <mergeCell ref="IZ20:JA21"/>
-    <mergeCell ref="JB20:JD20"/>
-    <mergeCell ref="JE20:JE21"/>
-    <mergeCell ref="JF20:JG21"/>
-    <mergeCell ref="JH20:JI21"/>
-    <mergeCell ref="JJ20:JL20"/>
-    <mergeCell ref="JM20:JM21"/>
-    <mergeCell ref="ID20:IF20"/>
-    <mergeCell ref="IG20:IG21"/>
-    <mergeCell ref="IH20:II21"/>
-    <mergeCell ref="IJ20:IK21"/>
-    <mergeCell ref="IL20:IN20"/>
-    <mergeCell ref="IO20:IO21"/>
-    <mergeCell ref="IP20:IQ21"/>
-    <mergeCell ref="IR20:IS21"/>
-    <mergeCell ref="IT20:IV20"/>
-    <mergeCell ref="HL20:HM21"/>
-    <mergeCell ref="HN20:HP20"/>
-    <mergeCell ref="HQ20:HQ21"/>
-    <mergeCell ref="HR20:HS21"/>
-    <mergeCell ref="HT20:HU21"/>
-    <mergeCell ref="HV20:HX20"/>
-    <mergeCell ref="HY20:HY21"/>
-    <mergeCell ref="HZ20:IA21"/>
-    <mergeCell ref="IB20:IC21"/>
-    <mergeCell ref="GT20:GU21"/>
-    <mergeCell ref="GV20:GW21"/>
-    <mergeCell ref="GX20:GZ20"/>
-    <mergeCell ref="HA20:HA21"/>
-    <mergeCell ref="HB20:HC21"/>
-    <mergeCell ref="HD20:HE21"/>
-    <mergeCell ref="HF20:HH20"/>
-    <mergeCell ref="HI20:HI21"/>
-    <mergeCell ref="HJ20:HK21"/>
-    <mergeCell ref="GC20:GC21"/>
-    <mergeCell ref="GD20:GE21"/>
-    <mergeCell ref="GF20:GG21"/>
-    <mergeCell ref="GH20:GJ20"/>
-    <mergeCell ref="GK20:GK21"/>
-    <mergeCell ref="GL20:GM21"/>
-    <mergeCell ref="GN20:GO21"/>
-    <mergeCell ref="GP20:GR20"/>
-    <mergeCell ref="GS20:GS21"/>
-    <mergeCell ref="FJ20:FL20"/>
-    <mergeCell ref="FM20:FM21"/>
-    <mergeCell ref="FN20:FO21"/>
-    <mergeCell ref="FP20:FQ21"/>
-    <mergeCell ref="FR20:FT20"/>
-    <mergeCell ref="FU20:FU21"/>
-    <mergeCell ref="FV20:FW21"/>
-    <mergeCell ref="FX20:FY21"/>
-    <mergeCell ref="FZ20:GB20"/>
-    <mergeCell ref="ER20:ES21"/>
-    <mergeCell ref="ET20:EV20"/>
-    <mergeCell ref="EW20:EW21"/>
-    <mergeCell ref="EX20:EY21"/>
-    <mergeCell ref="EZ20:FA21"/>
-    <mergeCell ref="FB20:FD20"/>
-    <mergeCell ref="FE20:FE21"/>
-    <mergeCell ref="FF20:FG21"/>
-    <mergeCell ref="FH20:FI21"/>
-    <mergeCell ref="DZ20:EA21"/>
-    <mergeCell ref="EB20:EC21"/>
-    <mergeCell ref="ED20:EF20"/>
-    <mergeCell ref="EG20:EG21"/>
-    <mergeCell ref="EH20:EI21"/>
-    <mergeCell ref="EJ20:EK21"/>
-    <mergeCell ref="EL20:EN20"/>
-    <mergeCell ref="EO20:EO21"/>
-    <mergeCell ref="EP20:EQ21"/>
-    <mergeCell ref="DI20:DI21"/>
-    <mergeCell ref="DJ20:DK21"/>
-    <mergeCell ref="DL20:DM21"/>
-    <mergeCell ref="DN20:DP20"/>
-    <mergeCell ref="DQ20:DQ21"/>
-    <mergeCell ref="DR20:DS21"/>
-    <mergeCell ref="DT20:DU21"/>
-    <mergeCell ref="DV20:DX20"/>
-    <mergeCell ref="DY20:DY21"/>
-    <mergeCell ref="CP20:CR20"/>
-    <mergeCell ref="CS20:CS21"/>
-    <mergeCell ref="CT20:CU21"/>
-    <mergeCell ref="CV20:CW21"/>
-    <mergeCell ref="CX20:CZ20"/>
-    <mergeCell ref="DA20:DA21"/>
-    <mergeCell ref="DB20:DC21"/>
-    <mergeCell ref="DD20:DE21"/>
-    <mergeCell ref="DF20:DH20"/>
-    <mergeCell ref="BX20:BY21"/>
-    <mergeCell ref="BZ20:CB20"/>
-    <mergeCell ref="CC20:CC21"/>
-    <mergeCell ref="CD20:CE21"/>
-    <mergeCell ref="CF20:CG21"/>
-    <mergeCell ref="CH20:CJ20"/>
-    <mergeCell ref="CK20:CK21"/>
-    <mergeCell ref="CL20:CM21"/>
-    <mergeCell ref="CN20:CO21"/>
-    <mergeCell ref="BF20:BG21"/>
-    <mergeCell ref="BH20:BI21"/>
-    <mergeCell ref="BJ20:BL20"/>
-    <mergeCell ref="BM20:BM21"/>
-    <mergeCell ref="BN20:BO21"/>
-    <mergeCell ref="BP20:BQ21"/>
-    <mergeCell ref="BR20:BT20"/>
-    <mergeCell ref="BU20:BU21"/>
-    <mergeCell ref="BV20:BW21"/>
-    <mergeCell ref="AO20:AO21"/>
-    <mergeCell ref="AP20:AQ21"/>
-    <mergeCell ref="AR20:AS21"/>
-    <mergeCell ref="AT20:AV20"/>
-    <mergeCell ref="AW20:AW21"/>
-    <mergeCell ref="AX20:AY21"/>
-    <mergeCell ref="AZ20:BA21"/>
-    <mergeCell ref="BB20:BD20"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:AA21"/>
-    <mergeCell ref="AB20:AC21"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AI21"/>
-    <mergeCell ref="AJ20:AK21"/>
-    <mergeCell ref="AL20:AN20"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="T20:U21"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Saisir obligatoirement dans la liste" sqref="C7:E16 C22:E35" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -9788,21 +9731,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H1" s="35"/>
       <c r="N1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="208" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
+      <c r="B2" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="37" t="s">
         <v>46</v>
       </c>
@@ -9824,67 +9767,67 @@
     </row>
     <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
       <c r="G4" s="3"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="204"/>
+      <c r="C5" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="210"/>
+    </row>
+    <row r="6" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="205"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="213" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="210" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="210" t="s">
+      <c r="D6" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="216"/>
-    </row>
-    <row r="6" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="211"/>
-      <c r="B6" s="212"/>
-      <c r="C6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="217"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="211"/>
     </row>
     <row r="7" spans="1:14" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
       <c r="F7" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="G7" s="222" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="223"/>
+        <v>206</v>
+      </c>
+      <c r="G7" s="213" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9936,21 +9879,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H1" s="50"/>
       <c r="N1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="37" t="s">
         <v>46</v>
       </c>
@@ -9959,7 +9902,7 @@
         <v/>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9975,107 +9918,107 @@
     </row>
     <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
       <c r="G4" s="3"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="204"/>
+      <c r="C5" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="210"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="205"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="213" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="210" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="210" t="s">
+      <c r="D6" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="216"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="211"/>
-      <c r="B6" s="212"/>
-      <c r="C6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="212"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="217"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="211"/>
     </row>
     <row r="7" spans="1:14" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
       <c r="E7" s="51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="207"/>
+        <v>211</v>
+      </c>
+      <c r="G7" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="212"/>
     </row>
     <row r="8" spans="1:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="224" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="225"/>
+        <v>214</v>
+      </c>
+      <c r="G8" s="215" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="216"/>
     </row>
     <row r="9" spans="1:14" ht="117.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="188" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="226"/>
+        <v>217</v>
+      </c>
+      <c r="G9" s="154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10129,21 +10072,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H1" s="50"/>
       <c r="N1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="37" t="s">
         <v>46</v>
       </c>
@@ -10152,7 +10095,7 @@
         <v/>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10168,188 +10111,193 @@
     </row>
     <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
       <c r="G4" s="3"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="204"/>
+      <c r="C5" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="208" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="210"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="205"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="213" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="210" t="s">
+      <c r="D6" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="216"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="211"/>
-      <c r="B6" s="212"/>
-      <c r="C6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="217"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="211"/>
     </row>
     <row r="7" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="178" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="207"/>
+        <v>221</v>
+      </c>
+      <c r="G7" s="167" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="212"/>
     </row>
     <row r="8" spans="1:14" ht="95.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
       <c r="F8" s="66" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="224" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="225"/>
+        <v>225</v>
+      </c>
+      <c r="G8" s="215" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="216"/>
     </row>
     <row r="9" spans="1:14" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
       <c r="F9" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" s="224" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" s="225"/>
+        <v>221</v>
+      </c>
+      <c r="G9" s="215" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="216"/>
     </row>
     <row r="10" spans="1:14" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="224" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" s="225"/>
+        <v>232</v>
+      </c>
+      <c r="G10" s="215" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="216"/>
     </row>
     <row r="11" spans="1:14" ht="184.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
       <c r="F11" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="224" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="225"/>
+        <v>236</v>
+      </c>
+      <c r="G11" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="216"/>
     </row>
     <row r="12" spans="1:14" ht="203.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="G12" s="224" t="s">
-        <v>244</v>
-      </c>
-      <c r="H12" s="225"/>
+        <v>240</v>
+      </c>
+      <c r="G12" s="215" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="216"/>
     </row>
     <row r="13" spans="1:14" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="188" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="226"/>
+        <v>244</v>
+      </c>
+      <c r="G13" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="217"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
@@ -10358,11 +10306,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Saisir obligatoirement dans la liste" sqref="C7:E13" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -10402,21 +10345,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H1" s="50"/>
       <c r="N1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
       <c r="G2" s="37" t="s">
         <v>46</v>
       </c>
@@ -10438,188 +10381,194 @@
     </row>
     <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
       <c r="G4" s="3"/>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="204"/>
+      <c r="C5" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="210"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="232"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="213" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="210" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="210" t="s">
+      <c r="D6" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="216"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="229"/>
-      <c r="B6" s="227"/>
-      <c r="C6" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="228"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="231"/>
     </row>
     <row r="7" spans="1:14" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="80" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="236" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="237"/>
+        <v>248</v>
+      </c>
+      <c r="G7" s="224" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="F8" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="238" t="s">
-        <v>255</v>
-      </c>
-      <c r="H8" s="239"/>
+        <v>251</v>
+      </c>
+      <c r="G8" s="226" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="227"/>
     </row>
     <row r="9" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="85" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C9" s="87"/>
       <c r="D9" s="87"/>
       <c r="E9" s="87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>258</v>
-      </c>
-      <c r="G9" s="238" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="239"/>
+        <v>255</v>
+      </c>
+      <c r="G9" s="226" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="227"/>
     </row>
     <row r="10" spans="1:14" ht="92.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
       <c r="E10" s="87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="240"/>
-      <c r="H10" s="241"/>
+        <v>259</v>
+      </c>
+      <c r="G10" s="228"/>
+      <c r="H10" s="229"/>
     </row>
     <row r="11" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
       <c r="F11" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="230" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="231"/>
+        <v>262</v>
+      </c>
+      <c r="G11" s="218" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="219"/>
     </row>
     <row r="12" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
       <c r="F12" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="G12" s="232" t="s">
         <v>266</v>
       </c>
-      <c r="H12" s="233"/>
+      <c r="G12" s="220" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="221"/>
     </row>
     <row r="13" spans="1:14" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
       <c r="F13" s="95" t="s">
-        <v>272</v>
-      </c>
-      <c r="G13" s="234" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="235"/>
+        <v>269</v>
+      </c>
+      <c r="G13" s="222" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
@@ -10627,12 +10576,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Saisir obligatoirement dans la liste" sqref="C7:E13" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -10679,20 +10622,20 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G1" s="50"/>
       <c r="N1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="208" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
+      <c r="B2" s="202" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
       <c r="F2" s="37" t="s">
         <v>46</v>
       </c>
@@ -10701,7 +10644,7 @@
         <v/>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10716,121 +10659,121 @@
     </row>
     <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="3"/>
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="204"/>
+      <c r="C5" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="207"/>
+      <c r="E5" s="204" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="210"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="205"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="213" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="210" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="216"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="211"/>
-      <c r="B6" s="212"/>
-      <c r="C6" s="42" t="s">
-        <v>114</v>
-      </c>
       <c r="D6" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="217"/>
+        <v>112</v>
+      </c>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="211"/>
     </row>
     <row r="7" spans="1:14" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43"/>
       <c r="B7" s="54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="57"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="245"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="236"/>
     </row>
     <row r="8" spans="1:14" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
       <c r="B8" s="55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="247"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="238"/>
     </row>
     <row r="9" spans="1:14" ht="366.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
       <c r="B9" s="55" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="61"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="243"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="234"/>
     </row>
     <row r="10" spans="1:14" ht="378" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
       <c r="B10" s="55" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="61"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="243"/>
+      <c r="F10" s="233"/>
+      <c r="G10" s="234"/>
     </row>
     <row r="11" spans="1:14" ht="335.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="61"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="243"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D11" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -10847,26 +10790,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8efc5306-c379-4376-aaf8-769300f7cf5a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c030bd-c875-40a5-9144-070ad7aca2e8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010018C1035E2ADD83419D717B7FF37CB3E0" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="318af62eac34f4780a54fbab2589290b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c030bd-c875-40a5-9144-070ad7aca2e8" xmlns:ns3="8efc5306-c379-4376-aaf8-769300f7cf5a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9477837d5754ce460da713f29fc9896d" ns2:_="" ns3:_="">
     <xsd:import namespace="49c030bd-c875-40a5-9144-070ad7aca2e8"/>
@@ -11107,26 +11030,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A86C70BC-3BD9-4F41-91A2-21225972A951}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8efc5306-c379-4376-aaf8-769300f7cf5a"/>
-    <ds:schemaRef ds:uri="49c030bd-c875-40a5-9144-070ad7aca2e8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0A4091-4564-420E-BCF9-49B2F0B7B6D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8efc5306-c379-4376-aaf8-769300f7cf5a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c030bd-c875-40a5-9144-070ad7aca2e8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAC874EE-82EE-4312-88F8-2BDB94B004C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11143,4 +11067,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0A4091-4564-420E-BCF9-49B2F0B7B6D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A86C70BC-3BD9-4F41-91A2-21225972A951}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8efc5306-c379-4376-aaf8-769300f7cf5a"/>
+    <ds:schemaRef ds:uri="49c030bd-c875-40a5-9144-070ad7aca2e8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>